--- a/2.コンピュータ教育学院_2021カリキュラム_0302.xlsx
+++ b/2.コンピュータ教育学院_2021カリキュラム_0302.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="統合カリキュラム" sheetId="17" r:id="rId1"/>
@@ -4639,25 +4639,31 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4665,93 +4671,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4762,6 +4681,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -4771,20 +4717,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4792,26 +4753,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4819,11 +4822,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5293,7 +5293,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B4:T131" totalsRowShown="0" tableBorderDxfId="18">
-  <autoFilter ref="B4:T131"/>
+  <autoFilter ref="B4:T131">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Excel VBA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" name="列1" dataDxfId="17"/>
     <tableColumn id="2" name="列2" dataDxfId="16"/>
@@ -5315,7 +5321,7 @@
     <tableColumn id="18" name="列18" dataDxfId="1"/>
     <tableColumn id="19" name="列19" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -5612,11 +5618,11 @@
   </sheetPr>
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5781,7 +5787,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" hidden="1">
       <c r="B5" s="266">
         <v>1</v>
       </c>
@@ -5835,7 +5841,7 @@
       </c>
       <c r="T5" s="209"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" hidden="1">
       <c r="B6" s="266">
         <v>2</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" hidden="1">
       <c r="B7" s="266">
         <v>3</v>
       </c>
@@ -5941,7 +5947,7 @@
       <c r="S7" s="209"/>
       <c r="T7" s="209"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" hidden="1">
       <c r="B8" s="266">
         <v>4</v>
       </c>
@@ -5993,7 +5999,7 @@
       <c r="S8" s="209"/>
       <c r="T8" s="209"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" hidden="1">
       <c r="B9" s="266">
         <v>5</v>
       </c>
@@ -6045,7 +6051,7 @@
       <c r="S9" s="209"/>
       <c r="T9" s="209"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" hidden="1">
       <c r="B10" s="266">
         <v>6</v>
       </c>
@@ -6097,7 +6103,7 @@
       <c r="S10" s="209"/>
       <c r="T10" s="209"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1">
       <c r="B11" s="266">
         <v>7</v>
       </c>
@@ -6149,7 +6155,7 @@
       <c r="S11" s="209"/>
       <c r="T11" s="209"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1">
       <c r="B12" s="266">
         <v>8</v>
       </c>
@@ -6201,7 +6207,7 @@
       <c r="S12" s="209"/>
       <c r="T12" s="209"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" hidden="1">
       <c r="B13" s="266">
         <v>9</v>
       </c>
@@ -6253,7 +6259,7 @@
       <c r="S13" s="209"/>
       <c r="T13" s="209"/>
     </row>
-    <row r="14" spans="1:20" s="207" customFormat="1">
+    <row r="14" spans="1:20" s="207" customFormat="1" hidden="1">
       <c r="B14" s="266">
         <v>10</v>
       </c>
@@ -6306,7 +6312,7 @@
       <c r="S14" s="209"/>
       <c r="T14" s="209"/>
     </row>
-    <row r="15" spans="1:20" s="207" customFormat="1">
+    <row r="15" spans="1:20" s="207" customFormat="1" hidden="1">
       <c r="B15" s="266">
         <v>11</v>
       </c>
@@ -6358,7 +6364,7 @@
       <c r="S15" s="209"/>
       <c r="T15" s="209"/>
     </row>
-    <row r="16" spans="1:20" s="207" customFormat="1">
+    <row r="16" spans="1:20" s="207" customFormat="1" hidden="1">
       <c r="B16" s="266">
         <v>12</v>
       </c>
@@ -6410,7 +6416,7 @@
       <c r="S16" s="209"/>
       <c r="T16" s="209"/>
     </row>
-    <row r="17" spans="2:20" s="207" customFormat="1">
+    <row r="17" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B17" s="266">
         <v>13</v>
       </c>
@@ -6462,7 +6468,7 @@
       <c r="S17" s="209"/>
       <c r="T17" s="209"/>
     </row>
-    <row r="18" spans="2:20" s="207" customFormat="1">
+    <row r="18" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B18" s="266">
         <v>14</v>
       </c>
@@ -6514,7 +6520,7 @@
       <c r="S18" s="209"/>
       <c r="T18" s="209"/>
     </row>
-    <row r="19" spans="2:20" s="207" customFormat="1">
+    <row r="19" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B19" s="266">
         <v>15</v>
       </c>
@@ -6566,7 +6572,7 @@
       <c r="S19" s="209"/>
       <c r="T19" s="209"/>
     </row>
-    <row r="20" spans="2:20" s="207" customFormat="1">
+    <row r="20" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B20" s="266">
         <v>16</v>
       </c>
@@ -6618,7 +6624,7 @@
       <c r="S20" s="209"/>
       <c r="T20" s="209"/>
     </row>
-    <row r="21" spans="2:20" s="207" customFormat="1">
+    <row r="21" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B21" s="266">
         <v>17</v>
       </c>
@@ -6670,7 +6676,7 @@
       <c r="S21" s="209"/>
       <c r="T21" s="209"/>
     </row>
-    <row r="22" spans="2:20" s="207" customFormat="1">
+    <row r="22" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B22" s="266">
         <v>18</v>
       </c>
@@ -6722,7 +6728,7 @@
       <c r="S22" s="209"/>
       <c r="T22" s="209"/>
     </row>
-    <row r="23" spans="2:20" s="207" customFormat="1">
+    <row r="23" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B23" s="266">
         <v>19</v>
       </c>
@@ -6774,7 +6780,7 @@
       <c r="S23" s="209"/>
       <c r="T23" s="209"/>
     </row>
-    <row r="24" spans="2:20" s="207" customFormat="1">
+    <row r="24" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B24" s="266">
         <v>20</v>
       </c>
@@ -6826,7 +6832,7 @@
       <c r="S24" s="209"/>
       <c r="T24" s="209"/>
     </row>
-    <row r="25" spans="2:20" s="207" customFormat="1">
+    <row r="25" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B25" s="266">
         <v>21</v>
       </c>
@@ -6878,7 +6884,7 @@
       <c r="S25" s="209"/>
       <c r="T25" s="209"/>
     </row>
-    <row r="26" spans="2:20" s="207" customFormat="1">
+    <row r="26" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B26" s="266">
         <v>22</v>
       </c>
@@ -6930,7 +6936,7 @@
       <c r="S26" s="209"/>
       <c r="T26" s="209"/>
     </row>
-    <row r="27" spans="2:20" s="207" customFormat="1">
+    <row r="27" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B27" s="266">
         <v>23</v>
       </c>
@@ -6982,7 +6988,7 @@
       <c r="S27" s="209"/>
       <c r="T27" s="209"/>
     </row>
-    <row r="28" spans="2:20" s="207" customFormat="1">
+    <row r="28" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B28" s="266">
         <v>24</v>
       </c>
@@ -7034,7 +7040,7 @@
       <c r="S28" s="209"/>
       <c r="T28" s="209"/>
     </row>
-    <row r="29" spans="2:20" s="207" customFormat="1">
+    <row r="29" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B29" s="266">
         <v>25</v>
       </c>
@@ -7086,7 +7092,7 @@
       <c r="S29" s="209"/>
       <c r="T29" s="209"/>
     </row>
-    <row r="30" spans="2:20" s="207" customFormat="1">
+    <row r="30" spans="2:20" s="207" customFormat="1" hidden="1">
       <c r="B30" s="266">
         <v>26</v>
       </c>
@@ -7138,7 +7144,7 @@
       <c r="S30" s="209"/>
       <c r="T30" s="209"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" hidden="1">
       <c r="B31" s="266">
         <v>27</v>
       </c>
@@ -7191,7 +7197,7 @@
       <c r="S31" s="209"/>
       <c r="T31" s="209"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" hidden="1">
       <c r="B32" s="266">
         <v>28</v>
       </c>
@@ -7245,7 +7251,7 @@
       </c>
       <c r="T32" s="209"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" hidden="1">
       <c r="B33" s="266">
         <v>29</v>
       </c>
@@ -7297,7 +7303,7 @@
       <c r="S33" s="209"/>
       <c r="T33" s="209"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" hidden="1">
       <c r="B34" s="266">
         <v>30</v>
       </c>
@@ -7349,7 +7355,7 @@
       <c r="S34" s="209"/>
       <c r="T34" s="209"/>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" hidden="1">
       <c r="B35" s="266">
         <v>31</v>
       </c>
@@ -7401,7 +7407,7 @@
       <c r="S35" s="209"/>
       <c r="T35" s="209"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:20" hidden="1">
       <c r="B36" s="266">
         <v>32</v>
       </c>
@@ -7455,7 +7461,7 @@
       </c>
       <c r="T36" s="209"/>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:20" hidden="1">
       <c r="B37" s="266">
         <v>33</v>
       </c>
@@ -7561,7 +7567,7 @@
       <c r="S38" s="209"/>
       <c r="T38" s="209"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" hidden="1">
       <c r="B39" s="266">
         <v>35</v>
       </c>
@@ -7613,7 +7619,7 @@
       <c r="S39" s="209"/>
       <c r="T39" s="209"/>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" hidden="1">
       <c r="B40" s="266">
         <v>36</v>
       </c>
@@ -7665,7 +7671,7 @@
       <c r="S40" s="209"/>
       <c r="T40" s="209"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" hidden="1">
       <c r="B41" s="266">
         <v>37</v>
       </c>
@@ -7717,7 +7723,7 @@
       <c r="S41" s="209"/>
       <c r="T41" s="209"/>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" hidden="1">
       <c r="B42" s="266">
         <v>38</v>
       </c>
@@ -7771,7 +7777,7 @@
       </c>
       <c r="T42" s="209"/>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" hidden="1">
       <c r="B43" s="266">
         <v>39</v>
       </c>
@@ -7823,7 +7829,7 @@
       <c r="S43" s="209"/>
       <c r="T43" s="209"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" hidden="1">
       <c r="B44" s="266">
         <v>40</v>
       </c>
@@ -7877,7 +7883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" hidden="1">
       <c r="B45" s="266">
         <v>41</v>
       </c>
@@ -7929,7 +7935,7 @@
       <c r="S45" s="209"/>
       <c r="T45" s="209"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" hidden="1">
       <c r="B46" s="266">
         <v>42</v>
       </c>
@@ -7981,7 +7987,7 @@
       <c r="S46" s="209"/>
       <c r="T46" s="209"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:20" hidden="1">
       <c r="B47" s="266">
         <v>43</v>
       </c>
@@ -8035,7 +8041,7 @@
       </c>
       <c r="T47" s="209"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" hidden="1">
       <c r="B48" s="266">
         <v>44</v>
       </c>
@@ -8087,7 +8093,7 @@
       <c r="S48" s="209"/>
       <c r="T48" s="209"/>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" hidden="1">
       <c r="B49" s="266">
         <v>45</v>
       </c>
@@ -8139,7 +8145,7 @@
       <c r="S49" s="209"/>
       <c r="T49" s="209"/>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:20" hidden="1">
       <c r="B50" s="266">
         <v>46</v>
       </c>
@@ -8191,7 +8197,7 @@
       <c r="S50" s="209"/>
       <c r="T50" s="209"/>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:20" hidden="1">
       <c r="B51" s="266">
         <v>47</v>
       </c>
@@ -8243,7 +8249,7 @@
       <c r="S51" s="209"/>
       <c r="T51" s="209"/>
     </row>
-    <row r="52" spans="2:20">
+    <row r="52" spans="2:20" hidden="1">
       <c r="B52" s="266">
         <v>48</v>
       </c>
@@ -8295,7 +8301,7 @@
       <c r="S52" s="209"/>
       <c r="T52" s="209"/>
     </row>
-    <row r="53" spans="2:20">
+    <row r="53" spans="2:20" hidden="1">
       <c r="B53" s="266">
         <v>49</v>
       </c>
@@ -8347,7 +8353,7 @@
       <c r="S53" s="209"/>
       <c r="T53" s="209"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" hidden="1">
       <c r="B54" s="266">
         <v>50</v>
       </c>
@@ -8399,7 +8405,7 @@
       <c r="S54" s="209"/>
       <c r="T54" s="209"/>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" hidden="1">
       <c r="B55" s="266">
         <v>51</v>
       </c>
@@ -8451,7 +8457,7 @@
       <c r="S55" s="209"/>
       <c r="T55" s="209"/>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" hidden="1">
       <c r="B56" s="266">
         <v>52</v>
       </c>
@@ -8503,7 +8509,7 @@
       <c r="S56" s="209"/>
       <c r="T56" s="209"/>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" hidden="1">
       <c r="B57" s="266">
         <v>53</v>
       </c>
@@ -8555,7 +8561,7 @@
       <c r="S57" s="209"/>
       <c r="T57" s="209"/>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" hidden="1">
       <c r="B58" s="266">
         <v>54</v>
       </c>
@@ -8607,7 +8613,7 @@
       <c r="S58" s="209"/>
       <c r="T58" s="209"/>
     </row>
-    <row r="59" spans="2:20">
+    <row r="59" spans="2:20" hidden="1">
       <c r="B59" s="266">
         <v>55</v>
       </c>
@@ -8659,7 +8665,7 @@
       <c r="S59" s="209"/>
       <c r="T59" s="209"/>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" hidden="1">
       <c r="B60" s="266">
         <v>56</v>
       </c>
@@ -8713,7 +8719,7 @@
       </c>
       <c r="T60" s="209"/>
     </row>
-    <row r="61" spans="2:20">
+    <row r="61" spans="2:20" hidden="1">
       <c r="B61" s="266">
         <v>57</v>
       </c>
@@ -8767,7 +8773,7 @@
       </c>
       <c r="T61" s="209"/>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" hidden="1">
       <c r="B62" s="266">
         <v>58</v>
       </c>
@@ -8821,7 +8827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" hidden="1">
       <c r="B63" s="266">
         <v>59</v>
       </c>
@@ -8875,7 +8881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" hidden="1">
       <c r="B64" s="266">
         <v>60</v>
       </c>
@@ -8927,7 +8933,7 @@
       <c r="S64" s="209"/>
       <c r="T64" s="209"/>
     </row>
-    <row r="65" spans="2:20">
+    <row r="65" spans="2:20" hidden="1">
       <c r="B65" s="266">
         <v>61</v>
       </c>
@@ -8979,7 +8985,7 @@
       <c r="S65" s="209"/>
       <c r="T65" s="209"/>
     </row>
-    <row r="66" spans="2:20">
+    <row r="66" spans="2:20" hidden="1">
       <c r="B66" s="266">
         <v>62</v>
       </c>
@@ -9031,7 +9037,7 @@
       <c r="S66" s="209"/>
       <c r="T66" s="209"/>
     </row>
-    <row r="67" spans="2:20">
+    <row r="67" spans="2:20" hidden="1">
       <c r="B67" s="266">
         <v>63</v>
       </c>
@@ -9083,7 +9089,7 @@
       <c r="S67" s="209"/>
       <c r="T67" s="209"/>
     </row>
-    <row r="68" spans="2:20">
+    <row r="68" spans="2:20" hidden="1">
       <c r="B68" s="266">
         <v>64</v>
       </c>
@@ -9135,7 +9141,7 @@
       <c r="S68" s="209"/>
       <c r="T68" s="209"/>
     </row>
-    <row r="69" spans="2:20">
+    <row r="69" spans="2:20" hidden="1">
       <c r="B69" s="266">
         <v>65</v>
       </c>
@@ -9187,7 +9193,7 @@
       <c r="S69" s="209"/>
       <c r="T69" s="209"/>
     </row>
-    <row r="70" spans="2:20">
+    <row r="70" spans="2:20" hidden="1">
       <c r="B70" s="266">
         <v>66</v>
       </c>
@@ -9241,7 +9247,7 @@
       </c>
       <c r="T70" s="209"/>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="2:20" hidden="1">
       <c r="B71" s="266">
         <v>67</v>
       </c>
@@ -9295,7 +9301,7 @@
       </c>
       <c r="T71" s="209"/>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="2:20" hidden="1">
       <c r="B72" s="266">
         <v>68</v>
       </c>
@@ -9347,7 +9353,7 @@
       <c r="S72" s="209"/>
       <c r="T72" s="209"/>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="2:20" hidden="1">
       <c r="B73" s="266">
         <v>69</v>
       </c>
@@ -9401,7 +9407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="2:20" hidden="1">
       <c r="B74" s="266">
         <v>70</v>
       </c>
@@ -9453,7 +9459,7 @@
       <c r="S74" s="209"/>
       <c r="T74" s="209"/>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="2:20" hidden="1">
       <c r="B75" s="266">
         <v>71</v>
       </c>
@@ -9505,7 +9511,7 @@
       <c r="S75" s="209"/>
       <c r="T75" s="209"/>
     </row>
-    <row r="76" spans="2:20">
+    <row r="76" spans="2:20" hidden="1">
       <c r="B76" s="266">
         <v>72</v>
       </c>
@@ -9559,7 +9565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="2:20" hidden="1">
       <c r="B77" s="266">
         <v>73</v>
       </c>
@@ -9611,7 +9617,7 @@
       <c r="S77" s="209"/>
       <c r="T77" s="209"/>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="2:20" hidden="1">
       <c r="B78" s="266">
         <v>74</v>
       </c>
@@ -9665,7 +9671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:20">
+    <row r="79" spans="2:20" hidden="1">
       <c r="B79" s="266">
         <v>75</v>
       </c>
@@ -9717,7 +9723,7 @@
       <c r="S79" s="209"/>
       <c r="T79" s="209"/>
     </row>
-    <row r="80" spans="2:20">
+    <row r="80" spans="2:20" hidden="1">
       <c r="B80" s="266">
         <v>76</v>
       </c>
@@ -9771,7 +9777,7 @@
       </c>
       <c r="T80" s="209"/>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:20" hidden="1">
       <c r="B81" s="266">
         <v>77</v>
       </c>
@@ -9825,7 +9831,7 @@
       </c>
       <c r="T81" s="209"/>
     </row>
-    <row r="82" spans="2:20">
+    <row r="82" spans="2:20" hidden="1">
       <c r="B82" s="266">
         <v>78</v>
       </c>
@@ -9879,7 +9885,7 @@
       </c>
       <c r="T82" s="209"/>
     </row>
-    <row r="83" spans="2:20">
+    <row r="83" spans="2:20" hidden="1">
       <c r="B83" s="266">
         <v>79</v>
       </c>
@@ -9933,7 +9939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="2:20" hidden="1">
       <c r="B84" s="266">
         <v>80</v>
       </c>
@@ -9987,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="2:20" hidden="1">
       <c r="B85" s="266">
         <v>81</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:20">
+    <row r="86" spans="2:20" hidden="1">
       <c r="B86" s="266">
         <v>82</v>
       </c>
@@ -10095,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:20">
+    <row r="87" spans="2:20" hidden="1">
       <c r="B87" s="266">
         <v>83</v>
       </c>
@@ -10147,7 +10153,7 @@
       <c r="S87" s="209"/>
       <c r="T87" s="209"/>
     </row>
-    <row r="88" spans="2:20">
+    <row r="88" spans="2:20" hidden="1">
       <c r="B88" s="266">
         <v>84</v>
       </c>
@@ -10199,7 +10205,7 @@
       <c r="S88" s="209"/>
       <c r="T88" s="209"/>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="2:20" hidden="1">
       <c r="B89" s="266">
         <v>85</v>
       </c>
@@ -10251,7 +10257,7 @@
       <c r="S89" s="209"/>
       <c r="T89" s="209"/>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="2:20" hidden="1">
       <c r="B90" s="266">
         <v>86</v>
       </c>
@@ -10303,7 +10309,7 @@
       <c r="S90" s="209"/>
       <c r="T90" s="209"/>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="2:20" hidden="1">
       <c r="B91" s="266">
         <v>87</v>
       </c>
@@ -10357,7 +10363,7 @@
       </c>
       <c r="T91" s="209"/>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="2:20" hidden="1">
       <c r="B92" s="266">
         <v>88</v>
       </c>
@@ -10411,7 +10417,7 @@
       </c>
       <c r="T92" s="209"/>
     </row>
-    <row r="93" spans="2:20">
+    <row r="93" spans="2:20" hidden="1">
       <c r="B93" s="266">
         <v>89</v>
       </c>
@@ -10465,7 +10471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:20">
+    <row r="94" spans="2:20" hidden="1">
       <c r="B94" s="266">
         <v>90</v>
       </c>
@@ -10519,7 +10525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:20">
+    <row r="95" spans="2:20" hidden="1">
       <c r="B95" s="266">
         <v>91</v>
       </c>
@@ -10573,7 +10579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:20">
+    <row r="96" spans="2:20" hidden="1">
       <c r="B96" s="266">
         <v>92</v>
       </c>
@@ -10627,7 +10633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:20">
+    <row r="97" spans="2:20" hidden="1">
       <c r="B97" s="266">
         <v>93</v>
       </c>
@@ -10679,7 +10685,7 @@
       <c r="S97" s="209"/>
       <c r="T97" s="209"/>
     </row>
-    <row r="98" spans="2:20">
+    <row r="98" spans="2:20" hidden="1">
       <c r="B98" s="266">
         <v>94</v>
       </c>
@@ -10733,7 +10739,7 @@
       </c>
       <c r="T98" s="209"/>
     </row>
-    <row r="99" spans="2:20">
+    <row r="99" spans="2:20" hidden="1">
       <c r="B99" s="266">
         <v>95</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:20">
+    <row r="100" spans="2:20" hidden="1">
       <c r="B100" s="266">
         <v>96</v>
       </c>
@@ -10841,7 +10847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:20">
+    <row r="101" spans="2:20" hidden="1">
       <c r="B101" s="266">
         <v>97</v>
       </c>
@@ -10895,7 +10901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:20">
+    <row r="102" spans="2:20" hidden="1">
       <c r="B102" s="266">
         <v>98</v>
       </c>
@@ -10949,7 +10955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:20">
+    <row r="103" spans="2:20" hidden="1">
       <c r="B103" s="266">
         <v>99</v>
       </c>
@@ -11001,7 +11007,7 @@
       <c r="S103" s="209"/>
       <c r="T103" s="209"/>
     </row>
-    <row r="104" spans="2:20">
+    <row r="104" spans="2:20" hidden="1">
       <c r="B104" s="266">
         <v>100</v>
       </c>
@@ -11053,7 +11059,7 @@
       <c r="S104" s="209"/>
       <c r="T104" s="209"/>
     </row>
-    <row r="105" spans="2:20">
+    <row r="105" spans="2:20" hidden="1">
       <c r="B105" s="266">
         <v>101</v>
       </c>
@@ -11107,7 +11113,7 @@
       </c>
       <c r="T105" s="209"/>
     </row>
-    <row r="106" spans="2:20">
+    <row r="106" spans="2:20" hidden="1">
       <c r="B106" s="266">
         <v>102</v>
       </c>
@@ -11159,7 +11165,7 @@
       <c r="S106" s="209"/>
       <c r="T106" s="209"/>
     </row>
-    <row r="107" spans="2:20">
+    <row r="107" spans="2:20" hidden="1">
       <c r="B107" s="266">
         <v>103</v>
       </c>
@@ -11213,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:20">
+    <row r="108" spans="2:20" hidden="1">
       <c r="B108" s="266">
         <v>104</v>
       </c>
@@ -11265,7 +11271,7 @@
       <c r="S108" s="209"/>
       <c r="T108" s="209"/>
     </row>
-    <row r="109" spans="2:20">
+    <row r="109" spans="2:20" hidden="1">
       <c r="B109" s="266">
         <v>105</v>
       </c>
@@ -11317,7 +11323,7 @@
       <c r="S109" s="209"/>
       <c r="T109" s="209"/>
     </row>
-    <row r="110" spans="2:20">
+    <row r="110" spans="2:20" hidden="1">
       <c r="B110" s="266">
         <v>106</v>
       </c>
@@ -11369,7 +11375,7 @@
       <c r="S110" s="209"/>
       <c r="T110" s="209"/>
     </row>
-    <row r="111" spans="2:20">
+    <row r="111" spans="2:20" hidden="1">
       <c r="B111" s="266">
         <v>107</v>
       </c>
@@ -11421,7 +11427,7 @@
       <c r="S111" s="209"/>
       <c r="T111" s="209"/>
     </row>
-    <row r="112" spans="2:20">
+    <row r="112" spans="2:20" hidden="1">
       <c r="B112" s="266">
         <v>108</v>
       </c>
@@ -11473,7 +11479,7 @@
       <c r="S112" s="224"/>
       <c r="T112" s="224"/>
     </row>
-    <row r="113" spans="2:20">
+    <row r="113" spans="2:20" hidden="1">
       <c r="B113" s="266">
         <v>109</v>
       </c>
@@ -11525,7 +11531,7 @@
       <c r="S113" s="224"/>
       <c r="T113" s="224"/>
     </row>
-    <row r="114" spans="2:20">
+    <row r="114" spans="2:20" hidden="1">
       <c r="B114" s="266">
         <v>110</v>
       </c>
@@ -11577,7 +11583,7 @@
       <c r="S114" s="224"/>
       <c r="T114" s="224"/>
     </row>
-    <row r="115" spans="2:20">
+    <row r="115" spans="2:20" hidden="1">
       <c r="B115" s="266">
         <v>111</v>
       </c>
@@ -11629,7 +11635,7 @@
       <c r="S115" s="224"/>
       <c r="T115" s="224"/>
     </row>
-    <row r="116" spans="2:20">
+    <row r="116" spans="2:20" hidden="1">
       <c r="B116" s="266">
         <v>112</v>
       </c>
@@ -11681,7 +11687,7 @@
       <c r="S116" s="224"/>
       <c r="T116" s="224"/>
     </row>
-    <row r="117" spans="2:20">
+    <row r="117" spans="2:20" hidden="1">
       <c r="B117" s="266">
         <v>113</v>
       </c>
@@ -11733,7 +11739,7 @@
       <c r="S117" s="226"/>
       <c r="T117" s="224"/>
     </row>
-    <row r="118" spans="2:20">
+    <row r="118" spans="2:20" hidden="1">
       <c r="B118" s="266">
         <v>114</v>
       </c>
@@ -11785,7 +11791,7 @@
       <c r="S118" s="224"/>
       <c r="T118" s="226"/>
     </row>
-    <row r="119" spans="2:20">
+    <row r="119" spans="2:20" hidden="1">
       <c r="B119" s="266">
         <v>115</v>
       </c>
@@ -11837,7 +11843,7 @@
       <c r="S119" s="224"/>
       <c r="T119" s="224"/>
     </row>
-    <row r="120" spans="2:20">
+    <row r="120" spans="2:20" hidden="1">
       <c r="B120" s="266">
         <v>116</v>
       </c>
@@ -11889,7 +11895,7 @@
       <c r="S120" s="226"/>
       <c r="T120" s="224"/>
     </row>
-    <row r="121" spans="2:20">
+    <row r="121" spans="2:20" hidden="1">
       <c r="B121" s="266">
         <v>117</v>
       </c>
@@ -11941,7 +11947,7 @@
       <c r="S121" s="224"/>
       <c r="T121" s="226"/>
     </row>
-    <row r="122" spans="2:20">
+    <row r="122" spans="2:20" hidden="1">
       <c r="B122" s="266">
         <v>118</v>
       </c>
@@ -11993,7 +11999,7 @@
       <c r="S122" s="224"/>
       <c r="T122" s="224"/>
     </row>
-    <row r="123" spans="2:20">
+    <row r="123" spans="2:20" hidden="1">
       <c r="B123" s="266">
         <v>119</v>
       </c>
@@ -12045,7 +12051,7 @@
       <c r="S123" s="224"/>
       <c r="T123" s="224"/>
     </row>
-    <row r="124" spans="2:20">
+    <row r="124" spans="2:20" hidden="1">
       <c r="B124" s="266">
         <v>120</v>
       </c>
@@ -12097,7 +12103,7 @@
       <c r="S124" s="226"/>
       <c r="T124" s="224"/>
     </row>
-    <row r="125" spans="2:20">
+    <row r="125" spans="2:20" hidden="1">
       <c r="B125" s="266">
         <v>121</v>
       </c>
@@ -12149,7 +12155,7 @@
       <c r="S125" s="224"/>
       <c r="T125" s="226"/>
     </row>
-    <row r="126" spans="2:20">
+    <row r="126" spans="2:20" hidden="1">
       <c r="B126" s="266">
         <v>122</v>
       </c>
@@ -12201,7 +12207,7 @@
       <c r="S126" s="224"/>
       <c r="T126" s="224"/>
     </row>
-    <row r="127" spans="2:20">
+    <row r="127" spans="2:20" hidden="1">
       <c r="B127" s="266">
         <v>123</v>
       </c>
@@ -12253,7 +12259,7 @@
       <c r="S127" s="224"/>
       <c r="T127" s="224"/>
     </row>
-    <row r="128" spans="2:20">
+    <row r="128" spans="2:20" hidden="1">
       <c r="B128" s="266">
         <v>124</v>
       </c>
@@ -12305,7 +12311,7 @@
       <c r="S128" s="224"/>
       <c r="T128" s="224"/>
     </row>
-    <row r="129" spans="2:20">
+    <row r="129" spans="2:20" hidden="1">
       <c r="B129" s="266">
         <v>125</v>
       </c>
@@ -12357,7 +12363,7 @@
       <c r="S129" s="224"/>
       <c r="T129" s="224"/>
     </row>
-    <row r="130" spans="2:20">
+    <row r="130" spans="2:20" hidden="1">
       <c r="B130" s="266">
         <v>126</v>
       </c>
@@ -12409,7 +12415,7 @@
       <c r="S130" s="224"/>
       <c r="T130" s="224"/>
     </row>
-    <row r="131" spans="2:20">
+    <row r="131" spans="2:20" hidden="1">
       <c r="B131" s="266">
         <v>127</v>
       </c>
@@ -13037,55 +13043,55 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="320" t="s">
+      <c r="D6" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="318" t="s">
+      <c r="E6" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="290"/>
+      <c r="I6" s="307"/>
       <c r="J6" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="290"/>
-      <c r="L6" s="301" t="s">
+      <c r="K6" s="307"/>
+      <c r="L6" s="308" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="295"/>
-      <c r="O6" s="295"/>
-      <c r="P6" s="295"/>
-      <c r="Q6" s="296"/>
-      <c r="R6" s="297" t="s">
+      <c r="N6" s="290"/>
+      <c r="O6" s="290"/>
+      <c r="P6" s="290"/>
+      <c r="Q6" s="291"/>
+      <c r="R6" s="298" t="s">
         <v>35</v>
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="298"/>
-      <c r="C7" s="324"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="314"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
       <c r="H7" s="86" t="s">
         <v>8</v>
       </c>
@@ -13098,7 +13104,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="302"/>
+      <c r="L7" s="309"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -13114,12 +13120,12 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="298"/>
+      <c r="R7" s="299"/>
       <c r="S7" s="59"/>
       <c r="T7" s="59"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="292" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -13171,7 +13177,7 @@
       <c r="T8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="292"/>
       <c r="C9" s="43" t="s">
         <v>260</v>
       </c>
@@ -13221,7 +13227,7 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="292"/>
       <c r="C10" s="43" t="s">
         <v>103</v>
       </c>
@@ -13271,7 +13277,7 @@
       <c r="T10" s="47"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="292"/>
       <c r="C11" s="147" t="s">
         <v>16</v>
       </c>
@@ -13321,7 +13327,7 @@
       <c r="T11" s="47"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="292"/>
       <c r="C12" s="19" t="s">
         <v>68</v>
       </c>
@@ -13371,7 +13377,7 @@
       <c r="T12" s="47"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="292"/>
       <c r="C13" s="43" t="s">
         <v>263</v>
       </c>
@@ -13421,7 +13427,7 @@
       <c r="T13" s="47"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="43" t="s">
         <v>264</v>
       </c>
@@ -13471,7 +13477,7 @@
       <c r="T14" s="47"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="292"/>
       <c r="C15" s="43" t="s">
         <v>345</v>
       </c>
@@ -13521,7 +13527,7 @@
       <c r="T15" s="47"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13571,7 +13577,7 @@
       <c r="T16" s="47"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="292"/>
       <c r="C17" s="43" t="s">
         <v>78</v>
       </c>
@@ -13621,7 +13627,7 @@
       <c r="T17" s="47"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="22" t="s">
         <v>272</v>
       </c>
@@ -13671,7 +13677,7 @@
       <c r="T18" s="47"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="22" t="s">
         <v>273</v>
       </c>
@@ -13721,7 +13727,7 @@
       <c r="T19" s="47"/>
     </row>
     <row r="20" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="22" t="s">
         <v>119</v>
       </c>
@@ -13771,7 +13777,7 @@
       <c r="T20" s="47"/>
     </row>
     <row r="21" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="292"/>
       <c r="C21" s="22" t="s">
         <v>266</v>
       </c>
@@ -13821,7 +13827,7 @@
       <c r="T21" s="47"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="22" t="s">
         <v>298</v>
       </c>
@@ -13871,7 +13877,7 @@
       <c r="T22" s="47"/>
     </row>
     <row r="23" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="292"/>
       <c r="C23" s="22" t="s">
         <v>120</v>
       </c>
@@ -13921,7 +13927,7 @@
       <c r="T23" s="47"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B24" s="310"/>
+      <c r="B24" s="292"/>
       <c r="C24" s="22" t="s">
         <v>100</v>
       </c>
@@ -13971,7 +13977,7 @@
       <c r="T24" s="47"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B25" s="310"/>
+      <c r="B25" s="292"/>
       <c r="C25" s="22" t="s">
         <v>98</v>
       </c>
@@ -14021,7 +14027,7 @@
       <c r="T25" s="47"/>
     </row>
     <row r="26" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B26" s="310"/>
+      <c r="B26" s="292"/>
       <c r="C26" s="22" t="s">
         <v>88</v>
       </c>
@@ -14071,7 +14077,7 @@
       <c r="T26" s="47"/>
     </row>
     <row r="27" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B27" s="310"/>
+      <c r="B27" s="292"/>
       <c r="C27" s="27" t="s">
         <v>96</v>
       </c>
@@ -14121,7 +14127,7 @@
       <c r="T27" s="47"/>
     </row>
     <row r="28" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="311"/>
+      <c r="B28" s="293"/>
       <c r="C28" s="17" t="s">
         <v>11</v>
       </c>
@@ -14177,7 +14183,7 @@
       <c r="T28" s="47"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B29" s="312" t="s">
+      <c r="B29" s="294" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -14229,7 +14235,7 @@
       <c r="T29" s="47"/>
     </row>
     <row r="30" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B30" s="310"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="43" t="s">
         <v>261</v>
       </c>
@@ -14279,7 +14285,7 @@
       <c r="T30" s="47"/>
     </row>
     <row r="31" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="310"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="146" t="s">
         <v>116</v>
       </c>
@@ -14329,7 +14335,7 @@
       <c r="T31" s="47"/>
     </row>
     <row r="32" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B32" s="310"/>
+      <c r="B32" s="292"/>
       <c r="C32" s="19" t="s">
         <v>346</v>
       </c>
@@ -14379,7 +14385,7 @@
       <c r="T32" s="47"/>
     </row>
     <row r="33" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B33" s="310"/>
+      <c r="B33" s="292"/>
       <c r="C33" s="22" t="s">
         <v>347</v>
       </c>
@@ -14429,7 +14435,7 @@
       <c r="T33" s="47"/>
     </row>
     <row r="34" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B34" s="310"/>
+      <c r="B34" s="292"/>
       <c r="C34" s="22" t="s">
         <v>348</v>
       </c>
@@ -14479,7 +14485,7 @@
       <c r="T34" s="47"/>
     </row>
     <row r="35" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B35" s="310"/>
+      <c r="B35" s="292"/>
       <c r="C35" s="22" t="s">
         <v>349</v>
       </c>
@@ -14529,7 +14535,7 @@
       <c r="T35" s="47"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="310"/>
+      <c r="B36" s="292"/>
       <c r="C36" s="43" t="s">
         <v>274</v>
       </c>
@@ -14579,7 +14585,7 @@
       <c r="T36" s="47"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="292"/>
       <c r="C37" s="22" t="s">
         <v>275</v>
       </c>
@@ -14629,7 +14635,7 @@
       <c r="T37" s="47"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="292"/>
       <c r="C38" s="22" t="s">
         <v>104</v>
       </c>
@@ -14679,7 +14685,7 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="292"/>
       <c r="C39" s="22" t="s">
         <v>280</v>
       </c>
@@ -14729,7 +14735,7 @@
       <c r="T39" s="47"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B40" s="310"/>
+      <c r="B40" s="292"/>
       <c r="C40" s="22" t="s">
         <v>105</v>
       </c>
@@ -14779,7 +14785,7 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B41" s="310"/>
+      <c r="B41" s="292"/>
       <c r="C41" s="22" t="s">
         <v>99</v>
       </c>
@@ -14829,49 +14835,49 @@
       <c r="T41" s="47"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B42" s="310"/>
+      <c r="B42" s="292"/>
       <c r="C42" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="315" t="s">
+      <c r="E42" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="273">
+      <c r="F42" s="271">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="G42" s="273">
+      <c r="G42" s="271">
         <f t="shared" si="21"/>
         <v>64</v>
       </c>
-      <c r="H42" s="273"/>
-      <c r="I42" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="271"/>
-      <c r="L42" s="271"/>
-      <c r="M42" s="273">
-        <v>2</v>
-      </c>
-      <c r="N42" s="273">
-        <v>2</v>
-      </c>
-      <c r="O42" s="273">
-        <v>2</v>
-      </c>
-      <c r="P42" s="273">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="273">
-        <v>0</v>
-      </c>
-      <c r="R42" s="273">
+      <c r="H42" s="271"/>
+      <c r="I42" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="269"/>
+      <c r="L42" s="269"/>
+      <c r="M42" s="271">
+        <v>2</v>
+      </c>
+      <c r="N42" s="271">
+        <v>2</v>
+      </c>
+      <c r="O42" s="271">
+        <v>2</v>
+      </c>
+      <c r="P42" s="271">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="271">
+        <v>0</v>
+      </c>
+      <c r="R42" s="271">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
@@ -14879,32 +14885,32 @@
       <c r="T42" s="47"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="310"/>
+      <c r="B43" s="292"/>
       <c r="C43" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="316"/>
-      <c r="F43" s="288"/>
-      <c r="G43" s="288"/>
-      <c r="H43" s="288"/>
-      <c r="I43" s="325"/>
-      <c r="J43" s="325"/>
-      <c r="K43" s="325"/>
-      <c r="L43" s="299"/>
-      <c r="M43" s="274"/>
-      <c r="N43" s="274"/>
-      <c r="O43" s="274"/>
-      <c r="P43" s="274"/>
-      <c r="Q43" s="274"/>
-      <c r="R43" s="300"/>
+      <c r="E43" s="295"/>
+      <c r="F43" s="287"/>
+      <c r="G43" s="287"/>
+      <c r="H43" s="287"/>
+      <c r="I43" s="296"/>
+      <c r="J43" s="296"/>
+      <c r="K43" s="296"/>
+      <c r="L43" s="319"/>
+      <c r="M43" s="286"/>
+      <c r="N43" s="286"/>
+      <c r="O43" s="286"/>
+      <c r="P43" s="286"/>
+      <c r="Q43" s="286"/>
+      <c r="R43" s="285"/>
       <c r="S43" s="47"/>
       <c r="T43" s="47"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B44" s="310"/>
+      <c r="B44" s="292"/>
       <c r="C44" s="22" t="s">
         <v>152</v>
       </c>
@@ -14956,49 +14962,49 @@
       <c r="T44" s="47"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="310"/>
+      <c r="B45" s="292"/>
       <c r="C45" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="280" t="s">
+      <c r="D45" s="310" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="315" t="s">
+      <c r="E45" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="273">
+      <c r="F45" s="271">
         <f>SUM(M45:Q45)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G45" s="273">
+      <c r="G45" s="271">
         <f>F45</f>
         <v>48</v>
       </c>
-      <c r="H45" s="271"/>
-      <c r="I45" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="271"/>
-      <c r="L45" s="271"/>
-      <c r="M45" s="276">
+      <c r="H45" s="269"/>
+      <c r="I45" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="269"/>
+      <c r="L45" s="269"/>
+      <c r="M45" s="278">
         <v>6</v>
       </c>
-      <c r="N45" s="276">
-        <v>0</v>
-      </c>
-      <c r="O45" s="276">
-        <v>0</v>
-      </c>
-      <c r="P45" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="276">
-        <v>0</v>
-      </c>
-      <c r="R45" s="273">
+      <c r="N45" s="278">
+        <v>0</v>
+      </c>
+      <c r="O45" s="278">
+        <v>0</v>
+      </c>
+      <c r="P45" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="278">
+        <v>0</v>
+      </c>
+      <c r="R45" s="271">
         <f>F45/$F$2</f>
         <v>3</v>
       </c>
@@ -15006,72 +15012,72 @@
       <c r="T45" s="47"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="310"/>
+      <c r="B46" s="292"/>
       <c r="C46" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="322"/>
-      <c r="E46" s="317"/>
-      <c r="F46" s="323"/>
-      <c r="G46" s="323"/>
-      <c r="H46" s="283"/>
-      <c r="I46" s="283"/>
-      <c r="J46" s="283"/>
-      <c r="K46" s="283"/>
-      <c r="L46" s="291"/>
-      <c r="M46" s="292"/>
-      <c r="N46" s="292"/>
-      <c r="O46" s="292"/>
-      <c r="P46" s="292"/>
-      <c r="Q46" s="292"/>
-      <c r="R46" s="303"/>
+      <c r="D46" s="302"/>
+      <c r="E46" s="275"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="276"/>
+      <c r="H46" s="297"/>
+      <c r="I46" s="297"/>
+      <c r="J46" s="297"/>
+      <c r="K46" s="297"/>
+      <c r="L46" s="316"/>
+      <c r="M46" s="300"/>
+      <c r="N46" s="300"/>
+      <c r="O46" s="300"/>
+      <c r="P46" s="300"/>
+      <c r="Q46" s="300"/>
+      <c r="R46" s="273"/>
       <c r="S46" s="47"/>
       <c r="T46" s="47"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="310"/>
+      <c r="B47" s="292"/>
       <c r="C47" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="280" t="s">
+      <c r="D47" s="310" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="315" t="s">
+      <c r="E47" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="273">
+      <c r="F47" s="271">
         <f>SUM(M47:Q47)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G47" s="273">
+      <c r="G47" s="271">
         <f>F47</f>
         <v>48</v>
       </c>
-      <c r="H47" s="271"/>
-      <c r="I47" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="271"/>
-      <c r="L47" s="271"/>
-      <c r="M47" s="276">
-        <v>0</v>
-      </c>
-      <c r="N47" s="276">
+      <c r="H47" s="269"/>
+      <c r="I47" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="269"/>
+      <c r="L47" s="269"/>
+      <c r="M47" s="278">
+        <v>0</v>
+      </c>
+      <c r="N47" s="278">
         <v>6</v>
       </c>
-      <c r="O47" s="276">
-        <v>0</v>
-      </c>
-      <c r="P47" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="276">
-        <v>0</v>
-      </c>
-      <c r="R47" s="273">
+      <c r="O47" s="278">
+        <v>0</v>
+      </c>
+      <c r="P47" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="278">
+        <v>0</v>
+      </c>
+      <c r="R47" s="271">
         <f>F47/$F$2</f>
         <v>3</v>
       </c>
@@ -15079,72 +15085,72 @@
       <c r="T47" s="47"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="310"/>
+      <c r="B48" s="292"/>
       <c r="C48" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="322"/>
-      <c r="E48" s="317"/>
-      <c r="F48" s="323"/>
-      <c r="G48" s="323"/>
-      <c r="H48" s="283"/>
-      <c r="I48" s="283"/>
-      <c r="J48" s="283"/>
-      <c r="K48" s="283"/>
-      <c r="L48" s="291"/>
-      <c r="M48" s="292"/>
-      <c r="N48" s="292"/>
-      <c r="O48" s="292"/>
-      <c r="P48" s="292"/>
-      <c r="Q48" s="292"/>
-      <c r="R48" s="303"/>
+      <c r="D48" s="302"/>
+      <c r="E48" s="275"/>
+      <c r="F48" s="276"/>
+      <c r="G48" s="276"/>
+      <c r="H48" s="297"/>
+      <c r="I48" s="297"/>
+      <c r="J48" s="297"/>
+      <c r="K48" s="297"/>
+      <c r="L48" s="316"/>
+      <c r="M48" s="300"/>
+      <c r="N48" s="300"/>
+      <c r="O48" s="300"/>
+      <c r="P48" s="300"/>
+      <c r="Q48" s="300"/>
+      <c r="R48" s="273"/>
       <c r="S48" s="47"/>
       <c r="T48" s="47"/>
     </row>
     <row r="49" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B49" s="310"/>
+      <c r="B49" s="292"/>
       <c r="C49" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D49" s="282" t="s">
+      <c r="D49" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="315" t="s">
+      <c r="E49" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="273">
+      <c r="F49" s="271">
         <f>SUM(M49:Q49)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G49" s="273">
+      <c r="G49" s="271">
         <f>F49</f>
         <v>48</v>
       </c>
-      <c r="H49" s="271"/>
-      <c r="I49" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="271"/>
-      <c r="L49" s="271"/>
-      <c r="M49" s="276">
-        <v>0</v>
-      </c>
-      <c r="N49" s="276">
-        <v>0</v>
-      </c>
-      <c r="O49" s="276">
+      <c r="H49" s="269"/>
+      <c r="I49" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
+      <c r="M49" s="278">
+        <v>0</v>
+      </c>
+      <c r="N49" s="278">
+        <v>0</v>
+      </c>
+      <c r="O49" s="278">
         <v>6</v>
       </c>
-      <c r="P49" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="276">
-        <v>0</v>
-      </c>
-      <c r="R49" s="273">
+      <c r="P49" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="278">
+        <v>0</v>
+      </c>
+      <c r="R49" s="271">
         <f>F49/$F$2</f>
         <v>3</v>
       </c>
@@ -15152,72 +15158,72 @@
       <c r="T49" s="47"/>
     </row>
     <row r="50" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B50" s="310"/>
+      <c r="B50" s="292"/>
       <c r="C50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="322"/>
-      <c r="E50" s="317"/>
-      <c r="F50" s="323"/>
-      <c r="G50" s="323"/>
-      <c r="H50" s="283"/>
-      <c r="I50" s="283"/>
-      <c r="J50" s="283"/>
-      <c r="K50" s="283"/>
-      <c r="L50" s="291"/>
-      <c r="M50" s="292"/>
-      <c r="N50" s="292"/>
-      <c r="O50" s="292"/>
-      <c r="P50" s="292"/>
-      <c r="Q50" s="292"/>
-      <c r="R50" s="303"/>
+      <c r="D50" s="302"/>
+      <c r="E50" s="275"/>
+      <c r="F50" s="276"/>
+      <c r="G50" s="276"/>
+      <c r="H50" s="297"/>
+      <c r="I50" s="297"/>
+      <c r="J50" s="297"/>
+      <c r="K50" s="297"/>
+      <c r="L50" s="316"/>
+      <c r="M50" s="300"/>
+      <c r="N50" s="300"/>
+      <c r="O50" s="300"/>
+      <c r="P50" s="300"/>
+      <c r="Q50" s="300"/>
+      <c r="R50" s="273"/>
       <c r="S50" s="47"/>
       <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B51" s="310"/>
+      <c r="B51" s="292"/>
       <c r="C51" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D51" s="282" t="s">
+      <c r="D51" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="315" t="s">
+      <c r="E51" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="273">
+      <c r="F51" s="271">
         <f>SUM(M51:Q51)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G51" s="273">
+      <c r="G51" s="271">
         <f>F51</f>
         <v>48</v>
       </c>
-      <c r="H51" s="271"/>
-      <c r="I51" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="271"/>
-      <c r="L51" s="271"/>
-      <c r="M51" s="276">
-        <v>0</v>
-      </c>
-      <c r="N51" s="276">
-        <v>0</v>
-      </c>
-      <c r="O51" s="276">
-        <v>0</v>
-      </c>
-      <c r="P51" s="276">
+      <c r="H51" s="269"/>
+      <c r="I51" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="269"/>
+      <c r="L51" s="269"/>
+      <c r="M51" s="278">
+        <v>0</v>
+      </c>
+      <c r="N51" s="278">
+        <v>0</v>
+      </c>
+      <c r="O51" s="278">
+        <v>0</v>
+      </c>
+      <c r="P51" s="278">
         <v>6</v>
       </c>
-      <c r="Q51" s="276">
-        <v>0</v>
-      </c>
-      <c r="R51" s="273">
+      <c r="Q51" s="278">
+        <v>0</v>
+      </c>
+      <c r="R51" s="271">
         <f>F51/$F$2</f>
         <v>3</v>
       </c>
@@ -15225,30 +15231,30 @@
       <c r="T51" s="47"/>
     </row>
     <row r="52" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="292"/>
       <c r="C52" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="322"/>
-      <c r="E52" s="317"/>
-      <c r="F52" s="323"/>
-      <c r="G52" s="323"/>
-      <c r="H52" s="283"/>
-      <c r="I52" s="283"/>
-      <c r="J52" s="283"/>
-      <c r="K52" s="283"/>
-      <c r="L52" s="291"/>
-      <c r="M52" s="292"/>
-      <c r="N52" s="292"/>
-      <c r="O52" s="292"/>
-      <c r="P52" s="292"/>
-      <c r="Q52" s="292"/>
-      <c r="R52" s="303"/>
+      <c r="D52" s="302"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="276"/>
+      <c r="G52" s="276"/>
+      <c r="H52" s="297"/>
+      <c r="I52" s="297"/>
+      <c r="J52" s="297"/>
+      <c r="K52" s="297"/>
+      <c r="L52" s="316"/>
+      <c r="M52" s="300"/>
+      <c r="N52" s="300"/>
+      <c r="O52" s="300"/>
+      <c r="P52" s="300"/>
+      <c r="Q52" s="300"/>
+      <c r="R52" s="273"/>
       <c r="S52" s="47"/>
       <c r="T52" s="47"/>
     </row>
     <row r="53" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B53" s="311"/>
+      <c r="B53" s="293"/>
       <c r="C53" s="17" t="s">
         <v>11</v>
       </c>
@@ -15334,14 +15340,14 @@
       <c r="I55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="284" t="s">
+      <c r="J55" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="285"/>
-      <c r="L55" s="305" t="s">
+      <c r="K55" s="312"/>
+      <c r="L55" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="M55" s="306"/>
+      <c r="M55" s="318"/>
       <c r="N55" s="118" t="s">
         <v>49</v>
       </c>
@@ -15524,55 +15530,55 @@
       <c r="T61" s="57"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B62" s="297" t="s">
+      <c r="B62" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="320" t="s">
+      <c r="D62" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E62" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="318" t="s">
+      <c r="E62" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="318" t="s">
+      <c r="G62" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H62" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="290"/>
+      <c r="I62" s="307"/>
       <c r="J62" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="290"/>
-      <c r="L62" s="301" t="s">
+      <c r="K62" s="307"/>
+      <c r="L62" s="308" t="s">
         <v>26</v>
       </c>
       <c r="M62" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N62" s="295"/>
-      <c r="O62" s="295"/>
-      <c r="P62" s="295"/>
-      <c r="Q62" s="296"/>
-      <c r="R62" s="297" t="s">
+      <c r="N62" s="290"/>
+      <c r="O62" s="290"/>
+      <c r="P62" s="290"/>
+      <c r="Q62" s="291"/>
+      <c r="R62" s="298" t="s">
         <v>35</v>
       </c>
       <c r="S62" s="58"/>
       <c r="T62" s="58"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B63" s="298"/>
-      <c r="C63" s="314"/>
-      <c r="D63" s="321"/>
-      <c r="E63" s="298"/>
-      <c r="F63" s="319"/>
-      <c r="G63" s="319"/>
+      <c r="B63" s="299"/>
+      <c r="C63" s="315"/>
+      <c r="D63" s="304"/>
+      <c r="E63" s="299"/>
+      <c r="F63" s="306"/>
+      <c r="G63" s="306"/>
       <c r="H63" s="56" t="s">
         <v>8</v>
       </c>
@@ -15585,7 +15591,7 @@
       <c r="K63" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="302"/>
+      <c r="L63" s="309"/>
       <c r="M63" s="10" t="s">
         <v>32</v>
       </c>
@@ -15601,12 +15607,12 @@
       <c r="Q63" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R63" s="298"/>
+      <c r="R63" s="299"/>
       <c r="S63" s="59"/>
       <c r="T63" s="59"/>
     </row>
     <row r="64" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B64" s="310" t="s">
+      <c r="B64" s="292" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="19" t="s">
@@ -15658,7 +15664,7 @@
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B65" s="310"/>
+      <c r="B65" s="292"/>
       <c r="C65" s="43" t="s">
         <v>103</v>
       </c>
@@ -15708,7 +15714,7 @@
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="310"/>
+      <c r="B66" s="292"/>
       <c r="C66" s="147" t="s">
         <v>16</v>
       </c>
@@ -15758,7 +15764,7 @@
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B67" s="310"/>
+      <c r="B67" s="292"/>
       <c r="C67" s="233" t="s">
         <v>68</v>
       </c>
@@ -15808,7 +15814,7 @@
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B68" s="310"/>
+      <c r="B68" s="292"/>
       <c r="C68" s="43" t="s">
         <v>263</v>
       </c>
@@ -15858,7 +15864,7 @@
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="292"/>
       <c r="C69" s="43" t="s">
         <v>264</v>
       </c>
@@ -15908,7 +15914,7 @@
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="292"/>
       <c r="C70" s="43" t="s">
         <v>345</v>
       </c>
@@ -15958,7 +15964,7 @@
       <c r="T70" s="47"/>
     </row>
     <row r="71" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="292"/>
       <c r="C71" s="43" t="s">
         <v>77</v>
       </c>
@@ -16008,7 +16014,7 @@
       <c r="T71" s="47"/>
     </row>
     <row r="72" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="292"/>
       <c r="C72" s="43" t="s">
         <v>78</v>
       </c>
@@ -16058,7 +16064,7 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="292"/>
       <c r="C73" s="22" t="s">
         <v>272</v>
       </c>
@@ -16108,7 +16114,7 @@
       <c r="T73" s="47"/>
     </row>
     <row r="74" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="292"/>
       <c r="C74" s="22" t="s">
         <v>273</v>
       </c>
@@ -16158,7 +16164,7 @@
       <c r="T74" s="47"/>
     </row>
     <row r="75" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B75" s="310"/>
+      <c r="B75" s="292"/>
       <c r="C75" s="22" t="s">
         <v>119</v>
       </c>
@@ -16208,7 +16214,7 @@
       <c r="T75" s="47"/>
     </row>
     <row r="76" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B76" s="310"/>
+      <c r="B76" s="292"/>
       <c r="C76" s="22" t="s">
         <v>266</v>
       </c>
@@ -16258,7 +16264,7 @@
       <c r="T76" s="47"/>
     </row>
     <row r="77" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B77" s="310"/>
+      <c r="B77" s="292"/>
       <c r="C77" s="22" t="s">
         <v>267</v>
       </c>
@@ -16308,7 +16314,7 @@
       <c r="T77" s="47"/>
     </row>
     <row r="78" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B78" s="310"/>
+      <c r="B78" s="292"/>
       <c r="C78" s="22" t="s">
         <v>120</v>
       </c>
@@ -16358,7 +16364,7 @@
       <c r="T78" s="47"/>
     </row>
     <row r="79" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B79" s="310"/>
+      <c r="B79" s="292"/>
       <c r="C79" s="22" t="s">
         <v>100</v>
       </c>
@@ -16408,7 +16414,7 @@
       <c r="T79" s="47"/>
     </row>
     <row r="80" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B80" s="310"/>
+      <c r="B80" s="292"/>
       <c r="C80" s="22" t="s">
         <v>94</v>
       </c>
@@ -16458,7 +16464,7 @@
       <c r="T80" s="47"/>
     </row>
     <row r="81" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B81" s="310"/>
+      <c r="B81" s="292"/>
       <c r="C81" s="22" t="s">
         <v>88</v>
       </c>
@@ -16508,7 +16514,7 @@
       <c r="T81" s="47"/>
     </row>
     <row r="82" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="310"/>
+      <c r="B82" s="292"/>
       <c r="C82" s="22" t="s">
         <v>96</v>
       </c>
@@ -16558,7 +16564,7 @@
       <c r="T82" s="47"/>
     </row>
     <row r="83" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="311"/>
+      <c r="B83" s="293"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -16614,7 +16620,7 @@
       <c r="T83" s="47"/>
     </row>
     <row r="84" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B84" s="312" t="s">
+      <c r="B84" s="294" t="s">
         <v>40</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -16666,7 +16672,7 @@
       <c r="T84" s="47"/>
     </row>
     <row r="85" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B85" s="310"/>
+      <c r="B85" s="292"/>
       <c r="C85" s="43" t="s">
         <v>260</v>
       </c>
@@ -16716,7 +16722,7 @@
       <c r="T85" s="47"/>
     </row>
     <row r="86" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B86" s="310"/>
+      <c r="B86" s="292"/>
       <c r="C86" s="43" t="s">
         <v>16</v>
       </c>
@@ -16766,7 +16772,7 @@
       <c r="T86" s="47"/>
     </row>
     <row r="87" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B87" s="310"/>
+      <c r="B87" s="292"/>
       <c r="C87" s="146" t="s">
         <v>70</v>
       </c>
@@ -16816,7 +16822,7 @@
       <c r="T87" s="47"/>
     </row>
     <row r="88" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B88" s="310"/>
+      <c r="B88" s="292"/>
       <c r="C88" s="19" t="s">
         <v>346</v>
       </c>
@@ -16866,7 +16872,7 @@
       <c r="T88" s="47"/>
     </row>
     <row r="89" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B89" s="310"/>
+      <c r="B89" s="292"/>
       <c r="C89" s="22" t="s">
         <v>347</v>
       </c>
@@ -16916,7 +16922,7 @@
       <c r="T89" s="47"/>
     </row>
     <row r="90" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B90" s="310"/>
+      <c r="B90" s="292"/>
       <c r="C90" s="22" t="s">
         <v>348</v>
       </c>
@@ -16966,7 +16972,7 @@
       <c r="T90" s="47"/>
     </row>
     <row r="91" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B91" s="310"/>
+      <c r="B91" s="292"/>
       <c r="C91" s="22" t="s">
         <v>349</v>
       </c>
@@ -17016,7 +17022,7 @@
       <c r="T91" s="47"/>
     </row>
     <row r="92" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B92" s="310"/>
+      <c r="B92" s="292"/>
       <c r="C92" s="43" t="s">
         <v>274</v>
       </c>
@@ -17066,7 +17072,7 @@
       <c r="T92" s="47"/>
     </row>
     <row r="93" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B93" s="310"/>
+      <c r="B93" s="292"/>
       <c r="C93" s="22" t="s">
         <v>275</v>
       </c>
@@ -17116,7 +17122,7 @@
       <c r="T93" s="47"/>
     </row>
     <row r="94" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B94" s="310"/>
+      <c r="B94" s="292"/>
       <c r="C94" s="22" t="s">
         <v>104</v>
       </c>
@@ -17166,7 +17172,7 @@
       <c r="T94" s="47"/>
     </row>
     <row r="95" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B95" s="310"/>
+      <c r="B95" s="292"/>
       <c r="C95" s="22" t="s">
         <v>280</v>
       </c>
@@ -17216,7 +17222,7 @@
       <c r="T95" s="47"/>
     </row>
     <row r="96" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B96" s="310"/>
+      <c r="B96" s="292"/>
       <c r="C96" s="22" t="s">
         <v>105</v>
       </c>
@@ -17266,7 +17272,7 @@
       <c r="T96" s="47"/>
     </row>
     <row r="97" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B97" s="310"/>
+      <c r="B97" s="292"/>
       <c r="C97" s="22" t="s">
         <v>99</v>
       </c>
@@ -17316,374 +17322,374 @@
       <c r="T97" s="47"/>
     </row>
     <row r="98" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B98" s="310"/>
+      <c r="B98" s="292"/>
       <c r="C98" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="315" t="s">
+      <c r="E98" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="273">
+      <c r="F98" s="271">
         <f t="shared" si="42"/>
         <v>64</v>
       </c>
-      <c r="G98" s="273">
+      <c r="G98" s="271">
         <f t="shared" si="43"/>
         <v>64</v>
       </c>
-      <c r="H98" s="273"/>
-      <c r="I98" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="J98" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="K98" s="271"/>
-      <c r="L98" s="271"/>
-      <c r="M98" s="273">
-        <v>2</v>
-      </c>
-      <c r="N98" s="273">
-        <v>2</v>
-      </c>
-      <c r="O98" s="273">
-        <v>2</v>
-      </c>
-      <c r="P98" s="273">
-        <v>2</v>
-      </c>
-      <c r="Q98" s="273">
-        <v>0</v>
-      </c>
-      <c r="R98" s="273">
+      <c r="H98" s="271"/>
+      <c r="I98" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" s="269"/>
+      <c r="L98" s="269"/>
+      <c r="M98" s="271">
+        <v>2</v>
+      </c>
+      <c r="N98" s="271">
+        <v>2</v>
+      </c>
+      <c r="O98" s="271">
+        <v>2</v>
+      </c>
+      <c r="P98" s="271">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="271">
+        <v>0</v>
+      </c>
+      <c r="R98" s="271">
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="S98" s="269"/>
+      <c r="S98" s="324"/>
       <c r="T98" s="47"/>
     </row>
     <row r="99" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B99" s="310"/>
+      <c r="B99" s="292"/>
       <c r="C99" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D99" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E99" s="316"/>
-      <c r="F99" s="288"/>
-      <c r="G99" s="288"/>
-      <c r="H99" s="300"/>
-      <c r="I99" s="272"/>
-      <c r="J99" s="272"/>
-      <c r="K99" s="272"/>
-      <c r="L99" s="275"/>
-      <c r="M99" s="274"/>
-      <c r="N99" s="274"/>
-      <c r="O99" s="274"/>
-      <c r="P99" s="274"/>
-      <c r="Q99" s="274"/>
-      <c r="R99" s="300"/>
-      <c r="S99" s="270"/>
+      <c r="E99" s="295"/>
+      <c r="F99" s="287"/>
+      <c r="G99" s="287"/>
+      <c r="H99" s="285"/>
+      <c r="I99" s="288"/>
+      <c r="J99" s="288"/>
+      <c r="K99" s="288"/>
+      <c r="L99" s="322"/>
+      <c r="M99" s="286"/>
+      <c r="N99" s="286"/>
+      <c r="O99" s="286"/>
+      <c r="P99" s="286"/>
+      <c r="Q99" s="286"/>
+      <c r="R99" s="285"/>
+      <c r="S99" s="325"/>
       <c r="T99" s="152"/>
     </row>
     <row r="100" spans="2:20">
-      <c r="B100" s="310"/>
+      <c r="B100" s="292"/>
       <c r="C100" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D100" s="280" t="s">
+      <c r="D100" s="310" t="s">
         <v>108</v>
       </c>
-      <c r="E100" s="315" t="s">
+      <c r="E100" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="273">
+      <c r="F100" s="271">
         <f>SUM(M100:Q100)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G100" s="273">
+      <c r="G100" s="271">
         <f>F100</f>
         <v>48</v>
       </c>
-      <c r="H100" s="271"/>
-      <c r="I100" s="271" t="s">
+      <c r="H100" s="269"/>
+      <c r="I100" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J100" s="271" t="s">
+      <c r="J100" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="K100" s="271"/>
-      <c r="L100" s="271"/>
-      <c r="M100" s="276">
+      <c r="K100" s="269"/>
+      <c r="L100" s="269"/>
+      <c r="M100" s="278">
         <v>6</v>
       </c>
-      <c r="N100" s="276">
-        <v>0</v>
-      </c>
-      <c r="O100" s="276">
-        <v>0</v>
-      </c>
-      <c r="P100" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="276">
-        <v>0</v>
-      </c>
-      <c r="R100" s="273">
+      <c r="N100" s="278">
+        <v>0</v>
+      </c>
+      <c r="O100" s="278">
+        <v>0</v>
+      </c>
+      <c r="P100" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="278">
+        <v>0</v>
+      </c>
+      <c r="R100" s="271">
         <f>F100/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S100" s="269"/>
+      <c r="S100" s="324"/>
       <c r="T100" s="47"/>
     </row>
     <row r="101" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B101" s="310"/>
+      <c r="B101" s="292"/>
       <c r="C101" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="322"/>
-      <c r="E101" s="317"/>
-      <c r="F101" s="323"/>
-      <c r="G101" s="323"/>
-      <c r="H101" s="279"/>
-      <c r="I101" s="279"/>
-      <c r="J101" s="279"/>
-      <c r="K101" s="279"/>
-      <c r="L101" s="278"/>
-      <c r="M101" s="277"/>
-      <c r="N101" s="277"/>
-      <c r="O101" s="277"/>
-      <c r="P101" s="277"/>
-      <c r="Q101" s="277"/>
-      <c r="R101" s="303"/>
-      <c r="S101" s="270"/>
+      <c r="D101" s="302"/>
+      <c r="E101" s="275"/>
+      <c r="F101" s="276"/>
+      <c r="G101" s="276"/>
+      <c r="H101" s="277"/>
+      <c r="I101" s="277"/>
+      <c r="J101" s="277"/>
+      <c r="K101" s="277"/>
+      <c r="L101" s="283"/>
+      <c r="M101" s="279"/>
+      <c r="N101" s="279"/>
+      <c r="O101" s="279"/>
+      <c r="P101" s="279"/>
+      <c r="Q101" s="279"/>
+      <c r="R101" s="273"/>
+      <c r="S101" s="325"/>
       <c r="T101" s="152"/>
     </row>
     <row r="102" spans="2:20">
-      <c r="B102" s="310"/>
+      <c r="B102" s="292"/>
       <c r="C102" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="280" t="s">
+      <c r="D102" s="310" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="315" t="s">
+      <c r="E102" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="273">
+      <c r="F102" s="271">
         <f>SUM(M102:Q102)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G102" s="273">
+      <c r="G102" s="271">
         <f>F102</f>
         <v>48</v>
       </c>
-      <c r="H102" s="271"/>
-      <c r="I102" s="271" t="s">
+      <c r="H102" s="269"/>
+      <c r="I102" s="269" t="s">
         <v>44</v>
       </c>
-      <c r="J102" s="271" t="s">
+      <c r="J102" s="269" t="s">
         <v>44</v>
       </c>
-      <c r="K102" s="271"/>
-      <c r="L102" s="271"/>
-      <c r="M102" s="276">
-        <v>0</v>
-      </c>
-      <c r="N102" s="276">
+      <c r="K102" s="269"/>
+      <c r="L102" s="269"/>
+      <c r="M102" s="278">
+        <v>0</v>
+      </c>
+      <c r="N102" s="278">
         <v>6</v>
       </c>
-      <c r="O102" s="276">
-        <v>0</v>
-      </c>
-      <c r="P102" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="276">
-        <v>0</v>
-      </c>
-      <c r="R102" s="273">
+      <c r="O102" s="278">
+        <v>0</v>
+      </c>
+      <c r="P102" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="278">
+        <v>0</v>
+      </c>
+      <c r="R102" s="271">
         <f>F102/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S102" s="269"/>
+      <c r="S102" s="324"/>
       <c r="T102" s="47"/>
     </row>
     <row r="103" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B103" s="310"/>
+      <c r="B103" s="292"/>
       <c r="C103" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D103" s="322"/>
-      <c r="E103" s="317"/>
-      <c r="F103" s="323"/>
-      <c r="G103" s="323"/>
-      <c r="H103" s="279"/>
-      <c r="I103" s="279"/>
-      <c r="J103" s="279"/>
-      <c r="K103" s="279"/>
-      <c r="L103" s="278"/>
-      <c r="M103" s="277"/>
-      <c r="N103" s="277"/>
-      <c r="O103" s="277"/>
-      <c r="P103" s="277"/>
-      <c r="Q103" s="277"/>
-      <c r="R103" s="303"/>
-      <c r="S103" s="270"/>
+      <c r="D103" s="302"/>
+      <c r="E103" s="275"/>
+      <c r="F103" s="276"/>
+      <c r="G103" s="276"/>
+      <c r="H103" s="277"/>
+      <c r="I103" s="277"/>
+      <c r="J103" s="277"/>
+      <c r="K103" s="277"/>
+      <c r="L103" s="283"/>
+      <c r="M103" s="279"/>
+      <c r="N103" s="279"/>
+      <c r="O103" s="279"/>
+      <c r="P103" s="279"/>
+      <c r="Q103" s="279"/>
+      <c r="R103" s="273"/>
+      <c r="S103" s="325"/>
       <c r="T103" s="152"/>
     </row>
     <row r="104" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B104" s="310"/>
+      <c r="B104" s="292"/>
       <c r="C104" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="D104" s="282" t="s">
+      <c r="D104" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="315" t="s">
+      <c r="E104" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="273">
+      <c r="F104" s="271">
         <f>SUM(M104:Q104)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G104" s="273">
+      <c r="G104" s="271">
         <f>F104</f>
         <v>48</v>
       </c>
-      <c r="H104" s="271"/>
-      <c r="I104" s="271" t="s">
+      <c r="H104" s="269"/>
+      <c r="I104" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="271" t="s">
+      <c r="J104" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="271"/>
-      <c r="L104" s="271"/>
-      <c r="M104" s="276">
-        <v>0</v>
-      </c>
-      <c r="N104" s="276">
-        <v>0</v>
-      </c>
-      <c r="O104" s="276">
+      <c r="K104" s="269"/>
+      <c r="L104" s="269"/>
+      <c r="M104" s="278">
+        <v>0</v>
+      </c>
+      <c r="N104" s="278">
+        <v>0</v>
+      </c>
+      <c r="O104" s="278">
         <v>6</v>
       </c>
-      <c r="P104" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="276">
-        <v>0</v>
-      </c>
-      <c r="R104" s="273">
+      <c r="P104" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="278">
+        <v>0</v>
+      </c>
+      <c r="R104" s="271">
         <f>F104/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S104" s="269"/>
+      <c r="S104" s="324"/>
       <c r="T104" s="47"/>
     </row>
     <row r="105" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B105" s="310"/>
+      <c r="B105" s="292"/>
       <c r="C105" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="322"/>
-      <c r="E105" s="317"/>
-      <c r="F105" s="323"/>
-      <c r="G105" s="323"/>
-      <c r="H105" s="279"/>
-      <c r="I105" s="279"/>
-      <c r="J105" s="279"/>
-      <c r="K105" s="279"/>
-      <c r="L105" s="278"/>
-      <c r="M105" s="277"/>
-      <c r="N105" s="277"/>
-      <c r="O105" s="277"/>
-      <c r="P105" s="277"/>
-      <c r="Q105" s="277"/>
-      <c r="R105" s="303"/>
-      <c r="S105" s="270"/>
+      <c r="D105" s="302"/>
+      <c r="E105" s="275"/>
+      <c r="F105" s="276"/>
+      <c r="G105" s="276"/>
+      <c r="H105" s="277"/>
+      <c r="I105" s="277"/>
+      <c r="J105" s="277"/>
+      <c r="K105" s="277"/>
+      <c r="L105" s="283"/>
+      <c r="M105" s="279"/>
+      <c r="N105" s="279"/>
+      <c r="O105" s="279"/>
+      <c r="P105" s="279"/>
+      <c r="Q105" s="279"/>
+      <c r="R105" s="273"/>
+      <c r="S105" s="325"/>
       <c r="T105" s="152"/>
     </row>
     <row r="106" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B106" s="310"/>
+      <c r="B106" s="292"/>
       <c r="C106" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D106" s="282" t="s">
+      <c r="D106" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="E106" s="315" t="s">
+      <c r="E106" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="273">
+      <c r="F106" s="271">
         <f>SUM(M106:Q106)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G106" s="273">
+      <c r="G106" s="271">
         <f>F106</f>
         <v>48</v>
       </c>
-      <c r="H106" s="271"/>
-      <c r="I106" s="271" t="s">
+      <c r="H106" s="269"/>
+      <c r="I106" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="J106" s="271" t="s">
+      <c r="J106" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="271"/>
-      <c r="L106" s="271"/>
-      <c r="M106" s="276">
-        <v>0</v>
-      </c>
-      <c r="N106" s="276">
-        <v>0</v>
-      </c>
-      <c r="O106" s="276">
-        <v>0</v>
-      </c>
-      <c r="P106" s="276">
+      <c r="K106" s="269"/>
+      <c r="L106" s="269"/>
+      <c r="M106" s="278">
+        <v>0</v>
+      </c>
+      <c r="N106" s="278">
+        <v>0</v>
+      </c>
+      <c r="O106" s="278">
+        <v>0</v>
+      </c>
+      <c r="P106" s="278">
         <v>6</v>
       </c>
-      <c r="Q106" s="276">
-        <v>0</v>
-      </c>
-      <c r="R106" s="273">
+      <c r="Q106" s="278">
+        <v>0</v>
+      </c>
+      <c r="R106" s="271">
         <f>F106/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S106" s="269"/>
+      <c r="S106" s="324"/>
       <c r="T106" s="47"/>
     </row>
     <row r="107" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B107" s="310"/>
+      <c r="B107" s="292"/>
       <c r="C107" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="322"/>
-      <c r="E107" s="317"/>
-      <c r="F107" s="323"/>
-      <c r="G107" s="323"/>
-      <c r="H107" s="279"/>
-      <c r="I107" s="279"/>
-      <c r="J107" s="279"/>
-      <c r="K107" s="279"/>
-      <c r="L107" s="278"/>
-      <c r="M107" s="277"/>
-      <c r="N107" s="277"/>
-      <c r="O107" s="277"/>
-      <c r="P107" s="277"/>
-      <c r="Q107" s="277"/>
-      <c r="R107" s="303"/>
-      <c r="S107" s="270"/>
+      <c r="D107" s="302"/>
+      <c r="E107" s="275"/>
+      <c r="F107" s="276"/>
+      <c r="G107" s="276"/>
+      <c r="H107" s="277"/>
+      <c r="I107" s="277"/>
+      <c r="J107" s="277"/>
+      <c r="K107" s="277"/>
+      <c r="L107" s="283"/>
+      <c r="M107" s="279"/>
+      <c r="N107" s="279"/>
+      <c r="O107" s="279"/>
+      <c r="P107" s="279"/>
+      <c r="Q107" s="279"/>
+      <c r="R107" s="273"/>
+      <c r="S107" s="325"/>
       <c r="T107" s="152"/>
     </row>
     <row r="108" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B108" s="311"/>
+      <c r="B108" s="293"/>
       <c r="C108" s="17" t="s">
         <v>11</v>
       </c>
@@ -17739,7 +17745,7 @@
       <c r="T108" s="47"/>
     </row>
     <row r="109" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B109" s="307" t="s">
+      <c r="B109" s="280" t="s">
         <v>45</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -17791,7 +17797,7 @@
       <c r="T109" s="47"/>
     </row>
     <row r="110" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B110" s="308"/>
+      <c r="B110" s="281"/>
       <c r="C110" s="147" t="s">
         <v>261</v>
       </c>
@@ -17841,7 +17847,7 @@
       <c r="T110" s="47"/>
     </row>
     <row r="111" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B111" s="308"/>
+      <c r="B111" s="281"/>
       <c r="C111" s="19" t="s">
         <v>350</v>
       </c>
@@ -17891,7 +17897,7 @@
       <c r="T111" s="47"/>
     </row>
     <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B112" s="308"/>
+      <c r="B112" s="281"/>
       <c r="C112" s="43" t="s">
         <v>351</v>
       </c>
@@ -17941,7 +17947,7 @@
       <c r="T112" s="47"/>
     </row>
     <row r="113" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B113" s="308"/>
+      <c r="B113" s="281"/>
       <c r="C113" s="43" t="s">
         <v>265</v>
       </c>
@@ -17991,7 +17997,7 @@
       <c r="T113" s="47"/>
     </row>
     <row r="114" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B114" s="308"/>
+      <c r="B114" s="281"/>
       <c r="C114" s="43" t="s">
         <v>303</v>
       </c>
@@ -18041,7 +18047,7 @@
       <c r="T114" s="47"/>
     </row>
     <row r="115" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B115" s="308"/>
+      <c r="B115" s="281"/>
       <c r="C115" s="43" t="s">
         <v>276</v>
       </c>
@@ -18091,7 +18097,7 @@
       <c r="T115" s="47"/>
     </row>
     <row r="116" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B116" s="308"/>
+      <c r="B116" s="281"/>
       <c r="C116" s="22" t="s">
         <v>277</v>
       </c>
@@ -18141,7 +18147,7 @@
       <c r="T116" s="47"/>
     </row>
     <row r="117" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B117" s="308"/>
+      <c r="B117" s="281"/>
       <c r="C117" s="22" t="s">
         <v>152</v>
       </c>
@@ -18193,49 +18199,49 @@
       <c r="T117" s="47"/>
     </row>
     <row r="118" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B118" s="308"/>
+      <c r="B118" s="281"/>
       <c r="C118" s="22" t="s">
         <v>377</v>
       </c>
       <c r="D118" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="315" t="s">
+      <c r="E118" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F118" s="273">
+      <c r="F118" s="271">
         <f>SUM(M118:Q118)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G118" s="273">
+      <c r="G118" s="271">
         <f t="shared" ref="G118" si="53">F118</f>
         <v>384</v>
       </c>
-      <c r="H118" s="273"/>
-      <c r="I118" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J118" s="271"/>
-      <c r="K118" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="L118" s="271"/>
-      <c r="M118" s="273">
+      <c r="H118" s="271"/>
+      <c r="I118" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="269"/>
+      <c r="K118" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="269"/>
+      <c r="M118" s="271">
         <v>12</v>
       </c>
-      <c r="N118" s="273">
+      <c r="N118" s="271">
         <v>12</v>
       </c>
-      <c r="O118" s="273">
+      <c r="O118" s="271">
         <v>12</v>
       </c>
-      <c r="P118" s="273">
+      <c r="P118" s="271">
         <v>12</v>
       </c>
-      <c r="Q118" s="273">
-        <v>0</v>
-      </c>
-      <c r="R118" s="304">
+      <c r="Q118" s="271">
+        <v>0</v>
+      </c>
+      <c r="R118" s="284">
         <f>F118/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -18243,32 +18249,32 @@
       <c r="T118" s="47"/>
     </row>
     <row r="119" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B119" s="308"/>
+      <c r="B119" s="281"/>
       <c r="C119" s="147" t="s">
         <v>379</v>
       </c>
       <c r="D119" s="154" t="s">
         <v>378</v>
       </c>
-      <c r="E119" s="317"/>
-      <c r="F119" s="287"/>
-      <c r="G119" s="287"/>
-      <c r="H119" s="287"/>
-      <c r="I119" s="286"/>
-      <c r="J119" s="286"/>
-      <c r="K119" s="286"/>
-      <c r="L119" s="286"/>
-      <c r="M119" s="287"/>
-      <c r="N119" s="287"/>
-      <c r="O119" s="287"/>
-      <c r="P119" s="287"/>
-      <c r="Q119" s="287"/>
-      <c r="R119" s="287"/>
+      <c r="E119" s="275"/>
+      <c r="F119" s="272"/>
+      <c r="G119" s="272"/>
+      <c r="H119" s="272"/>
+      <c r="I119" s="270"/>
+      <c r="J119" s="270"/>
+      <c r="K119" s="270"/>
+      <c r="L119" s="270"/>
+      <c r="M119" s="272"/>
+      <c r="N119" s="272"/>
+      <c r="O119" s="272"/>
+      <c r="P119" s="272"/>
+      <c r="Q119" s="272"/>
+      <c r="R119" s="272"/>
       <c r="S119" s="47"/>
       <c r="T119" s="47"/>
     </row>
     <row r="120" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B120" s="309"/>
+      <c r="B120" s="282"/>
       <c r="C120" s="33" t="s">
         <v>11</v>
       </c>
@@ -18354,14 +18360,14 @@
       <c r="I122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J122" s="284" t="s">
+      <c r="J122" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K122" s="285"/>
-      <c r="L122" s="305" t="s">
+      <c r="K122" s="312"/>
+      <c r="L122" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="M122" s="306"/>
+      <c r="M122" s="318"/>
       <c r="N122" s="118" t="s">
         <v>49</v>
       </c>
@@ -18571,55 +18577,55 @@
       <c r="T129" s="57"/>
     </row>
     <row r="130" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B130" s="297" t="s">
+      <c r="B130" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="320" t="s">
+      <c r="D130" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E130" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="318" t="s">
+      <c r="E130" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G130" s="318" t="s">
+      <c r="G130" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H130" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I130" s="290"/>
+      <c r="I130" s="307"/>
       <c r="J130" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K130" s="290"/>
-      <c r="L130" s="301" t="s">
+      <c r="K130" s="307"/>
+      <c r="L130" s="308" t="s">
         <v>26</v>
       </c>
       <c r="M130" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N130" s="295"/>
-      <c r="O130" s="295"/>
-      <c r="P130" s="295"/>
-      <c r="Q130" s="296"/>
-      <c r="R130" s="297" t="s">
+      <c r="N130" s="290"/>
+      <c r="O130" s="290"/>
+      <c r="P130" s="290"/>
+      <c r="Q130" s="291"/>
+      <c r="R130" s="298" t="s">
         <v>35</v>
       </c>
       <c r="S130" s="58"/>
       <c r="T130" s="58"/>
     </row>
     <row r="131" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B131" s="298"/>
-      <c r="C131" s="314"/>
-      <c r="D131" s="321"/>
-      <c r="E131" s="298"/>
-      <c r="F131" s="319"/>
-      <c r="G131" s="319"/>
+      <c r="B131" s="299"/>
+      <c r="C131" s="315"/>
+      <c r="D131" s="304"/>
+      <c r="E131" s="299"/>
+      <c r="F131" s="306"/>
+      <c r="G131" s="306"/>
       <c r="H131" s="86" t="s">
         <v>8</v>
       </c>
@@ -18632,7 +18638,7 @@
       <c r="K131" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L131" s="302"/>
+      <c r="L131" s="309"/>
       <c r="M131" s="10" t="s">
         <v>22</v>
       </c>
@@ -18648,12 +18654,12 @@
       <c r="Q131" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R131" s="298"/>
+      <c r="R131" s="299"/>
       <c r="S131" s="59"/>
       <c r="T131" s="59"/>
     </row>
     <row r="132" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B132" s="310" t="s">
+      <c r="B132" s="292" t="s">
         <v>84</v>
       </c>
       <c r="C132" s="19" t="s">
@@ -18705,7 +18711,7 @@
       <c r="T132" s="47"/>
     </row>
     <row r="133" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B133" s="310"/>
+      <c r="B133" s="292"/>
       <c r="C133" s="43" t="s">
         <v>103</v>
       </c>
@@ -18755,7 +18761,7 @@
       <c r="T133" s="47"/>
     </row>
     <row r="134" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B134" s="310"/>
+      <c r="B134" s="292"/>
       <c r="C134" s="43" t="s">
         <v>16</v>
       </c>
@@ -18805,7 +18811,7 @@
       <c r="T134" s="47"/>
     </row>
     <row r="135" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B135" s="310"/>
+      <c r="B135" s="292"/>
       <c r="C135" s="233" t="s">
         <v>68</v>
       </c>
@@ -18855,7 +18861,7 @@
       <c r="T135" s="47"/>
     </row>
     <row r="136" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B136" s="310"/>
+      <c r="B136" s="292"/>
       <c r="C136" s="43" t="s">
         <v>263</v>
       </c>
@@ -18905,7 +18911,7 @@
       <c r="T136" s="47"/>
     </row>
     <row r="137" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B137" s="310"/>
+      <c r="B137" s="292"/>
       <c r="C137" s="43" t="s">
         <v>264</v>
       </c>
@@ -18955,7 +18961,7 @@
       <c r="T137" s="47"/>
     </row>
     <row r="138" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B138" s="310"/>
+      <c r="B138" s="292"/>
       <c r="C138" s="43" t="s">
         <v>345</v>
       </c>
@@ -19005,7 +19011,7 @@
       <c r="T138" s="47"/>
     </row>
     <row r="139" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B139" s="310"/>
+      <c r="B139" s="292"/>
       <c r="C139" s="22" t="s">
         <v>77</v>
       </c>
@@ -19055,7 +19061,7 @@
       <c r="T139" s="47"/>
     </row>
     <row r="140" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B140" s="310"/>
+      <c r="B140" s="292"/>
       <c r="C140" s="43" t="s">
         <v>78</v>
       </c>
@@ -19105,7 +19111,7 @@
       <c r="T140" s="47"/>
     </row>
     <row r="141" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B141" s="310"/>
+      <c r="B141" s="292"/>
       <c r="C141" s="22" t="s">
         <v>272</v>
       </c>
@@ -19155,7 +19161,7 @@
       <c r="T141" s="47"/>
     </row>
     <row r="142" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B142" s="310"/>
+      <c r="B142" s="292"/>
       <c r="C142" s="22" t="s">
         <v>273</v>
       </c>
@@ -19205,7 +19211,7 @@
       <c r="T142" s="47"/>
     </row>
     <row r="143" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B143" s="310"/>
+      <c r="B143" s="292"/>
       <c r="C143" s="22" t="s">
         <v>119</v>
       </c>
@@ -19255,7 +19261,7 @@
       <c r="T143" s="47"/>
     </row>
     <row r="144" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B144" s="310"/>
+      <c r="B144" s="292"/>
       <c r="C144" s="22" t="s">
         <v>266</v>
       </c>
@@ -19305,7 +19311,7 @@
       <c r="T144" s="47"/>
     </row>
     <row r="145" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B145" s="310"/>
+      <c r="B145" s="292"/>
       <c r="C145" s="22" t="s">
         <v>267</v>
       </c>
@@ -19355,7 +19361,7 @@
       <c r="T145" s="47"/>
     </row>
     <row r="146" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B146" s="310"/>
+      <c r="B146" s="292"/>
       <c r="C146" s="22" t="s">
         <v>120</v>
       </c>
@@ -19405,7 +19411,7 @@
       <c r="T146" s="47"/>
     </row>
     <row r="147" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B147" s="310"/>
+      <c r="B147" s="292"/>
       <c r="C147" s="22" t="s">
         <v>100</v>
       </c>
@@ -19455,7 +19461,7 @@
       <c r="T147" s="47"/>
     </row>
     <row r="148" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B148" s="310"/>
+      <c r="B148" s="292"/>
       <c r="C148" s="22" t="s">
         <v>94</v>
       </c>
@@ -19505,7 +19511,7 @@
       <c r="T148" s="47"/>
     </row>
     <row r="149" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B149" s="310"/>
+      <c r="B149" s="292"/>
       <c r="C149" s="22" t="s">
         <v>88</v>
       </c>
@@ -19555,7 +19561,7 @@
       <c r="T149" s="47"/>
     </row>
     <row r="150" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B150" s="310"/>
+      <c r="B150" s="292"/>
       <c r="C150" s="22" t="s">
         <v>96</v>
       </c>
@@ -19605,7 +19611,7 @@
       <c r="T150" s="47"/>
     </row>
     <row r="151" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B151" s="311"/>
+      <c r="B151" s="293"/>
       <c r="C151" s="17" t="s">
         <v>11</v>
       </c>
@@ -19661,7 +19667,7 @@
       <c r="T151" s="47"/>
     </row>
     <row r="152" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B152" s="312" t="s">
+      <c r="B152" s="294" t="s">
         <v>85</v>
       </c>
       <c r="C152" s="19" t="s">
@@ -19713,7 +19719,7 @@
       <c r="T152" s="47"/>
     </row>
     <row r="153" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B153" s="310"/>
+      <c r="B153" s="292"/>
       <c r="C153" s="43" t="s">
         <v>16</v>
       </c>
@@ -19763,7 +19769,7 @@
       <c r="T153" s="47"/>
     </row>
     <row r="154" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B154" s="310"/>
+      <c r="B154" s="292"/>
       <c r="C154" s="146" t="s">
         <v>70</v>
       </c>
@@ -19813,7 +19819,7 @@
       <c r="T154" s="47"/>
     </row>
     <row r="155" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B155" s="310"/>
+      <c r="B155" s="292"/>
       <c r="C155" s="19" t="s">
         <v>346</v>
       </c>
@@ -19863,7 +19869,7 @@
       <c r="T155" s="47"/>
     </row>
     <row r="156" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B156" s="310"/>
+      <c r="B156" s="292"/>
       <c r="C156" s="22" t="s">
         <v>347</v>
       </c>
@@ -19913,7 +19919,7 @@
       <c r="T156" s="47"/>
     </row>
     <row r="157" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B157" s="310"/>
+      <c r="B157" s="292"/>
       <c r="C157" s="22" t="s">
         <v>348</v>
       </c>
@@ -19963,7 +19969,7 @@
       <c r="T157" s="47"/>
     </row>
     <row r="158" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B158" s="310"/>
+      <c r="B158" s="292"/>
       <c r="C158" s="22" t="s">
         <v>349</v>
       </c>
@@ -20013,7 +20019,7 @@
       <c r="T158" s="47"/>
     </row>
     <row r="159" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B159" s="310"/>
+      <c r="B159" s="292"/>
       <c r="C159" s="43" t="s">
         <v>274</v>
       </c>
@@ -20063,7 +20069,7 @@
       <c r="T159" s="47"/>
     </row>
     <row r="160" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B160" s="310"/>
+      <c r="B160" s="292"/>
       <c r="C160" s="22" t="s">
         <v>275</v>
       </c>
@@ -20113,7 +20119,7 @@
       <c r="T160" s="47"/>
     </row>
     <row r="161" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B161" s="310"/>
+      <c r="B161" s="292"/>
       <c r="C161" s="22" t="s">
         <v>104</v>
       </c>
@@ -20163,7 +20169,7 @@
       <c r="T161" s="47"/>
     </row>
     <row r="162" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B162" s="310"/>
+      <c r="B162" s="292"/>
       <c r="C162" s="22" t="s">
         <v>280</v>
       </c>
@@ -20213,7 +20219,7 @@
       <c r="T162" s="47"/>
     </row>
     <row r="163" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B163" s="310"/>
+      <c r="B163" s="292"/>
       <c r="C163" s="22" t="s">
         <v>105</v>
       </c>
@@ -20263,7 +20269,7 @@
       <c r="T163" s="47"/>
     </row>
     <row r="164" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B164" s="310"/>
+      <c r="B164" s="292"/>
       <c r="C164" s="22" t="s">
         <v>99</v>
       </c>
@@ -20313,49 +20319,49 @@
       <c r="T164" s="47"/>
     </row>
     <row r="165" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B165" s="310"/>
+      <c r="B165" s="292"/>
       <c r="C165" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D165" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E165" s="315" t="s">
+      <c r="E165" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="F165" s="273">
+      <c r="F165" s="271">
         <f t="shared" si="75"/>
         <v>64</v>
       </c>
-      <c r="G165" s="273">
+      <c r="G165" s="271">
         <f t="shared" si="76"/>
         <v>64</v>
       </c>
-      <c r="H165" s="273"/>
-      <c r="I165" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="J165" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="K165" s="271"/>
-      <c r="L165" s="271"/>
-      <c r="M165" s="273">
-        <v>2</v>
-      </c>
-      <c r="N165" s="273">
-        <v>2</v>
-      </c>
-      <c r="O165" s="273">
-        <v>2</v>
-      </c>
-      <c r="P165" s="273">
-        <v>2</v>
-      </c>
-      <c r="Q165" s="273">
-        <v>0</v>
-      </c>
-      <c r="R165" s="273">
+      <c r="H165" s="271"/>
+      <c r="I165" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" s="269"/>
+      <c r="L165" s="269"/>
+      <c r="M165" s="271">
+        <v>2</v>
+      </c>
+      <c r="N165" s="271">
+        <v>2</v>
+      </c>
+      <c r="O165" s="271">
+        <v>2</v>
+      </c>
+      <c r="P165" s="271">
+        <v>2</v>
+      </c>
+      <c r="Q165" s="271">
+        <v>0</v>
+      </c>
+      <c r="R165" s="271">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
@@ -20363,74 +20369,74 @@
       <c r="T165" s="47"/>
     </row>
     <row r="166" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B166" s="310"/>
+      <c r="B166" s="292"/>
       <c r="C166" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D166" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E166" s="316"/>
-      <c r="F166" s="288"/>
-      <c r="G166" s="288"/>
-      <c r="H166" s="300"/>
-      <c r="I166" s="272"/>
-      <c r="J166" s="272"/>
-      <c r="K166" s="272"/>
-      <c r="L166" s="275"/>
-      <c r="M166" s="274"/>
-      <c r="N166" s="274"/>
-      <c r="O166" s="274"/>
-      <c r="P166" s="274"/>
-      <c r="Q166" s="274"/>
-      <c r="R166" s="300"/>
+      <c r="E166" s="295"/>
+      <c r="F166" s="287"/>
+      <c r="G166" s="287"/>
+      <c r="H166" s="285"/>
+      <c r="I166" s="288"/>
+      <c r="J166" s="288"/>
+      <c r="K166" s="288"/>
+      <c r="L166" s="322"/>
+      <c r="M166" s="286"/>
+      <c r="N166" s="286"/>
+      <c r="O166" s="286"/>
+      <c r="P166" s="286"/>
+      <c r="Q166" s="286"/>
+      <c r="R166" s="285"/>
       <c r="S166" s="47"/>
       <c r="T166" s="47"/>
     </row>
     <row r="167" spans="2:20">
-      <c r="B167" s="310"/>
+      <c r="B167" s="292"/>
       <c r="C167" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D167" s="280" t="s">
+      <c r="D167" s="310" t="s">
         <v>110</v>
       </c>
-      <c r="E167" s="315" t="s">
+      <c r="E167" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="F167" s="273">
+      <c r="F167" s="271">
         <f>SUM(M167:Q167)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G167" s="273">
+      <c r="G167" s="271">
         <f>F167</f>
         <v>48</v>
       </c>
-      <c r="H167" s="271"/>
-      <c r="I167" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J167" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K167" s="271"/>
-      <c r="L167" s="271"/>
-      <c r="M167" s="276">
+      <c r="H167" s="269"/>
+      <c r="I167" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K167" s="269"/>
+      <c r="L167" s="269"/>
+      <c r="M167" s="278">
         <v>6</v>
       </c>
-      <c r="N167" s="276">
-        <v>0</v>
-      </c>
-      <c r="O167" s="276">
-        <v>0</v>
-      </c>
-      <c r="P167" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q167" s="276">
-        <v>0</v>
-      </c>
-      <c r="R167" s="273">
+      <c r="N167" s="278">
+        <v>0</v>
+      </c>
+      <c r="O167" s="278">
+        <v>0</v>
+      </c>
+      <c r="P167" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="278">
+        <v>0</v>
+      </c>
+      <c r="R167" s="271">
         <f>F167/$F$2</f>
         <v>3</v>
       </c>
@@ -20438,72 +20444,72 @@
       <c r="T167" s="47"/>
     </row>
     <row r="168" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B168" s="310"/>
+      <c r="B168" s="292"/>
       <c r="C168" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D168" s="281"/>
-      <c r="E168" s="317"/>
-      <c r="F168" s="323"/>
-      <c r="G168" s="323"/>
-      <c r="H168" s="279"/>
-      <c r="I168" s="279"/>
-      <c r="J168" s="279"/>
-      <c r="K168" s="279"/>
-      <c r="L168" s="278"/>
-      <c r="M168" s="277"/>
-      <c r="N168" s="277"/>
-      <c r="O168" s="277"/>
-      <c r="P168" s="277"/>
-      <c r="Q168" s="277"/>
-      <c r="R168" s="303"/>
+      <c r="D168" s="323"/>
+      <c r="E168" s="275"/>
+      <c r="F168" s="276"/>
+      <c r="G168" s="276"/>
+      <c r="H168" s="277"/>
+      <c r="I168" s="277"/>
+      <c r="J168" s="277"/>
+      <c r="K168" s="277"/>
+      <c r="L168" s="283"/>
+      <c r="M168" s="279"/>
+      <c r="N168" s="279"/>
+      <c r="O168" s="279"/>
+      <c r="P168" s="279"/>
+      <c r="Q168" s="279"/>
+      <c r="R168" s="273"/>
       <c r="S168" s="47"/>
       <c r="T168" s="47"/>
     </row>
     <row r="169" spans="2:20">
-      <c r="B169" s="310"/>
+      <c r="B169" s="292"/>
       <c r="C169" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D169" s="280" t="s">
+      <c r="D169" s="310" t="s">
         <v>110</v>
       </c>
-      <c r="E169" s="315" t="s">
+      <c r="E169" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F169" s="273">
+      <c r="F169" s="271">
         <f>SUM(M169:Q169)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G169" s="273">
+      <c r="G169" s="271">
         <f>F169</f>
         <v>48</v>
       </c>
-      <c r="H169" s="271"/>
-      <c r="I169" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J169" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K169" s="271"/>
-      <c r="L169" s="271"/>
-      <c r="M169" s="276">
-        <v>0</v>
-      </c>
-      <c r="N169" s="276">
+      <c r="H169" s="269"/>
+      <c r="I169" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K169" s="269"/>
+      <c r="L169" s="269"/>
+      <c r="M169" s="278">
+        <v>0</v>
+      </c>
+      <c r="N169" s="278">
         <v>6</v>
       </c>
-      <c r="O169" s="276">
-        <v>0</v>
-      </c>
-      <c r="P169" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q169" s="276">
-        <v>0</v>
-      </c>
-      <c r="R169" s="273">
+      <c r="O169" s="278">
+        <v>0</v>
+      </c>
+      <c r="P169" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="278">
+        <v>0</v>
+      </c>
+      <c r="R169" s="271">
         <f>F169/$F$2</f>
         <v>3</v>
       </c>
@@ -20511,72 +20517,72 @@
       <c r="T169" s="47"/>
     </row>
     <row r="170" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B170" s="310"/>
+      <c r="B170" s="292"/>
       <c r="C170" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D170" s="281"/>
-      <c r="E170" s="317"/>
-      <c r="F170" s="323"/>
-      <c r="G170" s="323"/>
-      <c r="H170" s="279"/>
-      <c r="I170" s="279"/>
-      <c r="J170" s="279"/>
-      <c r="K170" s="279"/>
-      <c r="L170" s="278"/>
-      <c r="M170" s="277"/>
-      <c r="N170" s="277"/>
-      <c r="O170" s="277"/>
-      <c r="P170" s="277"/>
-      <c r="Q170" s="277"/>
-      <c r="R170" s="303"/>
+      <c r="D170" s="323"/>
+      <c r="E170" s="275"/>
+      <c r="F170" s="276"/>
+      <c r="G170" s="276"/>
+      <c r="H170" s="277"/>
+      <c r="I170" s="277"/>
+      <c r="J170" s="277"/>
+      <c r="K170" s="277"/>
+      <c r="L170" s="283"/>
+      <c r="M170" s="279"/>
+      <c r="N170" s="279"/>
+      <c r="O170" s="279"/>
+      <c r="P170" s="279"/>
+      <c r="Q170" s="279"/>
+      <c r="R170" s="273"/>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
     </row>
     <row r="171" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B171" s="310"/>
+      <c r="B171" s="292"/>
       <c r="C171" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D171" s="280" t="s">
+      <c r="D171" s="310" t="s">
         <v>110</v>
       </c>
-      <c r="E171" s="315" t="s">
+      <c r="E171" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F171" s="273">
+      <c r="F171" s="271">
         <f>SUM(M171:Q171)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G171" s="273">
+      <c r="G171" s="271">
         <f>F171</f>
         <v>48</v>
       </c>
-      <c r="H171" s="271"/>
-      <c r="I171" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J171" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K171" s="271"/>
-      <c r="L171" s="271"/>
-      <c r="M171" s="276">
-        <v>0</v>
-      </c>
-      <c r="N171" s="276">
-        <v>0</v>
-      </c>
-      <c r="O171" s="276">
+      <c r="H171" s="269"/>
+      <c r="I171" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K171" s="269"/>
+      <c r="L171" s="269"/>
+      <c r="M171" s="278">
+        <v>0</v>
+      </c>
+      <c r="N171" s="278">
+        <v>0</v>
+      </c>
+      <c r="O171" s="278">
         <v>6</v>
       </c>
-      <c r="P171" s="276">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="276">
-        <v>0</v>
-      </c>
-      <c r="R171" s="273">
+      <c r="P171" s="278">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="278">
+        <v>0</v>
+      </c>
+      <c r="R171" s="271">
         <f>F171/$F$2</f>
         <v>3</v>
       </c>
@@ -20584,72 +20590,72 @@
       <c r="T171" s="47"/>
     </row>
     <row r="172" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B172" s="310"/>
+      <c r="B172" s="292"/>
       <c r="C172" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D172" s="281"/>
-      <c r="E172" s="317"/>
-      <c r="F172" s="323"/>
-      <c r="G172" s="323"/>
-      <c r="H172" s="279"/>
-      <c r="I172" s="279"/>
-      <c r="J172" s="279"/>
-      <c r="K172" s="279"/>
-      <c r="L172" s="278"/>
-      <c r="M172" s="277"/>
-      <c r="N172" s="277"/>
-      <c r="O172" s="277"/>
-      <c r="P172" s="277"/>
-      <c r="Q172" s="277"/>
-      <c r="R172" s="303"/>
+      <c r="D172" s="323"/>
+      <c r="E172" s="275"/>
+      <c r="F172" s="276"/>
+      <c r="G172" s="276"/>
+      <c r="H172" s="277"/>
+      <c r="I172" s="277"/>
+      <c r="J172" s="277"/>
+      <c r="K172" s="277"/>
+      <c r="L172" s="283"/>
+      <c r="M172" s="279"/>
+      <c r="N172" s="279"/>
+      <c r="O172" s="279"/>
+      <c r="P172" s="279"/>
+      <c r="Q172" s="279"/>
+      <c r="R172" s="273"/>
       <c r="S172" s="47"/>
       <c r="T172" s="47"/>
     </row>
     <row r="173" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B173" s="310"/>
+      <c r="B173" s="292"/>
       <c r="C173" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D173" s="282" t="s">
+      <c r="D173" s="301" t="s">
         <v>110</v>
       </c>
-      <c r="E173" s="315" t="s">
+      <c r="E173" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F173" s="273">
+      <c r="F173" s="271">
         <f>SUM(M173:Q173)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G173" s="273">
+      <c r="G173" s="271">
         <f>F173</f>
         <v>48</v>
       </c>
-      <c r="H173" s="271"/>
-      <c r="I173" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J173" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="K173" s="271"/>
-      <c r="L173" s="271"/>
-      <c r="M173" s="276">
-        <v>0</v>
-      </c>
-      <c r="N173" s="276">
-        <v>0</v>
-      </c>
-      <c r="O173" s="276">
-        <v>0</v>
-      </c>
-      <c r="P173" s="276">
+      <c r="H173" s="269"/>
+      <c r="I173" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="K173" s="269"/>
+      <c r="L173" s="269"/>
+      <c r="M173" s="278">
+        <v>0</v>
+      </c>
+      <c r="N173" s="278">
+        <v>0</v>
+      </c>
+      <c r="O173" s="278">
+        <v>0</v>
+      </c>
+      <c r="P173" s="278">
         <v>6</v>
       </c>
-      <c r="Q173" s="276">
-        <v>0</v>
-      </c>
-      <c r="R173" s="273">
+      <c r="Q173" s="278">
+        <v>0</v>
+      </c>
+      <c r="R173" s="271">
         <f>F173/$F$2</f>
         <v>3</v>
       </c>
@@ -20657,30 +20663,30 @@
       <c r="T173" s="47"/>
     </row>
     <row r="174" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="310"/>
+      <c r="B174" s="292"/>
       <c r="C174" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D174" s="281"/>
-      <c r="E174" s="317"/>
-      <c r="F174" s="323"/>
-      <c r="G174" s="323"/>
-      <c r="H174" s="279"/>
-      <c r="I174" s="279"/>
-      <c r="J174" s="279"/>
-      <c r="K174" s="279"/>
-      <c r="L174" s="278"/>
-      <c r="M174" s="277"/>
-      <c r="N174" s="277"/>
-      <c r="O174" s="277"/>
-      <c r="P174" s="277"/>
-      <c r="Q174" s="277"/>
-      <c r="R174" s="303"/>
+      <c r="D174" s="323"/>
+      <c r="E174" s="275"/>
+      <c r="F174" s="276"/>
+      <c r="G174" s="276"/>
+      <c r="H174" s="277"/>
+      <c r="I174" s="277"/>
+      <c r="J174" s="277"/>
+      <c r="K174" s="277"/>
+      <c r="L174" s="283"/>
+      <c r="M174" s="279"/>
+      <c r="N174" s="279"/>
+      <c r="O174" s="279"/>
+      <c r="P174" s="279"/>
+      <c r="Q174" s="279"/>
+      <c r="R174" s="273"/>
       <c r="S174" s="47"/>
       <c r="T174" s="47"/>
     </row>
     <row r="175" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="311"/>
+      <c r="B175" s="293"/>
       <c r="C175" s="17" t="s">
         <v>11</v>
       </c>
@@ -20736,7 +20742,7 @@
       <c r="T175" s="47"/>
     </row>
     <row r="176" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B176" s="307" t="s">
+      <c r="B176" s="280" t="s">
         <v>86</v>
       </c>
       <c r="C176" s="19" t="s">
@@ -20788,7 +20794,7 @@
       <c r="T176" s="47"/>
     </row>
     <row r="177" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B177" s="308"/>
+      <c r="B177" s="281"/>
       <c r="C177" s="147" t="s">
         <v>260</v>
       </c>
@@ -20838,7 +20844,7 @@
       <c r="T177" s="47"/>
     </row>
     <row r="178" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B178" s="308"/>
+      <c r="B178" s="281"/>
       <c r="C178" s="19" t="s">
         <v>350</v>
       </c>
@@ -20888,7 +20894,7 @@
       <c r="T178" s="47"/>
     </row>
     <row r="179" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B179" s="308"/>
+      <c r="B179" s="281"/>
       <c r="C179" s="43" t="s">
         <v>351</v>
       </c>
@@ -20938,7 +20944,7 @@
       <c r="T179" s="47"/>
     </row>
     <row r="180" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B180" s="308"/>
+      <c r="B180" s="281"/>
       <c r="C180" s="43" t="s">
         <v>265</v>
       </c>
@@ -20988,7 +20994,7 @@
       <c r="T180" s="47"/>
     </row>
     <row r="181" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B181" s="308"/>
+      <c r="B181" s="281"/>
       <c r="C181" s="43" t="s">
         <v>303</v>
       </c>
@@ -21038,7 +21044,7 @@
       <c r="T181" s="47"/>
     </row>
     <row r="182" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B182" s="308"/>
+      <c r="B182" s="281"/>
       <c r="C182" s="43" t="s">
         <v>276</v>
       </c>
@@ -21088,7 +21094,7 @@
       <c r="T182" s="47"/>
     </row>
     <row r="183" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B183" s="308"/>
+      <c r="B183" s="281"/>
       <c r="C183" s="22" t="s">
         <v>277</v>
       </c>
@@ -21138,49 +21144,49 @@
       <c r="T183" s="47"/>
     </row>
     <row r="184" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B184" s="308"/>
+      <c r="B184" s="281"/>
       <c r="C184" s="22" t="s">
         <v>377</v>
       </c>
       <c r="D184" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="E184" s="315" t="s">
+      <c r="E184" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F184" s="273">
+      <c r="F184" s="271">
         <f>SUM(M184:Q184)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G184" s="273">
+      <c r="G184" s="271">
         <f t="shared" si="82"/>
         <v>384</v>
       </c>
-      <c r="H184" s="273"/>
-      <c r="I184" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="J184" s="271"/>
-      <c r="K184" s="271" t="s">
-        <v>0</v>
-      </c>
-      <c r="L184" s="271"/>
-      <c r="M184" s="273">
+      <c r="H184" s="271"/>
+      <c r="I184" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="269"/>
+      <c r="K184" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="L184" s="269"/>
+      <c r="M184" s="271">
         <v>12</v>
       </c>
-      <c r="N184" s="273">
+      <c r="N184" s="271">
         <v>12</v>
       </c>
-      <c r="O184" s="273">
+      <c r="O184" s="271">
         <v>12</v>
       </c>
-      <c r="P184" s="273">
+      <c r="P184" s="271">
         <v>12</v>
       </c>
-      <c r="Q184" s="273">
-        <v>0</v>
-      </c>
-      <c r="R184" s="304">
+      <c r="Q184" s="271">
+        <v>0</v>
+      </c>
+      <c r="R184" s="284">
         <f>F184/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -21188,32 +21194,32 @@
       <c r="T184" s="47"/>
     </row>
     <row r="185" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B185" s="308"/>
+      <c r="B185" s="281"/>
       <c r="C185" s="147" t="s">
         <v>379</v>
       </c>
       <c r="D185" s="154" t="s">
         <v>378</v>
       </c>
-      <c r="E185" s="317"/>
-      <c r="F185" s="287"/>
-      <c r="G185" s="287"/>
-      <c r="H185" s="287"/>
-      <c r="I185" s="286"/>
-      <c r="J185" s="286"/>
-      <c r="K185" s="286"/>
-      <c r="L185" s="286"/>
-      <c r="M185" s="287"/>
-      <c r="N185" s="287"/>
-      <c r="O185" s="287"/>
-      <c r="P185" s="287"/>
-      <c r="Q185" s="287"/>
-      <c r="R185" s="287"/>
+      <c r="E185" s="275"/>
+      <c r="F185" s="272"/>
+      <c r="G185" s="272"/>
+      <c r="H185" s="272"/>
+      <c r="I185" s="270"/>
+      <c r="J185" s="270"/>
+      <c r="K185" s="270"/>
+      <c r="L185" s="270"/>
+      <c r="M185" s="272"/>
+      <c r="N185" s="272"/>
+      <c r="O185" s="272"/>
+      <c r="P185" s="272"/>
+      <c r="Q185" s="272"/>
+      <c r="R185" s="272"/>
       <c r="S185" s="47"/>
       <c r="T185" s="47"/>
     </row>
     <row r="186" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B186" s="309"/>
+      <c r="B186" s="282"/>
       <c r="C186" s="33" t="s">
         <v>11</v>
       </c>
@@ -21269,7 +21275,7 @@
       <c r="T186" s="47"/>
     </row>
     <row r="187" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B187" s="307" t="s">
+      <c r="B187" s="280" t="s">
         <v>87</v>
       </c>
       <c r="C187" s="19" t="s">
@@ -21321,7 +21327,7 @@
       <c r="T187" s="47"/>
     </row>
     <row r="188" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B188" s="308"/>
+      <c r="B188" s="281"/>
       <c r="C188" s="43" t="s">
         <v>261</v>
       </c>
@@ -21371,7 +21377,7 @@
       <c r="T188" s="47"/>
     </row>
     <row r="189" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B189" s="308"/>
+      <c r="B189" s="281"/>
       <c r="C189" s="19" t="s">
         <v>278</v>
       </c>
@@ -21421,7 +21427,7 @@
       <c r="T189" s="47"/>
     </row>
     <row r="190" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B190" s="308"/>
+      <c r="B190" s="281"/>
       <c r="C190" s="22" t="s">
         <v>279</v>
       </c>
@@ -21471,7 +21477,7 @@
       <c r="T190" s="47"/>
     </row>
     <row r="191" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B191" s="308"/>
+      <c r="B191" s="281"/>
       <c r="C191" s="22" t="s">
         <v>102</v>
       </c>
@@ -21521,7 +21527,7 @@
       <c r="T191" s="47"/>
     </row>
     <row r="192" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B192" s="309"/>
+      <c r="B192" s="282"/>
       <c r="C192" s="33" t="s">
         <v>11</v>
       </c>
@@ -21607,14 +21613,14 @@
       <c r="I194" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J194" s="284" t="s">
+      <c r="J194" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K194" s="285"/>
-      <c r="L194" s="293" t="s">
+      <c r="K194" s="312"/>
+      <c r="L194" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M194" s="294"/>
+      <c r="M194" s="321"/>
       <c r="N194" s="84" t="s">
         <v>49</v>
       </c>
@@ -21817,27 +21823,264 @@
     </row>
   </sheetData>
   <mergeCells count="303">
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="M184:M185"/>
-    <mergeCell ref="N184:N185"/>
-    <mergeCell ref="R169:R170"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="R171:R172"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="S104:S105"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="P106:P107"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="N118:N119"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="K106:K107"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="L194:M194"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="O165:O166"/>
+    <mergeCell ref="Q165:Q166"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="P171:P172"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="Q171:Q172"/>
+    <mergeCell ref="J184:J185"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="R130:R131"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="R118:R119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="P118:P119"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B84:B108"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B132:B151"/>
+    <mergeCell ref="B152:B175"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="B8:B28"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="R165:R166"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="N167:N168"/>
+    <mergeCell ref="O167:O168"/>
+    <mergeCell ref="Q167:Q168"/>
+    <mergeCell ref="R167:R168"/>
+    <mergeCell ref="P165:P166"/>
+    <mergeCell ref="P167:P168"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
     <mergeCell ref="B187:B192"/>
     <mergeCell ref="N173:N174"/>
     <mergeCell ref="O173:O174"/>
@@ -21862,264 +22105,27 @@
     <mergeCell ref="G184:G185"/>
     <mergeCell ref="H184:H185"/>
     <mergeCell ref="I184:I185"/>
-    <mergeCell ref="R165:R166"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="N167:N168"/>
-    <mergeCell ref="O167:O168"/>
-    <mergeCell ref="Q167:Q168"/>
-    <mergeCell ref="R167:R168"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="P167:P168"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="B8:B28"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B109:B120"/>
-    <mergeCell ref="B64:B83"/>
-    <mergeCell ref="B84:B108"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B132:B151"/>
-    <mergeCell ref="B152:B175"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="P118:P119"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="R130:R131"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="R104:R105"/>
-    <mergeCell ref="R106:R107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="R118:R119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="L194:M194"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="O165:O166"/>
-    <mergeCell ref="Q165:Q166"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="P171:P172"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="N171:N172"/>
-    <mergeCell ref="O171:O172"/>
-    <mergeCell ref="Q171:Q172"/>
-    <mergeCell ref="J184:J185"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="P106:P107"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="N118:N119"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="K106:K107"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="S98:S99"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="S104:S105"/>
-    <mergeCell ref="S106:S107"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="P100:P101"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="N184:N185"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="R171:R172"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="O169:O170"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -22143,8 +22149,8 @@
   </sheetPr>
   <dimension ref="A1:X156"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A80" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S95" sqref="S95"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A101" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O132" sqref="O132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -22198,55 +22204,55 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="297" t="s">
+      <c r="B5" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="320" t="s">
+      <c r="D5" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="318" t="s">
+      <c r="E5" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="318" t="s">
+      <c r="G5" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="290"/>
+      <c r="I5" s="307"/>
       <c r="J5" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="290"/>
-      <c r="L5" s="327" t="s">
+      <c r="K5" s="307"/>
+      <c r="L5" s="328" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="295"/>
-      <c r="O5" s="295"/>
-      <c r="P5" s="295"/>
-      <c r="Q5" s="290"/>
-      <c r="R5" s="297" t="s">
+      <c r="N5" s="290"/>
+      <c r="O5" s="290"/>
+      <c r="P5" s="290"/>
+      <c r="Q5" s="307"/>
+      <c r="R5" s="298" t="s">
         <v>35</v>
       </c>
       <c r="S5" s="58"/>
       <c r="T5" s="241"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="298"/>
-      <c r="C6" s="324"/>
-      <c r="D6" s="321"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="319"/>
-      <c r="G6" s="319"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="314"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
       <c r="H6" s="90" t="s">
         <v>8</v>
       </c>
@@ -22259,7 +22265,7 @@
       <c r="K6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="328"/>
+      <c r="L6" s="329"/>
       <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
@@ -22275,12 +22281,12 @@
       <c r="Q6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="298"/>
+      <c r="R6" s="299"/>
       <c r="S6" s="59"/>
       <c r="T6" s="242"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B7" s="310" t="s">
+      <c r="B7" s="292" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -22332,7 +22338,7 @@
       <c r="T7" s="172"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="310"/>
+      <c r="B8" s="292"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
@@ -22382,7 +22388,7 @@
       <c r="T8" s="172"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="292"/>
       <c r="C9" s="43" t="s">
         <v>261</v>
       </c>
@@ -22432,7 +22438,7 @@
       <c r="T9" s="172"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="292"/>
       <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
@@ -22482,7 +22488,7 @@
       <c r="T10" s="172"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="292"/>
       <c r="C11" s="173" t="s">
         <v>130</v>
       </c>
@@ -22532,7 +22538,7 @@
       <c r="T11" s="172"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="292"/>
       <c r="C12" s="43" t="s">
         <v>305</v>
       </c>
@@ -22582,7 +22588,7 @@
       <c r="T12" s="172"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="292"/>
       <c r="C13" s="43" t="s">
         <v>306</v>
       </c>
@@ -22632,7 +22638,7 @@
       <c r="T13" s="172"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -22682,7 +22688,7 @@
       <c r="T14" s="172"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="292"/>
       <c r="C15" s="147" t="s">
         <v>239</v>
       </c>
@@ -22732,7 +22738,7 @@
       <c r="T15" s="172"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="19" t="s">
         <v>68</v>
       </c>
@@ -22782,7 +22788,7 @@
       <c r="T16" s="172"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="292"/>
       <c r="C17" s="43" t="s">
         <v>74</v>
       </c>
@@ -22832,7 +22838,7 @@
       <c r="T17" s="172"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="43" t="s">
         <v>77</v>
       </c>
@@ -22882,7 +22888,7 @@
       <c r="T18" s="172"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="43" t="s">
         <v>78</v>
       </c>
@@ -22932,7 +22938,7 @@
       <c r="T19" s="172"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="43" t="s">
         <v>79</v>
       </c>
@@ -22982,7 +22988,7 @@
       <c r="T20" s="172"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="292"/>
       <c r="C21" s="43" t="s">
         <v>80</v>
       </c>
@@ -23032,7 +23038,7 @@
       <c r="T21" s="172"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="43" t="s">
         <v>268</v>
       </c>
@@ -23082,7 +23088,7 @@
       <c r="T22" s="172"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="292"/>
       <c r="C23" s="43" t="s">
         <v>269</v>
       </c>
@@ -23132,7 +23138,7 @@
       <c r="T23" s="172"/>
     </row>
     <row r="24" spans="1:23" ht="16.5" hidden="1" customHeight="1">
-      <c r="B24" s="310"/>
+      <c r="B24" s="292"/>
       <c r="C24" s="175" t="s">
         <v>280</v>
       </c>
@@ -23182,7 +23188,7 @@
       <c r="T24" s="172"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B25" s="310"/>
+      <c r="B25" s="292"/>
       <c r="C25" s="177" t="s">
         <v>281</v>
       </c>
@@ -23234,7 +23240,7 @@
       <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B26" s="311"/>
+      <c r="B26" s="293"/>
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
@@ -23323,14 +23329,14 @@
       <c r="I28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="284" t="s">
+      <c r="J28" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="285"/>
-      <c r="L28" s="293" t="s">
+      <c r="K28" s="312"/>
+      <c r="L28" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="294"/>
+      <c r="M28" s="321"/>
       <c r="N28" s="84" t="s">
         <v>49</v>
       </c>
@@ -23487,55 +23493,55 @@
       <c r="T33" s="244"/>
     </row>
     <row r="34" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="297" t="s">
+      <c r="B34" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="320" t="s">
+      <c r="D34" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="318" t="s">
+      <c r="E34" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="318" t="s">
+      <c r="G34" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="290"/>
+      <c r="I34" s="307"/>
       <c r="J34" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="290"/>
-      <c r="L34" s="327" t="s">
+      <c r="K34" s="307"/>
+      <c r="L34" s="328" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N34" s="295"/>
-      <c r="O34" s="295"/>
-      <c r="P34" s="295"/>
-      <c r="Q34" s="290"/>
-      <c r="R34" s="297" t="s">
+      <c r="N34" s="290"/>
+      <c r="O34" s="290"/>
+      <c r="P34" s="290"/>
+      <c r="Q34" s="307"/>
+      <c r="R34" s="298" t="s">
         <v>35</v>
       </c>
       <c r="S34" s="58"/>
       <c r="T34" s="241"/>
     </row>
     <row r="35" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="298"/>
-      <c r="C35" s="324"/>
-      <c r="D35" s="321"/>
-      <c r="E35" s="298"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="314"/>
+      <c r="D35" s="304"/>
+      <c r="E35" s="299"/>
+      <c r="F35" s="306"/>
+      <c r="G35" s="306"/>
       <c r="H35" s="90" t="s">
         <v>8</v>
       </c>
@@ -23548,7 +23554,7 @@
       <c r="K35" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="328"/>
+      <c r="L35" s="329"/>
       <c r="M35" s="10" t="s">
         <v>22</v>
       </c>
@@ -23564,12 +23570,12 @@
       <c r="Q35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R35" s="298"/>
+      <c r="R35" s="299"/>
       <c r="S35" s="59"/>
       <c r="T35" s="242"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="310" t="s">
+      <c r="B36" s="292" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -23621,7 +23627,7 @@
       <c r="T36" s="172"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="292"/>
       <c r="C37" s="43" t="s">
         <v>103</v>
       </c>
@@ -23671,7 +23677,7 @@
       <c r="T37" s="172"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="292"/>
       <c r="C38" s="43" t="s">
         <v>260</v>
       </c>
@@ -23721,7 +23727,7 @@
       <c r="T38" s="172"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="292"/>
       <c r="C39" s="43" t="s">
         <v>66</v>
       </c>
@@ -23771,7 +23777,7 @@
       <c r="T39" s="172"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B40" s="310"/>
+      <c r="B40" s="292"/>
       <c r="C40" s="173" t="s">
         <v>130</v>
       </c>
@@ -23821,7 +23827,7 @@
       <c r="T40" s="172"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B41" s="310"/>
+      <c r="B41" s="292"/>
       <c r="C41" s="173" t="s">
         <v>75</v>
       </c>
@@ -23871,7 +23877,7 @@
       <c r="T41" s="172"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B42" s="310"/>
+      <c r="B42" s="292"/>
       <c r="C42" s="173" t="s">
         <v>76</v>
       </c>
@@ -23921,7 +23927,7 @@
       <c r="T42" s="172"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="310"/>
+      <c r="B43" s="292"/>
       <c r="C43" s="43" t="s">
         <v>238</v>
       </c>
@@ -23971,7 +23977,7 @@
       <c r="T43" s="172"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B44" s="310"/>
+      <c r="B44" s="292"/>
       <c r="C44" s="147" t="s">
         <v>239</v>
       </c>
@@ -24021,7 +24027,7 @@
       <c r="T44" s="172"/>
     </row>
     <row r="45" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B45" s="310"/>
+      <c r="B45" s="292"/>
       <c r="C45" s="19" t="s">
         <v>68</v>
       </c>
@@ -24071,7 +24077,7 @@
       <c r="T45" s="172"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="310"/>
+      <c r="B46" s="292"/>
       <c r="C46" s="43" t="s">
         <v>266</v>
       </c>
@@ -24121,7 +24127,7 @@
       <c r="T46" s="172"/>
     </row>
     <row r="47" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B47" s="310"/>
+      <c r="B47" s="292"/>
       <c r="C47" s="22" t="s">
         <v>308</v>
       </c>
@@ -24171,7 +24177,7 @@
       <c r="T47" s="172"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="310"/>
+      <c r="B48" s="292"/>
       <c r="C48" s="43" t="s">
         <v>128</v>
       </c>
@@ -24221,7 +24227,7 @@
       <c r="T48" s="172"/>
     </row>
     <row r="49" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B49" s="310"/>
+      <c r="B49" s="292"/>
       <c r="C49" s="43" t="s">
         <v>74</v>
       </c>
@@ -24271,7 +24277,7 @@
       <c r="T49" s="172"/>
     </row>
     <row r="50" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B50" s="310"/>
+      <c r="B50" s="292"/>
       <c r="C50" s="43" t="s">
         <v>77</v>
       </c>
@@ -24321,7 +24327,7 @@
       <c r="T50" s="172"/>
     </row>
     <row r="51" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B51" s="310"/>
+      <c r="B51" s="292"/>
       <c r="C51" s="43" t="s">
         <v>78</v>
       </c>
@@ -24371,7 +24377,7 @@
       <c r="T51" s="172"/>
     </row>
     <row r="52" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="292"/>
       <c r="C52" s="43" t="s">
         <v>79</v>
       </c>
@@ -24421,7 +24427,7 @@
       <c r="T52" s="172"/>
     </row>
     <row r="53" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B53" s="310"/>
+      <c r="B53" s="292"/>
       <c r="C53" s="43" t="s">
         <v>80</v>
       </c>
@@ -24471,7 +24477,7 @@
       <c r="T53" s="172"/>
     </row>
     <row r="54" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B54" s="310"/>
+      <c r="B54" s="292"/>
       <c r="C54" s="43" t="s">
         <v>133</v>
       </c>
@@ -24521,7 +24527,7 @@
       <c r="T54" s="172"/>
     </row>
     <row r="55" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B55" s="310"/>
+      <c r="B55" s="292"/>
       <c r="C55" s="43" t="s">
         <v>268</v>
       </c>
@@ -24571,7 +24577,7 @@
       <c r="T55" s="172"/>
     </row>
     <row r="56" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B56" s="310"/>
+      <c r="B56" s="292"/>
       <c r="C56" s="43" t="s">
         <v>269</v>
       </c>
@@ -24621,7 +24627,7 @@
       <c r="T56" s="172"/>
     </row>
     <row r="57" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B57" s="310"/>
+      <c r="B57" s="292"/>
       <c r="C57" s="43" t="s">
         <v>280</v>
       </c>
@@ -24671,7 +24677,7 @@
       <c r="T57" s="172"/>
     </row>
     <row r="58" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B58" s="310"/>
+      <c r="B58" s="292"/>
       <c r="C58" s="43" t="s">
         <v>372</v>
       </c>
@@ -24721,7 +24727,7 @@
       <c r="T58" s="172"/>
     </row>
     <row r="59" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B59" s="310"/>
+      <c r="B59" s="292"/>
       <c r="C59" s="43" t="s">
         <v>373</v>
       </c>
@@ -24771,7 +24777,7 @@
       <c r="T59" s="172"/>
     </row>
     <row r="60" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B60" s="310"/>
+      <c r="B60" s="292"/>
       <c r="C60" s="169" t="s">
         <v>374</v>
       </c>
@@ -24823,7 +24829,7 @@
       <c r="V60" s="6"/>
     </row>
     <row r="61" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B61" s="311"/>
+      <c r="B61" s="293"/>
       <c r="C61" s="17" t="s">
         <v>11</v>
       </c>
@@ -24882,7 +24888,7 @@
       <c r="W61" s="6"/>
     </row>
     <row r="62" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B62" s="312" t="s">
+      <c r="B62" s="294" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="19" t="s">
@@ -24934,7 +24940,7 @@
       <c r="T62" s="172"/>
     </row>
     <row r="63" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B63" s="310"/>
+      <c r="B63" s="292"/>
       <c r="C63" s="43" t="s">
         <v>309</v>
       </c>
@@ -24984,7 +24990,7 @@
       <c r="T63" s="172"/>
     </row>
     <row r="64" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B64" s="310"/>
+      <c r="B64" s="292"/>
       <c r="C64" s="146" t="s">
         <v>70</v>
       </c>
@@ -25034,7 +25040,7 @@
       <c r="T64" s="172"/>
     </row>
     <row r="65" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B65" s="310"/>
+      <c r="B65" s="292"/>
       <c r="C65" s="19" t="s">
         <v>117</v>
       </c>
@@ -25084,7 +25090,7 @@
       <c r="T65" s="172"/>
     </row>
     <row r="66" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B66" s="310"/>
+      <c r="B66" s="292"/>
       <c r="C66" s="43" t="s">
         <v>118</v>
       </c>
@@ -25134,7 +25140,7 @@
       <c r="T66" s="172"/>
     </row>
     <row r="67" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B67" s="310"/>
+      <c r="B67" s="292"/>
       <c r="C67" s="43" t="s">
         <v>131</v>
       </c>
@@ -25184,7 +25190,7 @@
       <c r="T67" s="172"/>
     </row>
     <row r="68" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B68" s="310"/>
+      <c r="B68" s="292"/>
       <c r="C68" s="43" t="s">
         <v>129</v>
       </c>
@@ -25234,7 +25240,7 @@
       <c r="T68" s="172"/>
     </row>
     <row r="69" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="292"/>
       <c r="C69" s="43" t="s">
         <v>382</v>
       </c>
@@ -25284,7 +25290,7 @@
       <c r="T69" s="172"/>
     </row>
     <row r="70" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="292"/>
       <c r="C70" s="22" t="s">
         <v>380</v>
       </c>
@@ -25334,7 +25340,7 @@
       <c r="T70" s="172"/>
     </row>
     <row r="71" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="292"/>
       <c r="C71" s="22" t="s">
         <v>381</v>
       </c>
@@ -25384,7 +25390,7 @@
       <c r="T71" s="172"/>
     </row>
     <row r="72" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="292"/>
       <c r="C72" s="22" t="s">
         <v>155</v>
       </c>
@@ -25436,7 +25442,7 @@
       <c r="T72" s="172"/>
     </row>
     <row r="73" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="292"/>
       <c r="C73" s="22" t="s">
         <v>71</v>
       </c>
@@ -25486,7 +25492,7 @@
       <c r="T73" s="172"/>
     </row>
     <row r="74" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="292"/>
       <c r="C74" s="22" t="s">
         <v>226</v>
       </c>
@@ -25536,7 +25542,7 @@
       <c r="T74" s="172"/>
     </row>
     <row r="75" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B75" s="311"/>
+      <c r="B75" s="293"/>
       <c r="C75" s="17" t="s">
         <v>11</v>
       </c>
@@ -25625,14 +25631,14 @@
       <c r="I77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J77" s="284" t="s">
+      <c r="J77" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K77" s="285"/>
-      <c r="L77" s="293" t="s">
+      <c r="K77" s="312"/>
+      <c r="L77" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M77" s="294"/>
+      <c r="M77" s="321"/>
       <c r="N77" s="84" t="s">
         <v>49</v>
       </c>
@@ -25828,55 +25834,55 @@
       <c r="T83" s="244"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B84" s="297" t="s">
+      <c r="B84" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="320" t="s">
+      <c r="D84" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="318" t="s">
+      <c r="E84" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G84" s="318" t="s">
+      <c r="G84" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H84" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="290"/>
+      <c r="I84" s="307"/>
       <c r="J84" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K84" s="290"/>
-      <c r="L84" s="327" t="s">
+      <c r="K84" s="307"/>
+      <c r="L84" s="328" t="s">
         <v>26</v>
       </c>
       <c r="M84" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N84" s="295"/>
-      <c r="O84" s="295"/>
-      <c r="P84" s="295"/>
-      <c r="Q84" s="290"/>
-      <c r="R84" s="297" t="s">
+      <c r="N84" s="290"/>
+      <c r="O84" s="290"/>
+      <c r="P84" s="290"/>
+      <c r="Q84" s="307"/>
+      <c r="R84" s="298" t="s">
         <v>35</v>
       </c>
       <c r="S84" s="58"/>
       <c r="T84" s="241"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B85" s="298"/>
-      <c r="C85" s="324"/>
-      <c r="D85" s="321"/>
-      <c r="E85" s="298"/>
-      <c r="F85" s="319"/>
-      <c r="G85" s="319"/>
+      <c r="B85" s="299"/>
+      <c r="C85" s="314"/>
+      <c r="D85" s="304"/>
+      <c r="E85" s="299"/>
+      <c r="F85" s="306"/>
+      <c r="G85" s="306"/>
       <c r="H85" s="90" t="s">
         <v>8</v>
       </c>
@@ -25889,7 +25895,7 @@
       <c r="K85" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L85" s="328"/>
+      <c r="L85" s="329"/>
       <c r="M85" s="10" t="s">
         <v>22</v>
       </c>
@@ -25905,12 +25911,12 @@
       <c r="Q85" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R85" s="298"/>
+      <c r="R85" s="299"/>
       <c r="S85" s="59"/>
       <c r="T85" s="242"/>
     </row>
     <row r="86" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B86" s="310" t="s">
+      <c r="B86" s="292" t="s">
         <v>140</v>
       </c>
       <c r="C86" s="19" t="s">
@@ -25962,7 +25968,7 @@
       <c r="T86" s="172"/>
     </row>
     <row r="87" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B87" s="310"/>
+      <c r="B87" s="292"/>
       <c r="C87" s="43" t="s">
         <v>103</v>
       </c>
@@ -26012,7 +26018,7 @@
       <c r="T87" s="172"/>
     </row>
     <row r="88" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B88" s="310"/>
+      <c r="B88" s="292"/>
       <c r="C88" s="43" t="s">
         <v>238</v>
       </c>
@@ -26062,7 +26068,7 @@
       <c r="T88" s="172"/>
     </row>
     <row r="89" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B89" s="310"/>
+      <c r="B89" s="292"/>
       <c r="C89" s="43" t="s">
         <v>239</v>
       </c>
@@ -26112,7 +26118,7 @@
       <c r="T89" s="172"/>
     </row>
     <row r="90" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B90" s="310"/>
+      <c r="B90" s="292"/>
       <c r="C90" s="43" t="s">
         <v>64</v>
       </c>
@@ -26164,7 +26170,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B91" s="310"/>
+      <c r="B91" s="292"/>
       <c r="C91" s="43" t="s">
         <v>65</v>
       </c>
@@ -26216,14 +26222,14 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B92" s="310"/>
+      <c r="B92" s="292"/>
       <c r="C92" s="43" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="329" t="s">
+      <c r="E92" s="326" t="s">
         <v>115</v>
       </c>
       <c r="F92" s="24">
@@ -26266,14 +26272,14 @@
       <c r="T92" s="172"/>
     </row>
     <row r="93" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="310"/>
+      <c r="B93" s="292"/>
       <c r="C93" s="147" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="330"/>
+      <c r="E93" s="327"/>
       <c r="F93" s="156">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -26304,7 +26310,7 @@
       <c r="T93" s="172"/>
     </row>
     <row r="94" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B94" s="310"/>
+      <c r="B94" s="292"/>
       <c r="C94" s="19" t="s">
         <v>68</v>
       </c>
@@ -26354,7 +26360,7 @@
       <c r="T94" s="172"/>
     </row>
     <row r="95" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B95" s="310"/>
+      <c r="B95" s="292"/>
       <c r="C95" s="43" t="s">
         <v>357</v>
       </c>
@@ -26406,7 +26412,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B96" s="310"/>
+      <c r="B96" s="292"/>
       <c r="C96" s="43" t="s">
         <v>263</v>
       </c>
@@ -26458,7 +26464,7 @@
       </c>
     </row>
     <row r="97" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B97" s="310"/>
+      <c r="B97" s="292"/>
       <c r="C97" s="43" t="s">
         <v>264</v>
       </c>
@@ -26510,7 +26516,7 @@
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B98" s="310"/>
+      <c r="B98" s="292"/>
       <c r="C98" s="43" t="s">
         <v>345</v>
       </c>
@@ -26562,7 +26568,7 @@
       </c>
     </row>
     <row r="99" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B99" s="310"/>
+      <c r="B99" s="292"/>
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -26614,7 +26620,7 @@
       </c>
     </row>
     <row r="100" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B100" s="310"/>
+      <c r="B100" s="292"/>
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -26666,7 +26672,7 @@
       </c>
     </row>
     <row r="101" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B101" s="310"/>
+      <c r="B101" s="292"/>
       <c r="C101" s="43" t="s">
         <v>313</v>
       </c>
@@ -26716,7 +26722,7 @@
       <c r="T101" s="172"/>
     </row>
     <row r="102" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B102" s="310"/>
+      <c r="B102" s="292"/>
       <c r="C102" s="22" t="s">
         <v>267</v>
       </c>
@@ -26766,7 +26772,7 @@
       <c r="T102" s="172"/>
     </row>
     <row r="103" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B103" s="310"/>
+      <c r="B103" s="292"/>
       <c r="C103" s="43" t="s">
         <v>128</v>
       </c>
@@ -26816,7 +26822,7 @@
       <c r="T103" s="172"/>
     </row>
     <row r="104" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B104" s="310"/>
+      <c r="B104" s="292"/>
       <c r="C104" s="43" t="s">
         <v>74</v>
       </c>
@@ -26866,7 +26872,7 @@
       <c r="T104" s="172"/>
     </row>
     <row r="105" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B105" s="310"/>
+      <c r="B105" s="292"/>
       <c r="C105" s="43" t="s">
         <v>77</v>
       </c>
@@ -26916,7 +26922,7 @@
       <c r="T105" s="172"/>
     </row>
     <row r="106" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B106" s="310"/>
+      <c r="B106" s="292"/>
       <c r="C106" s="43" t="s">
         <v>78</v>
       </c>
@@ -26966,7 +26972,7 @@
       <c r="T106" s="172"/>
     </row>
     <row r="107" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B107" s="310"/>
+      <c r="B107" s="292"/>
       <c r="C107" s="43" t="s">
         <v>79</v>
       </c>
@@ -27016,7 +27022,7 @@
       <c r="T107" s="172"/>
     </row>
     <row r="108" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B108" s="310"/>
+      <c r="B108" s="292"/>
       <c r="C108" s="43" t="s">
         <v>80</v>
       </c>
@@ -27066,7 +27072,7 @@
       <c r="T108" s="172"/>
     </row>
     <row r="109" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B109" s="310"/>
+      <c r="B109" s="292"/>
       <c r="C109" s="43" t="s">
         <v>268</v>
       </c>
@@ -27116,7 +27122,7 @@
       <c r="T109" s="172"/>
     </row>
     <row r="110" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B110" s="310"/>
+      <c r="B110" s="292"/>
       <c r="C110" s="43" t="s">
         <v>269</v>
       </c>
@@ -27166,7 +27172,7 @@
       <c r="T110" s="172"/>
     </row>
     <row r="111" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B111" s="311"/>
+      <c r="B111" s="293"/>
       <c r="C111" s="17" t="s">
         <v>11</v>
       </c>
@@ -27223,7 +27229,7 @@
       <c r="X111" s="109"/>
     </row>
     <row r="112" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B112" s="312" t="s">
+      <c r="B112" s="294" t="s">
         <v>142</v>
       </c>
       <c r="C112" s="19" t="s">
@@ -27275,7 +27281,7 @@
       <c r="T112" s="172"/>
     </row>
     <row r="113" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B113" s="310"/>
+      <c r="B113" s="292"/>
       <c r="C113" s="43" t="s">
         <v>260</v>
       </c>
@@ -27325,7 +27331,7 @@
       <c r="T113" s="172"/>
     </row>
     <row r="114" spans="2:20" ht="16.350000000000001" customHeight="1">
-      <c r="B114" s="310"/>
+      <c r="B114" s="292"/>
       <c r="C114" s="43" t="s">
         <v>70</v>
       </c>
@@ -27375,7 +27381,7 @@
       <c r="T114" s="172"/>
     </row>
     <row r="115" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B115" s="310"/>
+      <c r="B115" s="292"/>
       <c r="C115" s="43" t="s">
         <v>72</v>
       </c>
@@ -27427,7 +27433,7 @@
       </c>
     </row>
     <row r="116" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B116" s="310"/>
+      <c r="B116" s="292"/>
       <c r="C116" s="43" t="s">
         <v>314</v>
       </c>
@@ -27477,7 +27483,7 @@
       <c r="T116" s="172"/>
     </row>
     <row r="117" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B117" s="310"/>
+      <c r="B117" s="292"/>
       <c r="C117" s="147" t="s">
         <v>315</v>
       </c>
@@ -27517,7 +27523,7 @@
       <c r="T117" s="172"/>
     </row>
     <row r="118" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B118" s="310"/>
+      <c r="B118" s="292"/>
       <c r="C118" s="200" t="s">
         <v>73</v>
       </c>
@@ -27569,7 +27575,7 @@
       </c>
     </row>
     <row r="119" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B119" s="310"/>
+      <c r="B119" s="292"/>
       <c r="C119" s="259" t="s">
         <v>346</v>
       </c>
@@ -27621,7 +27627,7 @@
       </c>
     </row>
     <row r="120" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B120" s="310"/>
+      <c r="B120" s="292"/>
       <c r="C120" s="259" t="s">
         <v>347</v>
       </c>
@@ -27673,7 +27679,7 @@
       </c>
     </row>
     <row r="121" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B121" s="310"/>
+      <c r="B121" s="292"/>
       <c r="C121" s="259" t="s">
         <v>348</v>
       </c>
@@ -27725,7 +27731,7 @@
       </c>
     </row>
     <row r="122" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B122" s="310"/>
+      <c r="B122" s="292"/>
       <c r="C122" s="259" t="s">
         <v>349</v>
       </c>
@@ -27777,7 +27783,7 @@
       </c>
     </row>
     <row r="123" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B123" s="310"/>
+      <c r="B123" s="292"/>
       <c r="C123" s="259" t="s">
         <v>104</v>
       </c>
@@ -27829,7 +27835,7 @@
       </c>
     </row>
     <row r="124" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B124" s="310"/>
+      <c r="B124" s="292"/>
       <c r="C124" s="259" t="s">
         <v>101</v>
       </c>
@@ -27881,7 +27887,7 @@
       </c>
     </row>
     <row r="125" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B125" s="310"/>
+      <c r="B125" s="292"/>
       <c r="C125" s="22" t="s">
         <v>316</v>
       </c>
@@ -27931,7 +27937,7 @@
       <c r="T125" s="172"/>
     </row>
     <row r="126" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B126" s="310"/>
+      <c r="B126" s="292"/>
       <c r="C126" s="22" t="s">
         <v>317</v>
       </c>
@@ -27981,7 +27987,7 @@
       <c r="T126" s="172"/>
     </row>
     <row r="127" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B127" s="310"/>
+      <c r="B127" s="292"/>
       <c r="C127" s="43" t="s">
         <v>131</v>
       </c>
@@ -28031,7 +28037,7 @@
       <c r="T127" s="172"/>
     </row>
     <row r="128" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B128" s="310"/>
+      <c r="B128" s="292"/>
       <c r="C128" s="22" t="s">
         <v>122</v>
       </c>
@@ -28081,7 +28087,7 @@
       <c r="T128" s="172"/>
     </row>
     <row r="129" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B129" s="310"/>
+      <c r="B129" s="292"/>
       <c r="C129" s="43" t="s">
         <v>119</v>
       </c>
@@ -28131,7 +28137,7 @@
       <c r="T129" s="172"/>
     </row>
     <row r="130" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B130" s="310"/>
+      <c r="B130" s="292"/>
       <c r="C130" s="43" t="s">
         <v>135</v>
       </c>
@@ -28181,7 +28187,7 @@
       <c r="T130" s="172"/>
     </row>
     <row r="131" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B131" s="310"/>
+      <c r="B131" s="292"/>
       <c r="C131" s="43" t="s">
         <v>148</v>
       </c>
@@ -28231,7 +28237,7 @@
       <c r="T131" s="172"/>
     </row>
     <row r="132" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B132" s="310"/>
+      <c r="B132" s="292"/>
       <c r="C132" s="43" t="s">
         <v>149</v>
       </c>
@@ -28281,7 +28287,7 @@
       <c r="T132" s="172"/>
     </row>
     <row r="133" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B133" s="311"/>
+      <c r="B133" s="293"/>
       <c r="C133" s="17" t="s">
         <v>11</v>
       </c>
@@ -28341,7 +28347,7 @@
       <c r="X133" s="109"/>
     </row>
     <row r="134" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B134" s="307" t="s">
+      <c r="B134" s="280" t="s">
         <v>141</v>
       </c>
       <c r="C134" s="19" t="s">
@@ -28393,7 +28399,7 @@
       <c r="T134" s="172"/>
     </row>
     <row r="135" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B135" s="308"/>
+      <c r="B135" s="281"/>
       <c r="C135" s="43" t="s">
         <v>318</v>
       </c>
@@ -28443,7 +28449,7 @@
       <c r="T135" s="172"/>
     </row>
     <row r="136" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B136" s="308"/>
+      <c r="B136" s="281"/>
       <c r="C136" s="43" t="s">
         <v>319</v>
       </c>
@@ -28493,7 +28499,7 @@
       <c r="T136" s="172"/>
     </row>
     <row r="137" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B137" s="308"/>
+      <c r="B137" s="281"/>
       <c r="C137" s="169" t="s">
         <v>320</v>
       </c>
@@ -28533,7 +28539,7 @@
       <c r="T137" s="172"/>
     </row>
     <row r="138" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B138" s="308"/>
+      <c r="B138" s="281"/>
       <c r="C138" s="43" t="s">
         <v>272</v>
       </c>
@@ -28583,7 +28589,7 @@
       <c r="T138" s="172"/>
     </row>
     <row r="139" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B139" s="308"/>
+      <c r="B139" s="281"/>
       <c r="C139" s="22" t="s">
         <v>273</v>
       </c>
@@ -28633,7 +28639,7 @@
       <c r="T139" s="172"/>
     </row>
     <row r="140" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B140" s="308"/>
+      <c r="B140" s="281"/>
       <c r="C140" s="22" t="s">
         <v>321</v>
       </c>
@@ -28683,7 +28689,7 @@
       <c r="T140" s="172"/>
     </row>
     <row r="141" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B141" s="308"/>
+      <c r="B141" s="281"/>
       <c r="C141" s="22" t="s">
         <v>322</v>
       </c>
@@ -28735,7 +28741,7 @@
       </c>
     </row>
     <row r="142" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B142" s="308"/>
+      <c r="B142" s="281"/>
       <c r="C142" s="22" t="s">
         <v>350</v>
       </c>
@@ -28787,7 +28793,7 @@
       </c>
     </row>
     <row r="143" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B143" s="308"/>
+      <c r="B143" s="281"/>
       <c r="C143" s="22" t="s">
         <v>351</v>
       </c>
@@ -28839,7 +28845,7 @@
       </c>
     </row>
     <row r="144" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B144" s="308"/>
+      <c r="B144" s="281"/>
       <c r="C144" s="22" t="s">
         <v>155</v>
       </c>
@@ -28891,49 +28897,49 @@
       <c r="T144" s="172"/>
     </row>
     <row r="145" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B145" s="308"/>
+      <c r="B145" s="281"/>
       <c r="C145" s="22" t="s">
         <v>365</v>
       </c>
       <c r="D145" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E145" s="315" t="s">
+      <c r="E145" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F145" s="273">
+      <c r="F145" s="271">
         <f t="shared" si="94"/>
         <v>128</v>
       </c>
-      <c r="G145" s="273">
+      <c r="G145" s="271">
         <f t="shared" si="97"/>
         <v>128</v>
       </c>
-      <c r="H145" s="271"/>
-      <c r="I145" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="J145" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="K145" s="271"/>
-      <c r="L145" s="271"/>
-      <c r="M145" s="273">
+      <c r="H145" s="269"/>
+      <c r="I145" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="J145" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="K145" s="269"/>
+      <c r="L145" s="269"/>
+      <c r="M145" s="271">
         <v>8</v>
       </c>
-      <c r="N145" s="273">
+      <c r="N145" s="271">
         <v>8</v>
       </c>
-      <c r="O145" s="273">
-        <v>0</v>
-      </c>
-      <c r="P145" s="273">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="273">
-        <v>0</v>
-      </c>
-      <c r="R145" s="273">
+      <c r="O145" s="271">
+        <v>0</v>
+      </c>
+      <c r="P145" s="271">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="271">
+        <v>0</v>
+      </c>
+      <c r="R145" s="271">
         <f>F145/$F$2</f>
         <v>8</v>
       </c>
@@ -28943,76 +28949,76 @@
       </c>
     </row>
     <row r="146" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B146" s="308"/>
+      <c r="B146" s="281"/>
       <c r="C146" s="22" t="s">
         <v>326</v>
       </c>
       <c r="D146" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E146" s="316"/>
-      <c r="F146" s="300"/>
-      <c r="G146" s="300"/>
-      <c r="H146" s="272"/>
-      <c r="I146" s="272"/>
-      <c r="J146" s="272"/>
-      <c r="K146" s="272"/>
-      <c r="L146" s="272"/>
-      <c r="M146" s="300"/>
-      <c r="N146" s="300"/>
-      <c r="O146" s="300"/>
-      <c r="P146" s="300"/>
-      <c r="Q146" s="300"/>
-      <c r="R146" s="288"/>
+      <c r="E146" s="295"/>
+      <c r="F146" s="285"/>
+      <c r="G146" s="285"/>
+      <c r="H146" s="288"/>
+      <c r="I146" s="288"/>
+      <c r="J146" s="288"/>
+      <c r="K146" s="288"/>
+      <c r="L146" s="288"/>
+      <c r="M146" s="285"/>
+      <c r="N146" s="285"/>
+      <c r="O146" s="285"/>
+      <c r="P146" s="285"/>
+      <c r="Q146" s="285"/>
+      <c r="R146" s="287"/>
       <c r="S146" s="47"/>
       <c r="T146" s="172" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="147" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B147" s="308"/>
+      <c r="B147" s="281"/>
       <c r="C147" s="22" t="s">
         <v>366</v>
       </c>
       <c r="D147" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E147" s="315" t="s">
+      <c r="E147" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="F147" s="273">
+      <c r="F147" s="271">
         <f t="shared" ref="F147" si="104">SUM(M147:Q147)*$F$1</f>
         <v>192</v>
       </c>
-      <c r="G147" s="273">
+      <c r="G147" s="271">
         <f t="shared" ref="G147" si="105">F147</f>
         <v>192</v>
       </c>
-      <c r="H147" s="271"/>
-      <c r="I147" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="J147" s="271"/>
-      <c r="K147" s="271" t="s">
-        <v>1</v>
-      </c>
-      <c r="L147" s="271"/>
-      <c r="M147" s="273">
-        <v>0</v>
-      </c>
-      <c r="N147" s="273">
-        <v>0</v>
-      </c>
-      <c r="O147" s="273">
+      <c r="H147" s="269"/>
+      <c r="I147" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147" s="269"/>
+      <c r="K147" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="L147" s="269"/>
+      <c r="M147" s="271">
+        <v>0</v>
+      </c>
+      <c r="N147" s="271">
+        <v>0</v>
+      </c>
+      <c r="O147" s="271">
         <v>12</v>
       </c>
-      <c r="P147" s="273">
+      <c r="P147" s="271">
         <v>12</v>
       </c>
-      <c r="Q147" s="273">
-        <v>0</v>
-      </c>
-      <c r="R147" s="304">
+      <c r="Q147" s="271">
+        <v>0</v>
+      </c>
+      <c r="R147" s="284">
         <f>F147/$F$2/3*2</f>
         <v>8</v>
       </c>
@@ -29022,34 +29028,34 @@
       </c>
     </row>
     <row r="148" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B148" s="308"/>
+      <c r="B148" s="281"/>
       <c r="C148" s="22" t="s">
         <v>327</v>
       </c>
       <c r="D148" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E148" s="316"/>
-      <c r="F148" s="300"/>
-      <c r="G148" s="300"/>
-      <c r="H148" s="272"/>
-      <c r="I148" s="272"/>
-      <c r="J148" s="272"/>
-      <c r="K148" s="325"/>
-      <c r="L148" s="272"/>
-      <c r="M148" s="300"/>
-      <c r="N148" s="300"/>
-      <c r="O148" s="300"/>
-      <c r="P148" s="300"/>
-      <c r="Q148" s="300"/>
-      <c r="R148" s="326"/>
+      <c r="E148" s="295"/>
+      <c r="F148" s="285"/>
+      <c r="G148" s="285"/>
+      <c r="H148" s="288"/>
+      <c r="I148" s="288"/>
+      <c r="J148" s="288"/>
+      <c r="K148" s="296"/>
+      <c r="L148" s="288"/>
+      <c r="M148" s="285"/>
+      <c r="N148" s="285"/>
+      <c r="O148" s="285"/>
+      <c r="P148" s="285"/>
+      <c r="Q148" s="285"/>
+      <c r="R148" s="330"/>
       <c r="S148" s="47"/>
       <c r="T148" s="172" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="149" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B149" s="309"/>
+      <c r="B149" s="282"/>
       <c r="C149" s="33" t="s">
         <v>11</v>
       </c>
@@ -29139,14 +29145,14 @@
       <c r="I151" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J151" s="284" t="s">
+      <c r="J151" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K151" s="285"/>
-      <c r="L151" s="293" t="s">
+      <c r="K151" s="312"/>
+      <c r="L151" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M151" s="294"/>
+      <c r="M151" s="321"/>
       <c r="N151" s="84" t="s">
         <v>49</v>
       </c>
@@ -29312,32 +29318,38 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="M34:Q34"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="B7:B26"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="R147:R148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="R145:R146"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="O147:O148"/>
+    <mergeCell ref="Q147:Q148"/>
+    <mergeCell ref="P147:P148"/>
+    <mergeCell ref="B134:B149"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:Q84"/>
+    <mergeCell ref="B112:B133"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
     <mergeCell ref="R34:R35"/>
     <mergeCell ref="B36:B61"/>
     <mergeCell ref="B62:B75"/>
@@ -29354,38 +29366,32 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B134:B149"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:Q84"/>
-    <mergeCell ref="B112:B133"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="R147:R148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="R145:R146"/>
-    <mergeCell ref="P145:P146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="N147:N148"/>
-    <mergeCell ref="O147:O148"/>
-    <mergeCell ref="Q147:Q148"/>
-    <mergeCell ref="P147:P148"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="B7:B26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="M34:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -29479,53 +29485,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="320" t="s">
+      <c r="D6" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="318" t="s">
+      <c r="E6" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="290"/>
+      <c r="I6" s="307"/>
       <c r="J6" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="290"/>
-      <c r="L6" s="327" t="s">
+      <c r="K6" s="307"/>
+      <c r="L6" s="328" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="295"/>
-      <c r="O6" s="295"/>
-      <c r="P6" s="295"/>
-      <c r="Q6" s="290"/>
-      <c r="R6" s="297" t="s">
+      <c r="N6" s="290"/>
+      <c r="O6" s="290"/>
+      <c r="P6" s="290"/>
+      <c r="Q6" s="307"/>
+      <c r="R6" s="298" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="298"/>
+      <c r="B7" s="299"/>
       <c r="C7" s="332"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
       <c r="H7" s="90" t="s">
         <v>8</v>
       </c>
@@ -29538,7 +29544,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="328"/>
+      <c r="L7" s="329"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -29554,10 +29560,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="298"/>
+      <c r="R7" s="299"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="292" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -29607,7 +29613,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="292"/>
       <c r="C9" s="43" t="s">
         <v>328</v>
       </c>
@@ -29655,7 +29661,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="292"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -29703,7 +29709,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="292"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -29751,7 +29757,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="292"/>
       <c r="C12" s="43" t="s">
         <v>329</v>
       </c>
@@ -29799,7 +29805,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="292"/>
       <c r="C13" s="43" t="s">
         <v>330</v>
       </c>
@@ -29847,7 +29853,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -29895,7 +29901,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="292"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -29943,7 +29949,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="19" t="s">
         <v>296</v>
       </c>
@@ -29991,7 +29997,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="292"/>
       <c r="C17" s="43" t="s">
         <v>297</v>
       </c>
@@ -30039,7 +30045,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -30087,7 +30093,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -30135,7 +30141,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -30183,7 +30189,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="292"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -30231,7 +30237,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -30279,7 +30285,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="292"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -30327,7 +30333,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="311"/>
+      <c r="B24" s="293"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -30382,7 +30388,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="294" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -30432,7 +30438,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="310"/>
+      <c r="B26" s="292"/>
       <c r="C26" s="43" t="s">
         <v>331</v>
       </c>
@@ -30480,7 +30486,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="310"/>
+      <c r="B27" s="292"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -30528,7 +30534,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="310"/>
+      <c r="B28" s="292"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -30576,7 +30582,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="310"/>
+      <c r="B29" s="292"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -30624,7 +30630,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="310"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="43" t="s">
         <v>332</v>
       </c>
@@ -30672,7 +30678,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="310"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -30720,7 +30726,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="310"/>
+      <c r="B32" s="292"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -30768,7 +30774,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="310"/>
+      <c r="B33" s="292"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -30816,7 +30822,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="310"/>
+      <c r="B34" s="292"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -30864,7 +30870,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="310"/>
+      <c r="B35" s="292"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -30912,7 +30918,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="310"/>
+      <c r="B36" s="292"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -30960,7 +30966,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="292"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -31008,7 +31014,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="292"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -31056,7 +31062,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="292"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -31104,7 +31110,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="311"/>
+      <c r="B40" s="293"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -31187,14 +31193,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="284" t="s">
+      <c r="J42" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="285"/>
-      <c r="L42" s="293" t="s">
+      <c r="K42" s="312"/>
+      <c r="L42" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="294"/>
+      <c r="M42" s="321"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -31339,53 +31345,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="297" t="s">
+      <c r="B49" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="320" t="s">
+      <c r="D49" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="318" t="s">
+      <c r="E49" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="318" t="s">
+      <c r="G49" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="290"/>
+      <c r="I49" s="307"/>
       <c r="J49" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="290"/>
-      <c r="L49" s="327" t="s">
+      <c r="K49" s="307"/>
+      <c r="L49" s="328" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="295"/>
-      <c r="O49" s="295"/>
-      <c r="P49" s="295"/>
-      <c r="Q49" s="290"/>
-      <c r="R49" s="297" t="s">
+      <c r="N49" s="290"/>
+      <c r="O49" s="290"/>
+      <c r="P49" s="290"/>
+      <c r="Q49" s="307"/>
+      <c r="R49" s="298" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="298"/>
+      <c r="B50" s="299"/>
       <c r="C50" s="332"/>
-      <c r="D50" s="321"/>
-      <c r="E50" s="298"/>
-      <c r="F50" s="319"/>
-      <c r="G50" s="319"/>
+      <c r="D50" s="304"/>
+      <c r="E50" s="299"/>
+      <c r="F50" s="306"/>
+      <c r="G50" s="306"/>
       <c r="H50" s="90" t="s">
         <v>8</v>
       </c>
@@ -31398,7 +31404,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="328"/>
+      <c r="L50" s="329"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -31414,10 +31420,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="298"/>
+      <c r="R50" s="299"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="292" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -31467,7 +31473,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="292"/>
       <c r="C52" s="43" t="s">
         <v>328</v>
       </c>
@@ -31515,7 +31521,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="310"/>
+      <c r="B53" s="292"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -31563,7 +31569,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="310"/>
+      <c r="B54" s="292"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -31611,7 +31617,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="310"/>
+      <c r="B55" s="292"/>
       <c r="C55" s="43" t="s">
         <v>375</v>
       </c>
@@ -31659,7 +31665,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="310"/>
+      <c r="B56" s="292"/>
       <c r="C56" s="43" t="s">
         <v>330</v>
       </c>
@@ -31707,7 +31713,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="310"/>
+      <c r="B57" s="292"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -31755,7 +31761,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="310"/>
+      <c r="B58" s="292"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -31803,7 +31809,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="310"/>
+      <c r="B59" s="292"/>
       <c r="C59" s="19" t="s">
         <v>296</v>
       </c>
@@ -31851,7 +31857,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="310"/>
+      <c r="B60" s="292"/>
       <c r="C60" s="43" t="s">
         <v>297</v>
       </c>
@@ -31899,7 +31905,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="310"/>
+      <c r="B61" s="292"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -31947,7 +31953,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="310"/>
+      <c r="B62" s="292"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -31995,7 +32001,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="310"/>
+      <c r="B63" s="292"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -32043,7 +32049,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="310"/>
+      <c r="B64" s="292"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -32091,7 +32097,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="310"/>
+      <c r="B65" s="292"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -32139,7 +32145,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="310"/>
+      <c r="B66" s="292"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -32187,7 +32193,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="311"/>
+      <c r="B67" s="293"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -32242,7 +32248,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="294" t="s">
         <v>40</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -32292,7 +32298,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="292"/>
       <c r="C69" s="43" t="s">
         <v>331</v>
       </c>
@@ -32340,7 +32346,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="292"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -32388,7 +32394,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="292"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -32436,7 +32442,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="292"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -32484,7 +32490,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="292"/>
       <c r="C73" s="43" t="s">
         <v>332</v>
       </c>
@@ -32532,7 +32538,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="292"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -32580,7 +32586,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="310"/>
+      <c r="B75" s="292"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -32628,7 +32634,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="310"/>
+      <c r="B76" s="292"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -32676,7 +32682,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="310"/>
+      <c r="B77" s="292"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -32724,7 +32730,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="310"/>
+      <c r="B78" s="292"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -32772,7 +32778,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="310"/>
+      <c r="B79" s="292"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -32820,7 +32826,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="310"/>
+      <c r="B80" s="292"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -32868,7 +32874,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="310"/>
+      <c r="B81" s="292"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -32916,7 +32922,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="310"/>
+      <c r="B82" s="292"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -32965,7 +32971,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="311"/>
+      <c r="B83" s="293"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -33020,7 +33026,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="307" t="s">
+      <c r="B84" s="280" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -33070,7 +33076,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="308"/>
+      <c r="B85" s="281"/>
       <c r="C85" s="43" t="s">
         <v>333</v>
       </c>
@@ -33118,7 +33124,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="308"/>
+      <c r="B86" s="281"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -33166,7 +33172,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="308"/>
+      <c r="B87" s="281"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -33214,7 +33220,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="308"/>
+      <c r="B88" s="281"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -33262,7 +33268,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="308"/>
+      <c r="B89" s="281"/>
       <c r="C89" s="19" t="s">
         <v>334</v>
       </c>
@@ -33310,7 +33316,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="308"/>
+      <c r="B90" s="281"/>
       <c r="C90" s="43" t="s">
         <v>335</v>
       </c>
@@ -33358,7 +33364,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="308"/>
+      <c r="B91" s="281"/>
       <c r="C91" s="22" t="s">
         <v>124</v>
       </c>
@@ -33406,7 +33412,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="308"/>
+      <c r="B92" s="281"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -33454,7 +33460,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="308"/>
+      <c r="B93" s="281"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -33503,7 +33509,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="309"/>
+      <c r="B94" s="282"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -33586,14 +33592,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="284" t="s">
+      <c r="J96" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="285"/>
-      <c r="L96" s="293" t="s">
+      <c r="K96" s="312"/>
+      <c r="L96" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="294"/>
+      <c r="M96" s="321"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -33746,6 +33752,26 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:Q49"/>
     <mergeCell ref="R49:R50"/>
     <mergeCell ref="B51:B67"/>
     <mergeCell ref="B68:B83"/>
@@ -33757,26 +33783,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D49:D50"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B84:B94"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B8:B24"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -33796,7 +33802,7 @@
   </sheetPr>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
@@ -33869,53 +33875,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="297" t="s">
+      <c r="B6" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="320" t="s">
+      <c r="D6" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="318" t="s">
+      <c r="E6" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="290"/>
+      <c r="I6" s="307"/>
       <c r="J6" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="290"/>
-      <c r="L6" s="327" t="s">
+      <c r="K6" s="307"/>
+      <c r="L6" s="328" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="295"/>
-      <c r="O6" s="295"/>
-      <c r="P6" s="295"/>
-      <c r="Q6" s="290"/>
-      <c r="R6" s="297" t="s">
+      <c r="N6" s="290"/>
+      <c r="O6" s="290"/>
+      <c r="P6" s="290"/>
+      <c r="Q6" s="307"/>
+      <c r="R6" s="298" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="298"/>
-      <c r="C7" s="324"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="314"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
       <c r="H7" s="171" t="s">
         <v>8</v>
       </c>
@@ -33928,7 +33934,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="328"/>
+      <c r="L7" s="329"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -33944,10 +33950,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="298"/>
+      <c r="R7" s="299"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="310" t="s">
+      <c r="B8" s="292" t="s">
         <v>145</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -33997,7 +34003,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="310"/>
+      <c r="B9" s="292"/>
       <c r="C9" s="43" t="s">
         <v>328</v>
       </c>
@@ -34045,7 +34051,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="310"/>
+      <c r="B10" s="292"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -34093,7 +34099,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="310"/>
+      <c r="B11" s="292"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -34141,7 +34147,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="310"/>
+      <c r="B12" s="292"/>
       <c r="C12" s="43" t="s">
         <v>329</v>
       </c>
@@ -34189,7 +34195,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="310"/>
+      <c r="B13" s="292"/>
       <c r="C13" s="43" t="s">
         <v>330</v>
       </c>
@@ -34237,7 +34243,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="310"/>
+      <c r="B14" s="292"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -34285,7 +34291,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="310"/>
+      <c r="B15" s="292"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -34333,7 +34339,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="310"/>
+      <c r="B16" s="292"/>
       <c r="C16" s="19" t="s">
         <v>296</v>
       </c>
@@ -34381,7 +34387,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="310"/>
+      <c r="B17" s="292"/>
       <c r="C17" s="43" t="s">
         <v>297</v>
       </c>
@@ -34429,7 +34435,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="310"/>
+      <c r="B18" s="292"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -34477,7 +34483,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="310"/>
+      <c r="B19" s="292"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -34525,7 +34531,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="310"/>
+      <c r="B20" s="292"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -34573,7 +34579,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="310"/>
+      <c r="B21" s="292"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -34621,7 +34627,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="310"/>
+      <c r="B22" s="292"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -34669,7 +34675,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="310"/>
+      <c r="B23" s="292"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -34717,7 +34723,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="311"/>
+      <c r="B24" s="293"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -34772,7 +34778,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="312" t="s">
+      <c r="B25" s="294" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -34822,7 +34828,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="310"/>
+      <c r="B26" s="292"/>
       <c r="C26" s="43" t="s">
         <v>331</v>
       </c>
@@ -34870,7 +34876,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="310"/>
+      <c r="B27" s="292"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -34918,7 +34924,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="310"/>
+      <c r="B28" s="292"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -34966,7 +34972,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="310"/>
+      <c r="B29" s="292"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -35014,7 +35020,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="310"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="43" t="s">
         <v>332</v>
       </c>
@@ -35062,7 +35068,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="310"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -35110,7 +35116,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="310"/>
+      <c r="B32" s="292"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -35158,7 +35164,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="310"/>
+      <c r="B33" s="292"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -35206,7 +35212,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="310"/>
+      <c r="B34" s="292"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -35254,7 +35260,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="310"/>
+      <c r="B35" s="292"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -35302,7 +35308,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="310"/>
+      <c r="B36" s="292"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -35350,7 +35356,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="310"/>
+      <c r="B37" s="292"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -35398,7 +35404,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="310"/>
+      <c r="B38" s="292"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -35446,7 +35452,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="310"/>
+      <c r="B39" s="292"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -35494,7 +35500,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="311"/>
+      <c r="B40" s="293"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -35577,14 +35583,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="284" t="s">
+      <c r="J42" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="285"/>
-      <c r="L42" s="293" t="s">
+      <c r="K42" s="312"/>
+      <c r="L42" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="294"/>
+      <c r="M42" s="321"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -35726,53 +35732,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="297" t="s">
+      <c r="B49" s="298" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="320" t="s">
+      <c r="D49" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="297" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="318" t="s">
+      <c r="E49" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="318" t="s">
+      <c r="G49" s="305" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="290"/>
+      <c r="I49" s="307"/>
       <c r="J49" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="290"/>
-      <c r="L49" s="327" t="s">
+      <c r="K49" s="307"/>
+      <c r="L49" s="328" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="295"/>
-      <c r="O49" s="295"/>
-      <c r="P49" s="295"/>
-      <c r="Q49" s="290"/>
-      <c r="R49" s="297" t="s">
+      <c r="N49" s="290"/>
+      <c r="O49" s="290"/>
+      <c r="P49" s="290"/>
+      <c r="Q49" s="307"/>
+      <c r="R49" s="298" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="298"/>
+      <c r="B50" s="299"/>
       <c r="C50" s="332"/>
-      <c r="D50" s="321"/>
-      <c r="E50" s="298"/>
-      <c r="F50" s="319"/>
-      <c r="G50" s="319"/>
+      <c r="D50" s="304"/>
+      <c r="E50" s="299"/>
+      <c r="F50" s="306"/>
+      <c r="G50" s="306"/>
       <c r="H50" s="171" t="s">
         <v>8</v>
       </c>
@@ -35785,7 +35791,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="328"/>
+      <c r="L50" s="329"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -35801,10 +35807,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="298"/>
+      <c r="R50" s="299"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="310" t="s">
+      <c r="B51" s="292" t="s">
         <v>140</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -35854,7 +35860,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="310"/>
+      <c r="B52" s="292"/>
       <c r="C52" s="43" t="s">
         <v>328</v>
       </c>
@@ -35902,7 +35908,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="310"/>
+      <c r="B53" s="292"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -35950,7 +35956,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="310"/>
+      <c r="B54" s="292"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -35998,7 +36004,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="310"/>
+      <c r="B55" s="292"/>
       <c r="C55" s="43" t="s">
         <v>329</v>
       </c>
@@ -36046,7 +36052,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="310"/>
+      <c r="B56" s="292"/>
       <c r="C56" s="43" t="s">
         <v>330</v>
       </c>
@@ -36094,7 +36100,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="310"/>
+      <c r="B57" s="292"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -36142,7 +36148,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="310"/>
+      <c r="B58" s="292"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -36190,7 +36196,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="310"/>
+      <c r="B59" s="292"/>
       <c r="C59" s="19" t="s">
         <v>296</v>
       </c>
@@ -36238,7 +36244,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="310"/>
+      <c r="B60" s="292"/>
       <c r="C60" s="43" t="s">
         <v>297</v>
       </c>
@@ -36286,7 +36292,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="310"/>
+      <c r="B61" s="292"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -36334,7 +36340,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="310"/>
+      <c r="B62" s="292"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -36382,7 +36388,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="310"/>
+      <c r="B63" s="292"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -36430,7 +36436,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="310"/>
+      <c r="B64" s="292"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -36478,7 +36484,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="310"/>
+      <c r="B65" s="292"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -36526,7 +36532,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="310"/>
+      <c r="B66" s="292"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -36574,7 +36580,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="311"/>
+      <c r="B67" s="293"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -36629,7 +36635,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="312" t="s">
+      <c r="B68" s="294" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -36679,7 +36685,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="310"/>
+      <c r="B69" s="292"/>
       <c r="C69" s="43" t="s">
         <v>331</v>
       </c>
@@ -36727,7 +36733,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="310"/>
+      <c r="B70" s="292"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -36775,7 +36781,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="310"/>
+      <c r="B71" s="292"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -36823,7 +36829,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="310"/>
+      <c r="B72" s="292"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -36871,7 +36877,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="310"/>
+      <c r="B73" s="292"/>
       <c r="C73" s="43" t="s">
         <v>332</v>
       </c>
@@ -36919,7 +36925,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="310"/>
+      <c r="B74" s="292"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -36967,7 +36973,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="310"/>
+      <c r="B75" s="292"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -37015,7 +37021,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="310"/>
+      <c r="B76" s="292"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -37063,7 +37069,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="310"/>
+      <c r="B77" s="292"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -37114,7 +37120,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="310"/>
+      <c r="B78" s="292"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -37162,7 +37168,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="310"/>
+      <c r="B79" s="292"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -37210,7 +37216,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="310"/>
+      <c r="B80" s="292"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -37258,7 +37264,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="310"/>
+      <c r="B81" s="292"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -37306,7 +37312,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="310"/>
+      <c r="B82" s="292"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -37355,7 +37361,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="311"/>
+      <c r="B83" s="293"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -37410,7 +37416,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="307" t="s">
+      <c r="B84" s="280" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -37460,7 +37466,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="308"/>
+      <c r="B85" s="281"/>
       <c r="C85" s="43" t="s">
         <v>333</v>
       </c>
@@ -37508,7 +37514,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="308"/>
+      <c r="B86" s="281"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -37556,7 +37562,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="308"/>
+      <c r="B87" s="281"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -37604,7 +37610,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="308"/>
+      <c r="B88" s="281"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -37652,7 +37658,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="308"/>
+      <c r="B89" s="281"/>
       <c r="C89" s="19" t="s">
         <v>334</v>
       </c>
@@ -37700,7 +37706,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="308"/>
+      <c r="B90" s="281"/>
       <c r="C90" s="43" t="s">
         <v>336</v>
       </c>
@@ -37748,7 +37754,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="308"/>
+      <c r="B91" s="281"/>
       <c r="C91" s="22" t="s">
         <v>132</v>
       </c>
@@ -37796,7 +37802,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="308"/>
+      <c r="B92" s="281"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -37844,7 +37850,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="308"/>
+      <c r="B93" s="281"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -37893,7 +37899,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="309"/>
+      <c r="B94" s="282"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -37976,14 +37982,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="284" t="s">
+      <c r="J96" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="285"/>
-      <c r="L96" s="293" t="s">
+      <c r="K96" s="312"/>
+      <c r="L96" s="320" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="294"/>
+      <c r="M96" s="321"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -38136,17 +38142,12 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="B51:B67"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B94"/>
     <mergeCell ref="B8:B24"/>
     <mergeCell ref="B25:B40"/>
     <mergeCell ref="J42:K42"/>
@@ -38161,12 +38162,17 @@
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="B51:B67"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>

--- a/2.コンピュータ教育学院_2021カリキュラム_0302.xlsx
+++ b/2.コンピュータ教育学院_2021カリキュラム_0302.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.110.240\share\教務構成管理\02_Doc\88_2021年度計画\01_年間指導計画\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckg05\Desktop\work\sylubus2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4639,31 +4639,25 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4671,6 +4665,93 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4681,33 +4762,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -4717,29 +4771,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -4747,74 +4798,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4822,8 +4819,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5293,13 +5293,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B4:T131" totalsRowShown="0" tableBorderDxfId="18">
-  <autoFilter ref="B4:T131">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Excel VBA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:T131"/>
   <tableColumns count="19">
     <tableColumn id="1" name="列1" dataDxfId="17"/>
     <tableColumn id="2" name="列2" dataDxfId="16"/>
@@ -5622,7 +5616,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5787,7 +5781,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1">
+    <row r="5" spans="1:20">
       <c r="B5" s="266">
         <v>1</v>
       </c>
@@ -5841,7 +5835,7 @@
       </c>
       <c r="T5" s="209"/>
     </row>
-    <row r="6" spans="1:20" hidden="1">
+    <row r="6" spans="1:20">
       <c r="B6" s="266">
         <v>2</v>
       </c>
@@ -5895,7 +5889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1">
+    <row r="7" spans="1:20">
       <c r="B7" s="266">
         <v>3</v>
       </c>
@@ -5947,7 +5941,7 @@
       <c r="S7" s="209"/>
       <c r="T7" s="209"/>
     </row>
-    <row r="8" spans="1:20" hidden="1">
+    <row r="8" spans="1:20">
       <c r="B8" s="266">
         <v>4</v>
       </c>
@@ -5999,7 +5993,7 @@
       <c r="S8" s="209"/>
       <c r="T8" s="209"/>
     </row>
-    <row r="9" spans="1:20" hidden="1">
+    <row r="9" spans="1:20">
       <c r="B9" s="266">
         <v>5</v>
       </c>
@@ -6051,7 +6045,7 @@
       <c r="S9" s="209"/>
       <c r="T9" s="209"/>
     </row>
-    <row r="10" spans="1:20" hidden="1">
+    <row r="10" spans="1:20">
       <c r="B10" s="266">
         <v>6</v>
       </c>
@@ -6103,7 +6097,7 @@
       <c r="S10" s="209"/>
       <c r="T10" s="209"/>
     </row>
-    <row r="11" spans="1:20" hidden="1">
+    <row r="11" spans="1:20">
       <c r="B11" s="266">
         <v>7</v>
       </c>
@@ -6155,7 +6149,7 @@
       <c r="S11" s="209"/>
       <c r="T11" s="209"/>
     </row>
-    <row r="12" spans="1:20" hidden="1">
+    <row r="12" spans="1:20">
       <c r="B12" s="266">
         <v>8</v>
       </c>
@@ -6207,7 +6201,7 @@
       <c r="S12" s="209"/>
       <c r="T12" s="209"/>
     </row>
-    <row r="13" spans="1:20" hidden="1">
+    <row r="13" spans="1:20">
       <c r="B13" s="266">
         <v>9</v>
       </c>
@@ -6259,7 +6253,7 @@
       <c r="S13" s="209"/>
       <c r="T13" s="209"/>
     </row>
-    <row r="14" spans="1:20" s="207" customFormat="1" hidden="1">
+    <row r="14" spans="1:20" s="207" customFormat="1">
       <c r="B14" s="266">
         <v>10</v>
       </c>
@@ -6312,7 +6306,7 @@
       <c r="S14" s="209"/>
       <c r="T14" s="209"/>
     </row>
-    <row r="15" spans="1:20" s="207" customFormat="1" hidden="1">
+    <row r="15" spans="1:20" s="207" customFormat="1">
       <c r="B15" s="266">
         <v>11</v>
       </c>
@@ -6364,7 +6358,7 @@
       <c r="S15" s="209"/>
       <c r="T15" s="209"/>
     </row>
-    <row r="16" spans="1:20" s="207" customFormat="1" hidden="1">
+    <row r="16" spans="1:20" s="207" customFormat="1">
       <c r="B16" s="266">
         <v>12</v>
       </c>
@@ -6416,7 +6410,7 @@
       <c r="S16" s="209"/>
       <c r="T16" s="209"/>
     </row>
-    <row r="17" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="17" spans="2:20" s="207" customFormat="1">
       <c r="B17" s="266">
         <v>13</v>
       </c>
@@ -6468,7 +6462,7 @@
       <c r="S17" s="209"/>
       <c r="T17" s="209"/>
     </row>
-    <row r="18" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="18" spans="2:20" s="207" customFormat="1">
       <c r="B18" s="266">
         <v>14</v>
       </c>
@@ -6520,7 +6514,7 @@
       <c r="S18" s="209"/>
       <c r="T18" s="209"/>
     </row>
-    <row r="19" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="19" spans="2:20" s="207" customFormat="1">
       <c r="B19" s="266">
         <v>15</v>
       </c>
@@ -6572,7 +6566,7 @@
       <c r="S19" s="209"/>
       <c r="T19" s="209"/>
     </row>
-    <row r="20" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="20" spans="2:20" s="207" customFormat="1">
       <c r="B20" s="266">
         <v>16</v>
       </c>
@@ -6624,7 +6618,7 @@
       <c r="S20" s="209"/>
       <c r="T20" s="209"/>
     </row>
-    <row r="21" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="21" spans="2:20" s="207" customFormat="1">
       <c r="B21" s="266">
         <v>17</v>
       </c>
@@ -6676,7 +6670,7 @@
       <c r="S21" s="209"/>
       <c r="T21" s="209"/>
     </row>
-    <row r="22" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="22" spans="2:20" s="207" customFormat="1">
       <c r="B22" s="266">
         <v>18</v>
       </c>
@@ -6728,7 +6722,7 @@
       <c r="S22" s="209"/>
       <c r="T22" s="209"/>
     </row>
-    <row r="23" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="23" spans="2:20" s="207" customFormat="1">
       <c r="B23" s="266">
         <v>19</v>
       </c>
@@ -6780,7 +6774,7 @@
       <c r="S23" s="209"/>
       <c r="T23" s="209"/>
     </row>
-    <row r="24" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="24" spans="2:20" s="207" customFormat="1">
       <c r="B24" s="266">
         <v>20</v>
       </c>
@@ -6832,7 +6826,7 @@
       <c r="S24" s="209"/>
       <c r="T24" s="209"/>
     </row>
-    <row r="25" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="25" spans="2:20" s="207" customFormat="1">
       <c r="B25" s="266">
         <v>21</v>
       </c>
@@ -6884,7 +6878,7 @@
       <c r="S25" s="209"/>
       <c r="T25" s="209"/>
     </row>
-    <row r="26" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="26" spans="2:20" s="207" customFormat="1">
       <c r="B26" s="266">
         <v>22</v>
       </c>
@@ -6936,7 +6930,7 @@
       <c r="S26" s="209"/>
       <c r="T26" s="209"/>
     </row>
-    <row r="27" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="27" spans="2:20" s="207" customFormat="1">
       <c r="B27" s="266">
         <v>23</v>
       </c>
@@ -6988,7 +6982,7 @@
       <c r="S27" s="209"/>
       <c r="T27" s="209"/>
     </row>
-    <row r="28" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="28" spans="2:20" s="207" customFormat="1">
       <c r="B28" s="266">
         <v>24</v>
       </c>
@@ -7040,7 +7034,7 @@
       <c r="S28" s="209"/>
       <c r="T28" s="209"/>
     </row>
-    <row r="29" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="29" spans="2:20" s="207" customFormat="1">
       <c r="B29" s="266">
         <v>25</v>
       </c>
@@ -7092,7 +7086,7 @@
       <c r="S29" s="209"/>
       <c r="T29" s="209"/>
     </row>
-    <row r="30" spans="2:20" s="207" customFormat="1" hidden="1">
+    <row r="30" spans="2:20" s="207" customFormat="1">
       <c r="B30" s="266">
         <v>26</v>
       </c>
@@ -7144,7 +7138,7 @@
       <c r="S30" s="209"/>
       <c r="T30" s="209"/>
     </row>
-    <row r="31" spans="2:20" hidden="1">
+    <row r="31" spans="2:20">
       <c r="B31" s="266">
         <v>27</v>
       </c>
@@ -7197,7 +7191,7 @@
       <c r="S31" s="209"/>
       <c r="T31" s="209"/>
     </row>
-    <row r="32" spans="2:20" hidden="1">
+    <row r="32" spans="2:20">
       <c r="B32" s="266">
         <v>28</v>
       </c>
@@ -7251,7 +7245,7 @@
       </c>
       <c r="T32" s="209"/>
     </row>
-    <row r="33" spans="2:20" hidden="1">
+    <row r="33" spans="2:20">
       <c r="B33" s="266">
         <v>29</v>
       </c>
@@ -7303,7 +7297,7 @@
       <c r="S33" s="209"/>
       <c r="T33" s="209"/>
     </row>
-    <row r="34" spans="2:20" hidden="1">
+    <row r="34" spans="2:20">
       <c r="B34" s="266">
         <v>30</v>
       </c>
@@ -7355,7 +7349,7 @@
       <c r="S34" s="209"/>
       <c r="T34" s="209"/>
     </row>
-    <row r="35" spans="2:20" hidden="1">
+    <row r="35" spans="2:20">
       <c r="B35" s="266">
         <v>31</v>
       </c>
@@ -7407,7 +7401,7 @@
       <c r="S35" s="209"/>
       <c r="T35" s="209"/>
     </row>
-    <row r="36" spans="2:20" hidden="1">
+    <row r="36" spans="2:20">
       <c r="B36" s="266">
         <v>32</v>
       </c>
@@ -7461,7 +7455,7 @@
       </c>
       <c r="T36" s="209"/>
     </row>
-    <row r="37" spans="2:20" hidden="1">
+    <row r="37" spans="2:20">
       <c r="B37" s="266">
         <v>33</v>
       </c>
@@ -7567,7 +7561,7 @@
       <c r="S38" s="209"/>
       <c r="T38" s="209"/>
     </row>
-    <row r="39" spans="2:20" hidden="1">
+    <row r="39" spans="2:20">
       <c r="B39" s="266">
         <v>35</v>
       </c>
@@ -7619,7 +7613,7 @@
       <c r="S39" s="209"/>
       <c r="T39" s="209"/>
     </row>
-    <row r="40" spans="2:20" hidden="1">
+    <row r="40" spans="2:20">
       <c r="B40" s="266">
         <v>36</v>
       </c>
@@ -7671,7 +7665,7 @@
       <c r="S40" s="209"/>
       <c r="T40" s="209"/>
     </row>
-    <row r="41" spans="2:20" hidden="1">
+    <row r="41" spans="2:20">
       <c r="B41" s="266">
         <v>37</v>
       </c>
@@ -7723,7 +7717,7 @@
       <c r="S41" s="209"/>
       <c r="T41" s="209"/>
     </row>
-    <row r="42" spans="2:20" hidden="1">
+    <row r="42" spans="2:20">
       <c r="B42" s="266">
         <v>38</v>
       </c>
@@ -7777,7 +7771,7 @@
       </c>
       <c r="T42" s="209"/>
     </row>
-    <row r="43" spans="2:20" hidden="1">
+    <row r="43" spans="2:20">
       <c r="B43" s="266">
         <v>39</v>
       </c>
@@ -7829,7 +7823,7 @@
       <c r="S43" s="209"/>
       <c r="T43" s="209"/>
     </row>
-    <row r="44" spans="2:20" hidden="1">
+    <row r="44" spans="2:20">
       <c r="B44" s="266">
         <v>40</v>
       </c>
@@ -7883,7 +7877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:20" hidden="1">
+    <row r="45" spans="2:20">
       <c r="B45" s="266">
         <v>41</v>
       </c>
@@ -7935,7 +7929,7 @@
       <c r="S45" s="209"/>
       <c r="T45" s="209"/>
     </row>
-    <row r="46" spans="2:20" hidden="1">
+    <row r="46" spans="2:20">
       <c r="B46" s="266">
         <v>42</v>
       </c>
@@ -7987,7 +7981,7 @@
       <c r="S46" s="209"/>
       <c r="T46" s="209"/>
     </row>
-    <row r="47" spans="2:20" hidden="1">
+    <row r="47" spans="2:20">
       <c r="B47" s="266">
         <v>43</v>
       </c>
@@ -8041,7 +8035,7 @@
       </c>
       <c r="T47" s="209"/>
     </row>
-    <row r="48" spans="2:20" hidden="1">
+    <row r="48" spans="2:20">
       <c r="B48" s="266">
         <v>44</v>
       </c>
@@ -8093,7 +8087,7 @@
       <c r="S48" s="209"/>
       <c r="T48" s="209"/>
     </row>
-    <row r="49" spans="2:20" hidden="1">
+    <row r="49" spans="2:20">
       <c r="B49" s="266">
         <v>45</v>
       </c>
@@ -8145,7 +8139,7 @@
       <c r="S49" s="209"/>
       <c r="T49" s="209"/>
     </row>
-    <row r="50" spans="2:20" hidden="1">
+    <row r="50" spans="2:20">
       <c r="B50" s="266">
         <v>46</v>
       </c>
@@ -8197,7 +8191,7 @@
       <c r="S50" s="209"/>
       <c r="T50" s="209"/>
     </row>
-    <row r="51" spans="2:20" hidden="1">
+    <row r="51" spans="2:20">
       <c r="B51" s="266">
         <v>47</v>
       </c>
@@ -8249,7 +8243,7 @@
       <c r="S51" s="209"/>
       <c r="T51" s="209"/>
     </row>
-    <row r="52" spans="2:20" hidden="1">
+    <row r="52" spans="2:20">
       <c r="B52" s="266">
         <v>48</v>
       </c>
@@ -8301,7 +8295,7 @@
       <c r="S52" s="209"/>
       <c r="T52" s="209"/>
     </row>
-    <row r="53" spans="2:20" hidden="1">
+    <row r="53" spans="2:20">
       <c r="B53" s="266">
         <v>49</v>
       </c>
@@ -8353,7 +8347,7 @@
       <c r="S53" s="209"/>
       <c r="T53" s="209"/>
     </row>
-    <row r="54" spans="2:20" hidden="1">
+    <row r="54" spans="2:20">
       <c r="B54" s="266">
         <v>50</v>
       </c>
@@ -8405,7 +8399,7 @@
       <c r="S54" s="209"/>
       <c r="T54" s="209"/>
     </row>
-    <row r="55" spans="2:20" hidden="1">
+    <row r="55" spans="2:20">
       <c r="B55" s="266">
         <v>51</v>
       </c>
@@ -8457,7 +8451,7 @@
       <c r="S55" s="209"/>
       <c r="T55" s="209"/>
     </row>
-    <row r="56" spans="2:20" hidden="1">
+    <row r="56" spans="2:20">
       <c r="B56" s="266">
         <v>52</v>
       </c>
@@ -8509,7 +8503,7 @@
       <c r="S56" s="209"/>
       <c r="T56" s="209"/>
     </row>
-    <row r="57" spans="2:20" hidden="1">
+    <row r="57" spans="2:20">
       <c r="B57" s="266">
         <v>53</v>
       </c>
@@ -8561,7 +8555,7 @@
       <c r="S57" s="209"/>
       <c r="T57" s="209"/>
     </row>
-    <row r="58" spans="2:20" hidden="1">
+    <row r="58" spans="2:20">
       <c r="B58" s="266">
         <v>54</v>
       </c>
@@ -8613,7 +8607,7 @@
       <c r="S58" s="209"/>
       <c r="T58" s="209"/>
     </row>
-    <row r="59" spans="2:20" hidden="1">
+    <row r="59" spans="2:20">
       <c r="B59" s="266">
         <v>55</v>
       </c>
@@ -8665,7 +8659,7 @@
       <c r="S59" s="209"/>
       <c r="T59" s="209"/>
     </row>
-    <row r="60" spans="2:20" hidden="1">
+    <row r="60" spans="2:20">
       <c r="B60" s="266">
         <v>56</v>
       </c>
@@ -8719,7 +8713,7 @@
       </c>
       <c r="T60" s="209"/>
     </row>
-    <row r="61" spans="2:20" hidden="1">
+    <row r="61" spans="2:20">
       <c r="B61" s="266">
         <v>57</v>
       </c>
@@ -8773,7 +8767,7 @@
       </c>
       <c r="T61" s="209"/>
     </row>
-    <row r="62" spans="2:20" hidden="1">
+    <row r="62" spans="2:20">
       <c r="B62" s="266">
         <v>58</v>
       </c>
@@ -8827,7 +8821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:20" hidden="1">
+    <row r="63" spans="2:20">
       <c r="B63" s="266">
         <v>59</v>
       </c>
@@ -8881,7 +8875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:20" hidden="1">
+    <row r="64" spans="2:20">
       <c r="B64" s="266">
         <v>60</v>
       </c>
@@ -8933,7 +8927,7 @@
       <c r="S64" s="209"/>
       <c r="T64" s="209"/>
     </row>
-    <row r="65" spans="2:20" hidden="1">
+    <row r="65" spans="2:20">
       <c r="B65" s="266">
         <v>61</v>
       </c>
@@ -8985,7 +8979,7 @@
       <c r="S65" s="209"/>
       <c r="T65" s="209"/>
     </row>
-    <row r="66" spans="2:20" hidden="1">
+    <row r="66" spans="2:20">
       <c r="B66" s="266">
         <v>62</v>
       </c>
@@ -9037,7 +9031,7 @@
       <c r="S66" s="209"/>
       <c r="T66" s="209"/>
     </row>
-    <row r="67" spans="2:20" hidden="1">
+    <row r="67" spans="2:20">
       <c r="B67" s="266">
         <v>63</v>
       </c>
@@ -9089,7 +9083,7 @@
       <c r="S67" s="209"/>
       <c r="T67" s="209"/>
     </row>
-    <row r="68" spans="2:20" hidden="1">
+    <row r="68" spans="2:20">
       <c r="B68" s="266">
         <v>64</v>
       </c>
@@ -9141,7 +9135,7 @@
       <c r="S68" s="209"/>
       <c r="T68" s="209"/>
     </row>
-    <row r="69" spans="2:20" hidden="1">
+    <row r="69" spans="2:20">
       <c r="B69" s="266">
         <v>65</v>
       </c>
@@ -9193,7 +9187,7 @@
       <c r="S69" s="209"/>
       <c r="T69" s="209"/>
     </row>
-    <row r="70" spans="2:20" hidden="1">
+    <row r="70" spans="2:20">
       <c r="B70" s="266">
         <v>66</v>
       </c>
@@ -9247,7 +9241,7 @@
       </c>
       <c r="T70" s="209"/>
     </row>
-    <row r="71" spans="2:20" hidden="1">
+    <row r="71" spans="2:20">
       <c r="B71" s="266">
         <v>67</v>
       </c>
@@ -9301,7 +9295,7 @@
       </c>
       <c r="T71" s="209"/>
     </row>
-    <row r="72" spans="2:20" hidden="1">
+    <row r="72" spans="2:20">
       <c r="B72" s="266">
         <v>68</v>
       </c>
@@ -9353,7 +9347,7 @@
       <c r="S72" s="209"/>
       <c r="T72" s="209"/>
     </row>
-    <row r="73" spans="2:20" hidden="1">
+    <row r="73" spans="2:20">
       <c r="B73" s="266">
         <v>69</v>
       </c>
@@ -9407,7 +9401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:20" hidden="1">
+    <row r="74" spans="2:20">
       <c r="B74" s="266">
         <v>70</v>
       </c>
@@ -9459,7 +9453,7 @@
       <c r="S74" s="209"/>
       <c r="T74" s="209"/>
     </row>
-    <row r="75" spans="2:20" hidden="1">
+    <row r="75" spans="2:20">
       <c r="B75" s="266">
         <v>71</v>
       </c>
@@ -9511,7 +9505,7 @@
       <c r="S75" s="209"/>
       <c r="T75" s="209"/>
     </row>
-    <row r="76" spans="2:20" hidden="1">
+    <row r="76" spans="2:20">
       <c r="B76" s="266">
         <v>72</v>
       </c>
@@ -9565,7 +9559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:20" hidden="1">
+    <row r="77" spans="2:20">
       <c r="B77" s="266">
         <v>73</v>
       </c>
@@ -9617,7 +9611,7 @@
       <c r="S77" s="209"/>
       <c r="T77" s="209"/>
     </row>
-    <row r="78" spans="2:20" hidden="1">
+    <row r="78" spans="2:20">
       <c r="B78" s="266">
         <v>74</v>
       </c>
@@ -9671,7 +9665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="2:20" hidden="1">
+    <row r="79" spans="2:20">
       <c r="B79" s="266">
         <v>75</v>
       </c>
@@ -9723,7 +9717,7 @@
       <c r="S79" s="209"/>
       <c r="T79" s="209"/>
     </row>
-    <row r="80" spans="2:20" hidden="1">
+    <row r="80" spans="2:20">
       <c r="B80" s="266">
         <v>76</v>
       </c>
@@ -9777,7 +9771,7 @@
       </c>
       <c r="T80" s="209"/>
     </row>
-    <row r="81" spans="2:20" hidden="1">
+    <row r="81" spans="2:20">
       <c r="B81" s="266">
         <v>77</v>
       </c>
@@ -9831,7 +9825,7 @@
       </c>
       <c r="T81" s="209"/>
     </row>
-    <row r="82" spans="2:20" hidden="1">
+    <row r="82" spans="2:20">
       <c r="B82" s="266">
         <v>78</v>
       </c>
@@ -9885,7 +9879,7 @@
       </c>
       <c r="T82" s="209"/>
     </row>
-    <row r="83" spans="2:20" hidden="1">
+    <row r="83" spans="2:20">
       <c r="B83" s="266">
         <v>79</v>
       </c>
@@ -9939,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:20" hidden="1">
+    <row r="84" spans="2:20">
       <c r="B84" s="266">
         <v>80</v>
       </c>
@@ -9993,7 +9987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:20" hidden="1">
+    <row r="85" spans="2:20">
       <c r="B85" s="266">
         <v>81</v>
       </c>
@@ -10047,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:20" hidden="1">
+    <row r="86" spans="2:20">
       <c r="B86" s="266">
         <v>82</v>
       </c>
@@ -10101,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:20" hidden="1">
+    <row r="87" spans="2:20">
       <c r="B87" s="266">
         <v>83</v>
       </c>
@@ -10153,7 +10147,7 @@
       <c r="S87" s="209"/>
       <c r="T87" s="209"/>
     </row>
-    <row r="88" spans="2:20" hidden="1">
+    <row r="88" spans="2:20">
       <c r="B88" s="266">
         <v>84</v>
       </c>
@@ -10205,7 +10199,7 @@
       <c r="S88" s="209"/>
       <c r="T88" s="209"/>
     </row>
-    <row r="89" spans="2:20" hidden="1">
+    <row r="89" spans="2:20">
       <c r="B89" s="266">
         <v>85</v>
       </c>
@@ -10257,7 +10251,7 @@
       <c r="S89" s="209"/>
       <c r="T89" s="209"/>
     </row>
-    <row r="90" spans="2:20" hidden="1">
+    <row r="90" spans="2:20">
       <c r="B90" s="266">
         <v>86</v>
       </c>
@@ -10309,7 +10303,7 @@
       <c r="S90" s="209"/>
       <c r="T90" s="209"/>
     </row>
-    <row r="91" spans="2:20" hidden="1">
+    <row r="91" spans="2:20">
       <c r="B91" s="266">
         <v>87</v>
       </c>
@@ -10363,7 +10357,7 @@
       </c>
       <c r="T91" s="209"/>
     </row>
-    <row r="92" spans="2:20" hidden="1">
+    <row r="92" spans="2:20">
       <c r="B92" s="266">
         <v>88</v>
       </c>
@@ -10417,7 +10411,7 @@
       </c>
       <c r="T92" s="209"/>
     </row>
-    <row r="93" spans="2:20" hidden="1">
+    <row r="93" spans="2:20">
       <c r="B93" s="266">
         <v>89</v>
       </c>
@@ -10471,7 +10465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:20" hidden="1">
+    <row r="94" spans="2:20">
       <c r="B94" s="266">
         <v>90</v>
       </c>
@@ -10525,7 +10519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="2:20" hidden="1">
+    <row r="95" spans="2:20">
       <c r="B95" s="266">
         <v>91</v>
       </c>
@@ -10579,7 +10573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:20" hidden="1">
+    <row r="96" spans="2:20">
       <c r="B96" s="266">
         <v>92</v>
       </c>
@@ -10633,7 +10627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:20" hidden="1">
+    <row r="97" spans="2:20">
       <c r="B97" s="266">
         <v>93</v>
       </c>
@@ -10685,7 +10679,7 @@
       <c r="S97" s="209"/>
       <c r="T97" s="209"/>
     </row>
-    <row r="98" spans="2:20" hidden="1">
+    <row r="98" spans="2:20">
       <c r="B98" s="266">
         <v>94</v>
       </c>
@@ -10739,7 +10733,7 @@
       </c>
       <c r="T98" s="209"/>
     </row>
-    <row r="99" spans="2:20" hidden="1">
+    <row r="99" spans="2:20">
       <c r="B99" s="266">
         <v>95</v>
       </c>
@@ -10793,7 +10787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:20" hidden="1">
+    <row r="100" spans="2:20">
       <c r="B100" s="266">
         <v>96</v>
       </c>
@@ -10847,7 +10841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:20" hidden="1">
+    <row r="101" spans="2:20">
       <c r="B101" s="266">
         <v>97</v>
       </c>
@@ -10901,7 +10895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:20" hidden="1">
+    <row r="102" spans="2:20">
       <c r="B102" s="266">
         <v>98</v>
       </c>
@@ -10955,7 +10949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:20" hidden="1">
+    <row r="103" spans="2:20">
       <c r="B103" s="266">
         <v>99</v>
       </c>
@@ -11007,7 +11001,7 @@
       <c r="S103" s="209"/>
       <c r="T103" s="209"/>
     </row>
-    <row r="104" spans="2:20" hidden="1">
+    <row r="104" spans="2:20">
       <c r="B104" s="266">
         <v>100</v>
       </c>
@@ -11059,7 +11053,7 @@
       <c r="S104" s="209"/>
       <c r="T104" s="209"/>
     </row>
-    <row r="105" spans="2:20" hidden="1">
+    <row r="105" spans="2:20">
       <c r="B105" s="266">
         <v>101</v>
       </c>
@@ -11113,7 +11107,7 @@
       </c>
       <c r="T105" s="209"/>
     </row>
-    <row r="106" spans="2:20" hidden="1">
+    <row r="106" spans="2:20">
       <c r="B106" s="266">
         <v>102</v>
       </c>
@@ -11165,7 +11159,7 @@
       <c r="S106" s="209"/>
       <c r="T106" s="209"/>
     </row>
-    <row r="107" spans="2:20" hidden="1">
+    <row r="107" spans="2:20">
       <c r="B107" s="266">
         <v>103</v>
       </c>
@@ -11219,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:20" hidden="1">
+    <row r="108" spans="2:20">
       <c r="B108" s="266">
         <v>104</v>
       </c>
@@ -11271,7 +11265,7 @@
       <c r="S108" s="209"/>
       <c r="T108" s="209"/>
     </row>
-    <row r="109" spans="2:20" hidden="1">
+    <row r="109" spans="2:20">
       <c r="B109" s="266">
         <v>105</v>
       </c>
@@ -11323,7 +11317,7 @@
       <c r="S109" s="209"/>
       <c r="T109" s="209"/>
     </row>
-    <row r="110" spans="2:20" hidden="1">
+    <row r="110" spans="2:20">
       <c r="B110" s="266">
         <v>106</v>
       </c>
@@ -11375,7 +11369,7 @@
       <c r="S110" s="209"/>
       <c r="T110" s="209"/>
     </row>
-    <row r="111" spans="2:20" hidden="1">
+    <row r="111" spans="2:20">
       <c r="B111" s="266">
         <v>107</v>
       </c>
@@ -11427,7 +11421,7 @@
       <c r="S111" s="209"/>
       <c r="T111" s="209"/>
     </row>
-    <row r="112" spans="2:20" hidden="1">
+    <row r="112" spans="2:20">
       <c r="B112" s="266">
         <v>108</v>
       </c>
@@ -11479,7 +11473,7 @@
       <c r="S112" s="224"/>
       <c r="T112" s="224"/>
     </row>
-    <row r="113" spans="2:20" hidden="1">
+    <row r="113" spans="2:20">
       <c r="B113" s="266">
         <v>109</v>
       </c>
@@ -11531,7 +11525,7 @@
       <c r="S113" s="224"/>
       <c r="T113" s="224"/>
     </row>
-    <row r="114" spans="2:20" hidden="1">
+    <row r="114" spans="2:20">
       <c r="B114" s="266">
         <v>110</v>
       </c>
@@ -11583,7 +11577,7 @@
       <c r="S114" s="224"/>
       <c r="T114" s="224"/>
     </row>
-    <row r="115" spans="2:20" hidden="1">
+    <row r="115" spans="2:20">
       <c r="B115" s="266">
         <v>111</v>
       </c>
@@ -11635,7 +11629,7 @@
       <c r="S115" s="224"/>
       <c r="T115" s="224"/>
     </row>
-    <row r="116" spans="2:20" hidden="1">
+    <row r="116" spans="2:20">
       <c r="B116" s="266">
         <v>112</v>
       </c>
@@ -11687,7 +11681,7 @@
       <c r="S116" s="224"/>
       <c r="T116" s="224"/>
     </row>
-    <row r="117" spans="2:20" hidden="1">
+    <row r="117" spans="2:20">
       <c r="B117" s="266">
         <v>113</v>
       </c>
@@ -11739,7 +11733,7 @@
       <c r="S117" s="226"/>
       <c r="T117" s="224"/>
     </row>
-    <row r="118" spans="2:20" hidden="1">
+    <row r="118" spans="2:20">
       <c r="B118" s="266">
         <v>114</v>
       </c>
@@ -11791,7 +11785,7 @@
       <c r="S118" s="224"/>
       <c r="T118" s="226"/>
     </row>
-    <row r="119" spans="2:20" hidden="1">
+    <row r="119" spans="2:20">
       <c r="B119" s="266">
         <v>115</v>
       </c>
@@ -11843,7 +11837,7 @@
       <c r="S119" s="224"/>
       <c r="T119" s="224"/>
     </row>
-    <row r="120" spans="2:20" hidden="1">
+    <row r="120" spans="2:20">
       <c r="B120" s="266">
         <v>116</v>
       </c>
@@ -11895,7 +11889,7 @@
       <c r="S120" s="226"/>
       <c r="T120" s="224"/>
     </row>
-    <row r="121" spans="2:20" hidden="1">
+    <row r="121" spans="2:20">
       <c r="B121" s="266">
         <v>117</v>
       </c>
@@ -11947,7 +11941,7 @@
       <c r="S121" s="224"/>
       <c r="T121" s="226"/>
     </row>
-    <row r="122" spans="2:20" hidden="1">
+    <row r="122" spans="2:20">
       <c r="B122" s="266">
         <v>118</v>
       </c>
@@ -11999,7 +11993,7 @@
       <c r="S122" s="224"/>
       <c r="T122" s="224"/>
     </row>
-    <row r="123" spans="2:20" hidden="1">
+    <row r="123" spans="2:20">
       <c r="B123" s="266">
         <v>119</v>
       </c>
@@ -12051,7 +12045,7 @@
       <c r="S123" s="224"/>
       <c r="T123" s="224"/>
     </row>
-    <row r="124" spans="2:20" hidden="1">
+    <row r="124" spans="2:20">
       <c r="B124" s="266">
         <v>120</v>
       </c>
@@ -12103,7 +12097,7 @@
       <c r="S124" s="226"/>
       <c r="T124" s="224"/>
     </row>
-    <row r="125" spans="2:20" hidden="1">
+    <row r="125" spans="2:20">
       <c r="B125" s="266">
         <v>121</v>
       </c>
@@ -12155,7 +12149,7 @@
       <c r="S125" s="224"/>
       <c r="T125" s="226"/>
     </row>
-    <row r="126" spans="2:20" hidden="1">
+    <row r="126" spans="2:20">
       <c r="B126" s="266">
         <v>122</v>
       </c>
@@ -12207,7 +12201,7 @@
       <c r="S126" s="224"/>
       <c r="T126" s="224"/>
     </row>
-    <row r="127" spans="2:20" hidden="1">
+    <row r="127" spans="2:20">
       <c r="B127" s="266">
         <v>123</v>
       </c>
@@ -12259,7 +12253,7 @@
       <c r="S127" s="224"/>
       <c r="T127" s="224"/>
     </row>
-    <row r="128" spans="2:20" hidden="1">
+    <row r="128" spans="2:20">
       <c r="B128" s="266">
         <v>124</v>
       </c>
@@ -12311,7 +12305,7 @@
       <c r="S128" s="224"/>
       <c r="T128" s="224"/>
     </row>
-    <row r="129" spans="2:20" hidden="1">
+    <row r="129" spans="2:20">
       <c r="B129" s="266">
         <v>125</v>
       </c>
@@ -12363,7 +12357,7 @@
       <c r="S129" s="224"/>
       <c r="T129" s="224"/>
     </row>
-    <row r="130" spans="2:20" hidden="1">
+    <row r="130" spans="2:20">
       <c r="B130" s="266">
         <v>126</v>
       </c>
@@ -12415,7 +12409,7 @@
       <c r="S130" s="224"/>
       <c r="T130" s="224"/>
     </row>
-    <row r="131" spans="2:20" hidden="1">
+    <row r="131" spans="2:20">
       <c r="B131" s="266">
         <v>127</v>
       </c>
@@ -13043,55 +13037,55 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="298" t="s">
+      <c r="B6" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="303" t="s">
+      <c r="D6" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="305" t="s">
+      <c r="E6" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="305" t="s">
+      <c r="G6" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="307"/>
+      <c r="I6" s="290"/>
       <c r="J6" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="307"/>
-      <c r="L6" s="308" t="s">
+      <c r="K6" s="290"/>
+      <c r="L6" s="301" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="290"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="290"/>
-      <c r="Q6" s="291"/>
-      <c r="R6" s="298" t="s">
+      <c r="N6" s="295"/>
+      <c r="O6" s="295"/>
+      <c r="P6" s="295"/>
+      <c r="Q6" s="296"/>
+      <c r="R6" s="297" t="s">
         <v>35</v>
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="58"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="299"/>
-      <c r="C7" s="314"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
       <c r="H7" s="86" t="s">
         <v>8</v>
       </c>
@@ -13104,7 +13098,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="309"/>
+      <c r="L7" s="302"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -13120,12 +13114,12 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="299"/>
+      <c r="R7" s="298"/>
       <c r="S7" s="59"/>
       <c r="T7" s="59"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="292" t="s">
+      <c r="B8" s="310" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -13177,7 +13171,7 @@
       <c r="T8" s="47"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="292"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>260</v>
       </c>
@@ -13227,7 +13221,7 @@
       <c r="T9" s="47"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="292"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>103</v>
       </c>
@@ -13277,7 +13271,7 @@
       <c r="T10" s="47"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B11" s="292"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="147" t="s">
         <v>16</v>
       </c>
@@ -13327,7 +13321,7 @@
       <c r="T11" s="47"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="292"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="19" t="s">
         <v>68</v>
       </c>
@@ -13377,7 +13371,7 @@
       <c r="T12" s="47"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="292"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>263</v>
       </c>
@@ -13427,7 +13421,7 @@
       <c r="T13" s="47"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="292"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>264</v>
       </c>
@@ -13477,7 +13471,7 @@
       <c r="T14" s="47"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B15" s="292"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="43" t="s">
         <v>345</v>
       </c>
@@ -13527,7 +13521,7 @@
       <c r="T15" s="47"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="292"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="43" t="s">
         <v>77</v>
       </c>
@@ -13577,7 +13571,7 @@
       <c r="T16" s="47"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B17" s="292"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>78</v>
       </c>
@@ -13627,7 +13621,7 @@
       <c r="T17" s="47"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B18" s="292"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="22" t="s">
         <v>272</v>
       </c>
@@ -13677,7 +13671,7 @@
       <c r="T18" s="47"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B19" s="292"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="22" t="s">
         <v>273</v>
       </c>
@@ -13727,7 +13721,7 @@
       <c r="T19" s="47"/>
     </row>
     <row r="20" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B20" s="292"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="22" t="s">
         <v>119</v>
       </c>
@@ -13777,7 +13771,7 @@
       <c r="T20" s="47"/>
     </row>
     <row r="21" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B21" s="292"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="22" t="s">
         <v>266</v>
       </c>
@@ -13827,7 +13821,7 @@
       <c r="T21" s="47"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B22" s="292"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="22" t="s">
         <v>298</v>
       </c>
@@ -13877,7 +13871,7 @@
       <c r="T22" s="47"/>
     </row>
     <row r="23" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B23" s="292"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="22" t="s">
         <v>120</v>
       </c>
@@ -13927,7 +13921,7 @@
       <c r="T23" s="47"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B24" s="292"/>
+      <c r="B24" s="310"/>
       <c r="C24" s="22" t="s">
         <v>100</v>
       </c>
@@ -13977,7 +13971,7 @@
       <c r="T24" s="47"/>
     </row>
     <row r="25" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B25" s="292"/>
+      <c r="B25" s="310"/>
       <c r="C25" s="22" t="s">
         <v>98</v>
       </c>
@@ -14027,7 +14021,7 @@
       <c r="T25" s="47"/>
     </row>
     <row r="26" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B26" s="292"/>
+      <c r="B26" s="310"/>
       <c r="C26" s="22" t="s">
         <v>88</v>
       </c>
@@ -14077,7 +14071,7 @@
       <c r="T26" s="47"/>
     </row>
     <row r="27" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B27" s="292"/>
+      <c r="B27" s="310"/>
       <c r="C27" s="27" t="s">
         <v>96</v>
       </c>
@@ -14127,7 +14121,7 @@
       <c r="T27" s="47"/>
     </row>
     <row r="28" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="293"/>
+      <c r="B28" s="311"/>
       <c r="C28" s="17" t="s">
         <v>11</v>
       </c>
@@ -14183,7 +14177,7 @@
       <c r="T28" s="47"/>
     </row>
     <row r="29" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B29" s="294" t="s">
+      <c r="B29" s="312" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -14235,7 +14229,7 @@
       <c r="T29" s="47"/>
     </row>
     <row r="30" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B30" s="292"/>
+      <c r="B30" s="310"/>
       <c r="C30" s="43" t="s">
         <v>261</v>
       </c>
@@ -14285,7 +14279,7 @@
       <c r="T30" s="47"/>
     </row>
     <row r="31" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="292"/>
+      <c r="B31" s="310"/>
       <c r="C31" s="146" t="s">
         <v>116</v>
       </c>
@@ -14335,7 +14329,7 @@
       <c r="T31" s="47"/>
     </row>
     <row r="32" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B32" s="292"/>
+      <c r="B32" s="310"/>
       <c r="C32" s="19" t="s">
         <v>346</v>
       </c>
@@ -14385,7 +14379,7 @@
       <c r="T32" s="47"/>
     </row>
     <row r="33" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B33" s="292"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="22" t="s">
         <v>347</v>
       </c>
@@ -14435,7 +14429,7 @@
       <c r="T33" s="47"/>
     </row>
     <row r="34" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B34" s="292"/>
+      <c r="B34" s="310"/>
       <c r="C34" s="22" t="s">
         <v>348</v>
       </c>
@@ -14485,7 +14479,7 @@
       <c r="T34" s="47"/>
     </row>
     <row r="35" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B35" s="292"/>
+      <c r="B35" s="310"/>
       <c r="C35" s="22" t="s">
         <v>349</v>
       </c>
@@ -14535,7 +14529,7 @@
       <c r="T35" s="47"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="292"/>
+      <c r="B36" s="310"/>
       <c r="C36" s="43" t="s">
         <v>274</v>
       </c>
@@ -14585,7 +14579,7 @@
       <c r="T36" s="47"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="292"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="22" t="s">
         <v>275</v>
       </c>
@@ -14635,7 +14629,7 @@
       <c r="T37" s="47"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="292"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="22" t="s">
         <v>104</v>
       </c>
@@ -14685,7 +14679,7 @@
       <c r="T38" s="47"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="292"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="22" t="s">
         <v>280</v>
       </c>
@@ -14735,7 +14729,7 @@
       <c r="T39" s="47"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B40" s="292"/>
+      <c r="B40" s="310"/>
       <c r="C40" s="22" t="s">
         <v>105</v>
       </c>
@@ -14785,7 +14779,7 @@
       <c r="T40" s="47"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B41" s="292"/>
+      <c r="B41" s="310"/>
       <c r="C41" s="22" t="s">
         <v>99</v>
       </c>
@@ -14835,49 +14829,49 @@
       <c r="T41" s="47"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B42" s="292"/>
+      <c r="B42" s="310"/>
       <c r="C42" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="274" t="s">
+      <c r="E42" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="271">
+      <c r="F42" s="273">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="G42" s="271">
+      <c r="G42" s="273">
         <f t="shared" si="21"/>
         <v>64</v>
       </c>
-      <c r="H42" s="271"/>
-      <c r="I42" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="269"/>
-      <c r="L42" s="269"/>
-      <c r="M42" s="271">
-        <v>2</v>
-      </c>
-      <c r="N42" s="271">
-        <v>2</v>
-      </c>
-      <c r="O42" s="271">
-        <v>2</v>
-      </c>
-      <c r="P42" s="271">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="271">
-        <v>0</v>
-      </c>
-      <c r="R42" s="271">
+      <c r="H42" s="273"/>
+      <c r="I42" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="271"/>
+      <c r="L42" s="271"/>
+      <c r="M42" s="273">
+        <v>2</v>
+      </c>
+      <c r="N42" s="273">
+        <v>2</v>
+      </c>
+      <c r="O42" s="273">
+        <v>2</v>
+      </c>
+      <c r="P42" s="273">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="273">
+        <v>0</v>
+      </c>
+      <c r="R42" s="273">
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
@@ -14885,32 +14879,32 @@
       <c r="T42" s="47"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="292"/>
+      <c r="B43" s="310"/>
       <c r="C43" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="295"/>
-      <c r="F43" s="287"/>
-      <c r="G43" s="287"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="296"/>
-      <c r="J43" s="296"/>
-      <c r="K43" s="296"/>
-      <c r="L43" s="319"/>
-      <c r="M43" s="286"/>
-      <c r="N43" s="286"/>
-      <c r="O43" s="286"/>
-      <c r="P43" s="286"/>
-      <c r="Q43" s="286"/>
-      <c r="R43" s="285"/>
+      <c r="E43" s="316"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="288"/>
+      <c r="H43" s="288"/>
+      <c r="I43" s="325"/>
+      <c r="J43" s="325"/>
+      <c r="K43" s="325"/>
+      <c r="L43" s="299"/>
+      <c r="M43" s="274"/>
+      <c r="N43" s="274"/>
+      <c r="O43" s="274"/>
+      <c r="P43" s="274"/>
+      <c r="Q43" s="274"/>
+      <c r="R43" s="300"/>
       <c r="S43" s="47"/>
       <c r="T43" s="47"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B44" s="292"/>
+      <c r="B44" s="310"/>
       <c r="C44" s="22" t="s">
         <v>152</v>
       </c>
@@ -14962,49 +14956,49 @@
       <c r="T44" s="47"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="292"/>
+      <c r="B45" s="310"/>
       <c r="C45" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="310" t="s">
+      <c r="D45" s="280" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="274" t="s">
+      <c r="E45" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="271">
+      <c r="F45" s="273">
         <f>SUM(M45:Q45)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G45" s="271">
+      <c r="G45" s="273">
         <f>F45</f>
         <v>48</v>
       </c>
-      <c r="H45" s="269"/>
-      <c r="I45" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="269"/>
-      <c r="L45" s="269"/>
-      <c r="M45" s="278">
+      <c r="H45" s="271"/>
+      <c r="I45" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="271"/>
+      <c r="L45" s="271"/>
+      <c r="M45" s="276">
         <v>6</v>
       </c>
-      <c r="N45" s="278">
-        <v>0</v>
-      </c>
-      <c r="O45" s="278">
-        <v>0</v>
-      </c>
-      <c r="P45" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="278">
-        <v>0</v>
-      </c>
-      <c r="R45" s="271">
+      <c r="N45" s="276">
+        <v>0</v>
+      </c>
+      <c r="O45" s="276">
+        <v>0</v>
+      </c>
+      <c r="P45" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="276">
+        <v>0</v>
+      </c>
+      <c r="R45" s="273">
         <f>F45/$F$2</f>
         <v>3</v>
       </c>
@@ -15012,72 +15006,72 @@
       <c r="T45" s="47"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="292"/>
+      <c r="B46" s="310"/>
       <c r="C46" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="302"/>
-      <c r="E46" s="275"/>
-      <c r="F46" s="276"/>
-      <c r="G46" s="276"/>
-      <c r="H46" s="297"/>
-      <c r="I46" s="297"/>
-      <c r="J46" s="297"/>
-      <c r="K46" s="297"/>
-      <c r="L46" s="316"/>
-      <c r="M46" s="300"/>
-      <c r="N46" s="300"/>
-      <c r="O46" s="300"/>
-      <c r="P46" s="300"/>
-      <c r="Q46" s="300"/>
-      <c r="R46" s="273"/>
+      <c r="D46" s="322"/>
+      <c r="E46" s="317"/>
+      <c r="F46" s="323"/>
+      <c r="G46" s="323"/>
+      <c r="H46" s="283"/>
+      <c r="I46" s="283"/>
+      <c r="J46" s="283"/>
+      <c r="K46" s="283"/>
+      <c r="L46" s="291"/>
+      <c r="M46" s="292"/>
+      <c r="N46" s="292"/>
+      <c r="O46" s="292"/>
+      <c r="P46" s="292"/>
+      <c r="Q46" s="292"/>
+      <c r="R46" s="303"/>
       <c r="S46" s="47"/>
       <c r="T46" s="47"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="292"/>
+      <c r="B47" s="310"/>
       <c r="C47" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="310" t="s">
+      <c r="D47" s="280" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="274" t="s">
+      <c r="E47" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="271">
+      <c r="F47" s="273">
         <f>SUM(M47:Q47)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G47" s="271">
+      <c r="G47" s="273">
         <f>F47</f>
         <v>48</v>
       </c>
-      <c r="H47" s="269"/>
-      <c r="I47" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K47" s="269"/>
-      <c r="L47" s="269"/>
-      <c r="M47" s="278">
-        <v>0</v>
-      </c>
-      <c r="N47" s="278">
+      <c r="H47" s="271"/>
+      <c r="I47" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="271"/>
+      <c r="L47" s="271"/>
+      <c r="M47" s="276">
+        <v>0</v>
+      </c>
+      <c r="N47" s="276">
         <v>6</v>
       </c>
-      <c r="O47" s="278">
-        <v>0</v>
-      </c>
-      <c r="P47" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="278">
-        <v>0</v>
-      </c>
-      <c r="R47" s="271">
+      <c r="O47" s="276">
+        <v>0</v>
+      </c>
+      <c r="P47" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="276">
+        <v>0</v>
+      </c>
+      <c r="R47" s="273">
         <f>F47/$F$2</f>
         <v>3</v>
       </c>
@@ -15085,72 +15079,72 @@
       <c r="T47" s="47"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="292"/>
+      <c r="B48" s="310"/>
       <c r="C48" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="302"/>
-      <c r="E48" s="275"/>
-      <c r="F48" s="276"/>
-      <c r="G48" s="276"/>
-      <c r="H48" s="297"/>
-      <c r="I48" s="297"/>
-      <c r="J48" s="297"/>
-      <c r="K48" s="297"/>
-      <c r="L48" s="316"/>
-      <c r="M48" s="300"/>
-      <c r="N48" s="300"/>
-      <c r="O48" s="300"/>
-      <c r="P48" s="300"/>
-      <c r="Q48" s="300"/>
-      <c r="R48" s="273"/>
+      <c r="D48" s="322"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="323"/>
+      <c r="G48" s="323"/>
+      <c r="H48" s="283"/>
+      <c r="I48" s="283"/>
+      <c r="J48" s="283"/>
+      <c r="K48" s="283"/>
+      <c r="L48" s="291"/>
+      <c r="M48" s="292"/>
+      <c r="N48" s="292"/>
+      <c r="O48" s="292"/>
+      <c r="P48" s="292"/>
+      <c r="Q48" s="292"/>
+      <c r="R48" s="303"/>
       <c r="S48" s="47"/>
       <c r="T48" s="47"/>
     </row>
     <row r="49" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B49" s="292"/>
+      <c r="B49" s="310"/>
       <c r="C49" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D49" s="301" t="s">
+      <c r="D49" s="282" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="274" t="s">
+      <c r="E49" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="271">
+      <c r="F49" s="273">
         <f>SUM(M49:Q49)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G49" s="271">
+      <c r="G49" s="273">
         <f>F49</f>
         <v>48</v>
       </c>
-      <c r="H49" s="269"/>
-      <c r="I49" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="269"/>
-      <c r="L49" s="269"/>
-      <c r="M49" s="278">
-        <v>0</v>
-      </c>
-      <c r="N49" s="278">
-        <v>0</v>
-      </c>
-      <c r="O49" s="278">
+      <c r="H49" s="271"/>
+      <c r="I49" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="271"/>
+      <c r="L49" s="271"/>
+      <c r="M49" s="276">
+        <v>0</v>
+      </c>
+      <c r="N49" s="276">
+        <v>0</v>
+      </c>
+      <c r="O49" s="276">
         <v>6</v>
       </c>
-      <c r="P49" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="278">
-        <v>0</v>
-      </c>
-      <c r="R49" s="271">
+      <c r="P49" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="276">
+        <v>0</v>
+      </c>
+      <c r="R49" s="273">
         <f>F49/$F$2</f>
         <v>3</v>
       </c>
@@ -15158,72 +15152,72 @@
       <c r="T49" s="47"/>
     </row>
     <row r="50" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B50" s="292"/>
+      <c r="B50" s="310"/>
       <c r="C50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="302"/>
-      <c r="E50" s="275"/>
-      <c r="F50" s="276"/>
-      <c r="G50" s="276"/>
-      <c r="H50" s="297"/>
-      <c r="I50" s="297"/>
-      <c r="J50" s="297"/>
-      <c r="K50" s="297"/>
-      <c r="L50" s="316"/>
-      <c r="M50" s="300"/>
-      <c r="N50" s="300"/>
-      <c r="O50" s="300"/>
-      <c r="P50" s="300"/>
-      <c r="Q50" s="300"/>
-      <c r="R50" s="273"/>
+      <c r="D50" s="322"/>
+      <c r="E50" s="317"/>
+      <c r="F50" s="323"/>
+      <c r="G50" s="323"/>
+      <c r="H50" s="283"/>
+      <c r="I50" s="283"/>
+      <c r="J50" s="283"/>
+      <c r="K50" s="283"/>
+      <c r="L50" s="291"/>
+      <c r="M50" s="292"/>
+      <c r="N50" s="292"/>
+      <c r="O50" s="292"/>
+      <c r="P50" s="292"/>
+      <c r="Q50" s="292"/>
+      <c r="R50" s="303"/>
       <c r="S50" s="47"/>
       <c r="T50" s="47"/>
     </row>
     <row r="51" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B51" s="292"/>
+      <c r="B51" s="310"/>
       <c r="C51" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D51" s="301" t="s">
+      <c r="D51" s="282" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="274" t="s">
+      <c r="E51" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="271">
+      <c r="F51" s="273">
         <f>SUM(M51:Q51)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G51" s="271">
+      <c r="G51" s="273">
         <f>F51</f>
         <v>48</v>
       </c>
-      <c r="H51" s="269"/>
-      <c r="I51" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="269"/>
-      <c r="L51" s="269"/>
-      <c r="M51" s="278">
-        <v>0</v>
-      </c>
-      <c r="N51" s="278">
-        <v>0</v>
-      </c>
-      <c r="O51" s="278">
-        <v>0</v>
-      </c>
-      <c r="P51" s="278">
+      <c r="H51" s="271"/>
+      <c r="I51" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="271"/>
+      <c r="L51" s="271"/>
+      <c r="M51" s="276">
+        <v>0</v>
+      </c>
+      <c r="N51" s="276">
+        <v>0</v>
+      </c>
+      <c r="O51" s="276">
+        <v>0</v>
+      </c>
+      <c r="P51" s="276">
         <v>6</v>
       </c>
-      <c r="Q51" s="278">
-        <v>0</v>
-      </c>
-      <c r="R51" s="271">
+      <c r="Q51" s="276">
+        <v>0</v>
+      </c>
+      <c r="R51" s="273">
         <f>F51/$F$2</f>
         <v>3</v>
       </c>
@@ -15231,30 +15225,30 @@
       <c r="T51" s="47"/>
     </row>
     <row r="52" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B52" s="292"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="302"/>
-      <c r="E52" s="275"/>
-      <c r="F52" s="276"/>
-      <c r="G52" s="276"/>
-      <c r="H52" s="297"/>
-      <c r="I52" s="297"/>
-      <c r="J52" s="297"/>
-      <c r="K52" s="297"/>
-      <c r="L52" s="316"/>
-      <c r="M52" s="300"/>
-      <c r="N52" s="300"/>
-      <c r="O52" s="300"/>
-      <c r="P52" s="300"/>
-      <c r="Q52" s="300"/>
-      <c r="R52" s="273"/>
+      <c r="D52" s="322"/>
+      <c r="E52" s="317"/>
+      <c r="F52" s="323"/>
+      <c r="G52" s="323"/>
+      <c r="H52" s="283"/>
+      <c r="I52" s="283"/>
+      <c r="J52" s="283"/>
+      <c r="K52" s="283"/>
+      <c r="L52" s="291"/>
+      <c r="M52" s="292"/>
+      <c r="N52" s="292"/>
+      <c r="O52" s="292"/>
+      <c r="P52" s="292"/>
+      <c r="Q52" s="292"/>
+      <c r="R52" s="303"/>
       <c r="S52" s="47"/>
       <c r="T52" s="47"/>
     </row>
     <row r="53" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B53" s="293"/>
+      <c r="B53" s="311"/>
       <c r="C53" s="17" t="s">
         <v>11</v>
       </c>
@@ -15340,14 +15334,14 @@
       <c r="I55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="311" t="s">
+      <c r="J55" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="312"/>
-      <c r="L55" s="317" t="s">
+      <c r="K55" s="285"/>
+      <c r="L55" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="M55" s="318"/>
+      <c r="M55" s="306"/>
       <c r="N55" s="118" t="s">
         <v>49</v>
       </c>
@@ -15530,55 +15524,55 @@
       <c r="T61" s="57"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B62" s="298" t="s">
+      <c r="B62" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="303" t="s">
+      <c r="D62" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E62" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="305" t="s">
+      <c r="E62" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G62" s="305" t="s">
+      <c r="G62" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H62" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="307"/>
+      <c r="I62" s="290"/>
       <c r="J62" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K62" s="307"/>
-      <c r="L62" s="308" t="s">
+      <c r="K62" s="290"/>
+      <c r="L62" s="301" t="s">
         <v>26</v>
       </c>
       <c r="M62" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N62" s="290"/>
-      <c r="O62" s="290"/>
-      <c r="P62" s="290"/>
-      <c r="Q62" s="291"/>
-      <c r="R62" s="298" t="s">
+      <c r="N62" s="295"/>
+      <c r="O62" s="295"/>
+      <c r="P62" s="295"/>
+      <c r="Q62" s="296"/>
+      <c r="R62" s="297" t="s">
         <v>35</v>
       </c>
       <c r="S62" s="58"/>
       <c r="T62" s="58"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B63" s="299"/>
-      <c r="C63" s="315"/>
-      <c r="D63" s="304"/>
-      <c r="E63" s="299"/>
-      <c r="F63" s="306"/>
-      <c r="G63" s="306"/>
+      <c r="B63" s="298"/>
+      <c r="C63" s="314"/>
+      <c r="D63" s="321"/>
+      <c r="E63" s="298"/>
+      <c r="F63" s="319"/>
+      <c r="G63" s="319"/>
       <c r="H63" s="56" t="s">
         <v>8</v>
       </c>
@@ -15591,7 +15585,7 @@
       <c r="K63" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L63" s="309"/>
+      <c r="L63" s="302"/>
       <c r="M63" s="10" t="s">
         <v>32</v>
       </c>
@@ -15607,12 +15601,12 @@
       <c r="Q63" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R63" s="299"/>
+      <c r="R63" s="298"/>
       <c r="S63" s="59"/>
       <c r="T63" s="59"/>
     </row>
     <row r="64" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B64" s="292" t="s">
+      <c r="B64" s="310" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="19" t="s">
@@ -15664,7 +15658,7 @@
       <c r="T64" s="47"/>
     </row>
     <row r="65" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B65" s="292"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="43" t="s">
         <v>103</v>
       </c>
@@ -15714,7 +15708,7 @@
       <c r="T65" s="47"/>
     </row>
     <row r="66" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="292"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="147" t="s">
         <v>16</v>
       </c>
@@ -15764,7 +15758,7 @@
       <c r="T66" s="47"/>
     </row>
     <row r="67" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B67" s="292"/>
+      <c r="B67" s="310"/>
       <c r="C67" s="233" t="s">
         <v>68</v>
       </c>
@@ -15814,7 +15808,7 @@
       <c r="T67" s="47"/>
     </row>
     <row r="68" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B68" s="292"/>
+      <c r="B68" s="310"/>
       <c r="C68" s="43" t="s">
         <v>263</v>
       </c>
@@ -15864,7 +15858,7 @@
       <c r="T68" s="47"/>
     </row>
     <row r="69" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B69" s="292"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>264</v>
       </c>
@@ -15914,7 +15908,7 @@
       <c r="T69" s="47"/>
     </row>
     <row r="70" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B70" s="292"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="43" t="s">
         <v>345</v>
       </c>
@@ -15964,7 +15958,7 @@
       <c r="T70" s="47"/>
     </row>
     <row r="71" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B71" s="292"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="43" t="s">
         <v>77</v>
       </c>
@@ -16014,7 +16008,7 @@
       <c r="T71" s="47"/>
     </row>
     <row r="72" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B72" s="292"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="43" t="s">
         <v>78</v>
       </c>
@@ -16064,7 +16058,7 @@
       <c r="T72" s="47"/>
     </row>
     <row r="73" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B73" s="292"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="22" t="s">
         <v>272</v>
       </c>
@@ -16114,7 +16108,7 @@
       <c r="T73" s="47"/>
     </row>
     <row r="74" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B74" s="292"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="22" t="s">
         <v>273</v>
       </c>
@@ -16164,7 +16158,7 @@
       <c r="T74" s="47"/>
     </row>
     <row r="75" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B75" s="292"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="22" t="s">
         <v>119</v>
       </c>
@@ -16214,7 +16208,7 @@
       <c r="T75" s="47"/>
     </row>
     <row r="76" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B76" s="292"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="22" t="s">
         <v>266</v>
       </c>
@@ -16264,7 +16258,7 @@
       <c r="T76" s="47"/>
     </row>
     <row r="77" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B77" s="292"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="22" t="s">
         <v>267</v>
       </c>
@@ -16314,7 +16308,7 @@
       <c r="T77" s="47"/>
     </row>
     <row r="78" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B78" s="292"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="22" t="s">
         <v>120</v>
       </c>
@@ -16364,7 +16358,7 @@
       <c r="T78" s="47"/>
     </row>
     <row r="79" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B79" s="292"/>
+      <c r="B79" s="310"/>
       <c r="C79" s="22" t="s">
         <v>100</v>
       </c>
@@ -16414,7 +16408,7 @@
       <c r="T79" s="47"/>
     </row>
     <row r="80" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B80" s="292"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="22" t="s">
         <v>94</v>
       </c>
@@ -16464,7 +16458,7 @@
       <c r="T80" s="47"/>
     </row>
     <row r="81" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B81" s="292"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="22" t="s">
         <v>88</v>
       </c>
@@ -16514,7 +16508,7 @@
       <c r="T81" s="47"/>
     </row>
     <row r="82" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="292"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="22" t="s">
         <v>96</v>
       </c>
@@ -16564,7 +16558,7 @@
       <c r="T82" s="47"/>
     </row>
     <row r="83" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="293"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -16620,7 +16614,7 @@
       <c r="T83" s="47"/>
     </row>
     <row r="84" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B84" s="294" t="s">
+      <c r="B84" s="312" t="s">
         <v>40</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -16672,7 +16666,7 @@
       <c r="T84" s="47"/>
     </row>
     <row r="85" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B85" s="292"/>
+      <c r="B85" s="310"/>
       <c r="C85" s="43" t="s">
         <v>260</v>
       </c>
@@ -16722,7 +16716,7 @@
       <c r="T85" s="47"/>
     </row>
     <row r="86" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B86" s="292"/>
+      <c r="B86" s="310"/>
       <c r="C86" s="43" t="s">
         <v>16</v>
       </c>
@@ -16772,7 +16766,7 @@
       <c r="T86" s="47"/>
     </row>
     <row r="87" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B87" s="292"/>
+      <c r="B87" s="310"/>
       <c r="C87" s="146" t="s">
         <v>70</v>
       </c>
@@ -16822,7 +16816,7 @@
       <c r="T87" s="47"/>
     </row>
     <row r="88" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B88" s="292"/>
+      <c r="B88" s="310"/>
       <c r="C88" s="19" t="s">
         <v>346</v>
       </c>
@@ -16872,7 +16866,7 @@
       <c r="T88" s="47"/>
     </row>
     <row r="89" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B89" s="292"/>
+      <c r="B89" s="310"/>
       <c r="C89" s="22" t="s">
         <v>347</v>
       </c>
@@ -16922,7 +16916,7 @@
       <c r="T89" s="47"/>
     </row>
     <row r="90" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B90" s="292"/>
+      <c r="B90" s="310"/>
       <c r="C90" s="22" t="s">
         <v>348</v>
       </c>
@@ -16972,7 +16966,7 @@
       <c r="T90" s="47"/>
     </row>
     <row r="91" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B91" s="292"/>
+      <c r="B91" s="310"/>
       <c r="C91" s="22" t="s">
         <v>349</v>
       </c>
@@ -17022,7 +17016,7 @@
       <c r="T91" s="47"/>
     </row>
     <row r="92" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B92" s="292"/>
+      <c r="B92" s="310"/>
       <c r="C92" s="43" t="s">
         <v>274</v>
       </c>
@@ -17072,7 +17066,7 @@
       <c r="T92" s="47"/>
     </row>
     <row r="93" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B93" s="292"/>
+      <c r="B93" s="310"/>
       <c r="C93" s="22" t="s">
         <v>275</v>
       </c>
@@ -17122,7 +17116,7 @@
       <c r="T93" s="47"/>
     </row>
     <row r="94" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B94" s="292"/>
+      <c r="B94" s="310"/>
       <c r="C94" s="22" t="s">
         <v>104</v>
       </c>
@@ -17172,7 +17166,7 @@
       <c r="T94" s="47"/>
     </row>
     <row r="95" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B95" s="292"/>
+      <c r="B95" s="310"/>
       <c r="C95" s="22" t="s">
         <v>280</v>
       </c>
@@ -17222,7 +17216,7 @@
       <c r="T95" s="47"/>
     </row>
     <row r="96" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B96" s="292"/>
+      <c r="B96" s="310"/>
       <c r="C96" s="22" t="s">
         <v>105</v>
       </c>
@@ -17272,7 +17266,7 @@
       <c r="T96" s="47"/>
     </row>
     <row r="97" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B97" s="292"/>
+      <c r="B97" s="310"/>
       <c r="C97" s="22" t="s">
         <v>99</v>
       </c>
@@ -17322,374 +17316,374 @@
       <c r="T97" s="47"/>
     </row>
     <row r="98" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B98" s="292"/>
+      <c r="B98" s="310"/>
       <c r="C98" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D98" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="274" t="s">
+      <c r="E98" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="271">
+      <c r="F98" s="273">
         <f t="shared" si="42"/>
         <v>64</v>
       </c>
-      <c r="G98" s="271">
+      <c r="G98" s="273">
         <f t="shared" si="43"/>
         <v>64</v>
       </c>
-      <c r="H98" s="271"/>
-      <c r="I98" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="J98" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="K98" s="269"/>
-      <c r="L98" s="269"/>
-      <c r="M98" s="271">
-        <v>2</v>
-      </c>
-      <c r="N98" s="271">
-        <v>2</v>
-      </c>
-      <c r="O98" s="271">
-        <v>2</v>
-      </c>
-      <c r="P98" s="271">
-        <v>2</v>
-      </c>
-      <c r="Q98" s="271">
-        <v>0</v>
-      </c>
-      <c r="R98" s="271">
+      <c r="H98" s="273"/>
+      <c r="I98" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" s="271"/>
+      <c r="L98" s="271"/>
+      <c r="M98" s="273">
+        <v>2</v>
+      </c>
+      <c r="N98" s="273">
+        <v>2</v>
+      </c>
+      <c r="O98" s="273">
+        <v>2</v>
+      </c>
+      <c r="P98" s="273">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="273">
+        <v>0</v>
+      </c>
+      <c r="R98" s="273">
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
-      <c r="S98" s="324"/>
+      <c r="S98" s="269"/>
       <c r="T98" s="47"/>
     </row>
     <row r="99" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B99" s="292"/>
+      <c r="B99" s="310"/>
       <c r="C99" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D99" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E99" s="295"/>
-      <c r="F99" s="287"/>
-      <c r="G99" s="287"/>
-      <c r="H99" s="285"/>
-      <c r="I99" s="288"/>
-      <c r="J99" s="288"/>
-      <c r="K99" s="288"/>
-      <c r="L99" s="322"/>
-      <c r="M99" s="286"/>
-      <c r="N99" s="286"/>
-      <c r="O99" s="286"/>
-      <c r="P99" s="286"/>
-      <c r="Q99" s="286"/>
-      <c r="R99" s="285"/>
-      <c r="S99" s="325"/>
+      <c r="E99" s="316"/>
+      <c r="F99" s="288"/>
+      <c r="G99" s="288"/>
+      <c r="H99" s="300"/>
+      <c r="I99" s="272"/>
+      <c r="J99" s="272"/>
+      <c r="K99" s="272"/>
+      <c r="L99" s="275"/>
+      <c r="M99" s="274"/>
+      <c r="N99" s="274"/>
+      <c r="O99" s="274"/>
+      <c r="P99" s="274"/>
+      <c r="Q99" s="274"/>
+      <c r="R99" s="300"/>
+      <c r="S99" s="270"/>
       <c r="T99" s="152"/>
     </row>
     <row r="100" spans="2:20">
-      <c r="B100" s="292"/>
+      <c r="B100" s="310"/>
       <c r="C100" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D100" s="310" t="s">
+      <c r="D100" s="280" t="s">
         <v>108</v>
       </c>
-      <c r="E100" s="274" t="s">
+      <c r="E100" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="271">
+      <c r="F100" s="273">
         <f>SUM(M100:Q100)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G100" s="271">
+      <c r="G100" s="273">
         <f>F100</f>
         <v>48</v>
       </c>
-      <c r="H100" s="269"/>
-      <c r="I100" s="269" t="s">
+      <c r="H100" s="271"/>
+      <c r="I100" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="J100" s="269" t="s">
+      <c r="J100" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="K100" s="269"/>
-      <c r="L100" s="269"/>
-      <c r="M100" s="278">
+      <c r="K100" s="271"/>
+      <c r="L100" s="271"/>
+      <c r="M100" s="276">
         <v>6</v>
       </c>
-      <c r="N100" s="278">
-        <v>0</v>
-      </c>
-      <c r="O100" s="278">
-        <v>0</v>
-      </c>
-      <c r="P100" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="278">
-        <v>0</v>
-      </c>
-      <c r="R100" s="271">
+      <c r="N100" s="276">
+        <v>0</v>
+      </c>
+      <c r="O100" s="276">
+        <v>0</v>
+      </c>
+      <c r="P100" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="276">
+        <v>0</v>
+      </c>
+      <c r="R100" s="273">
         <f>F100/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S100" s="324"/>
+      <c r="S100" s="269"/>
       <c r="T100" s="47"/>
     </row>
     <row r="101" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B101" s="292"/>
+      <c r="B101" s="310"/>
       <c r="C101" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D101" s="302"/>
-      <c r="E101" s="275"/>
-      <c r="F101" s="276"/>
-      <c r="G101" s="276"/>
-      <c r="H101" s="277"/>
-      <c r="I101" s="277"/>
-      <c r="J101" s="277"/>
-      <c r="K101" s="277"/>
-      <c r="L101" s="283"/>
-      <c r="M101" s="279"/>
-      <c r="N101" s="279"/>
-      <c r="O101" s="279"/>
-      <c r="P101" s="279"/>
-      <c r="Q101" s="279"/>
-      <c r="R101" s="273"/>
-      <c r="S101" s="325"/>
+      <c r="D101" s="322"/>
+      <c r="E101" s="317"/>
+      <c r="F101" s="323"/>
+      <c r="G101" s="323"/>
+      <c r="H101" s="279"/>
+      <c r="I101" s="279"/>
+      <c r="J101" s="279"/>
+      <c r="K101" s="279"/>
+      <c r="L101" s="278"/>
+      <c r="M101" s="277"/>
+      <c r="N101" s="277"/>
+      <c r="O101" s="277"/>
+      <c r="P101" s="277"/>
+      <c r="Q101" s="277"/>
+      <c r="R101" s="303"/>
+      <c r="S101" s="270"/>
       <c r="T101" s="152"/>
     </row>
     <row r="102" spans="2:20">
-      <c r="B102" s="292"/>
+      <c r="B102" s="310"/>
       <c r="C102" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D102" s="310" t="s">
+      <c r="D102" s="280" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="274" t="s">
+      <c r="E102" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F102" s="271">
+      <c r="F102" s="273">
         <f>SUM(M102:Q102)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G102" s="271">
+      <c r="G102" s="273">
         <f>F102</f>
         <v>48</v>
       </c>
-      <c r="H102" s="269"/>
-      <c r="I102" s="269" t="s">
+      <c r="H102" s="271"/>
+      <c r="I102" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="J102" s="269" t="s">
+      <c r="J102" s="271" t="s">
         <v>44</v>
       </c>
-      <c r="K102" s="269"/>
-      <c r="L102" s="269"/>
-      <c r="M102" s="278">
-        <v>0</v>
-      </c>
-      <c r="N102" s="278">
+      <c r="K102" s="271"/>
+      <c r="L102" s="271"/>
+      <c r="M102" s="276">
+        <v>0</v>
+      </c>
+      <c r="N102" s="276">
         <v>6</v>
       </c>
-      <c r="O102" s="278">
-        <v>0</v>
-      </c>
-      <c r="P102" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="278">
-        <v>0</v>
-      </c>
-      <c r="R102" s="271">
+      <c r="O102" s="276">
+        <v>0</v>
+      </c>
+      <c r="P102" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="276">
+        <v>0</v>
+      </c>
+      <c r="R102" s="273">
         <f>F102/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S102" s="324"/>
+      <c r="S102" s="269"/>
       <c r="T102" s="47"/>
     </row>
     <row r="103" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B103" s="292"/>
+      <c r="B103" s="310"/>
       <c r="C103" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D103" s="302"/>
-      <c r="E103" s="275"/>
-      <c r="F103" s="276"/>
-      <c r="G103" s="276"/>
-      <c r="H103" s="277"/>
-      <c r="I103" s="277"/>
-      <c r="J103" s="277"/>
-      <c r="K103" s="277"/>
-      <c r="L103" s="283"/>
-      <c r="M103" s="279"/>
-      <c r="N103" s="279"/>
-      <c r="O103" s="279"/>
-      <c r="P103" s="279"/>
-      <c r="Q103" s="279"/>
-      <c r="R103" s="273"/>
-      <c r="S103" s="325"/>
+      <c r="D103" s="322"/>
+      <c r="E103" s="317"/>
+      <c r="F103" s="323"/>
+      <c r="G103" s="323"/>
+      <c r="H103" s="279"/>
+      <c r="I103" s="279"/>
+      <c r="J103" s="279"/>
+      <c r="K103" s="279"/>
+      <c r="L103" s="278"/>
+      <c r="M103" s="277"/>
+      <c r="N103" s="277"/>
+      <c r="O103" s="277"/>
+      <c r="P103" s="277"/>
+      <c r="Q103" s="277"/>
+      <c r="R103" s="303"/>
+      <c r="S103" s="270"/>
       <c r="T103" s="152"/>
     </row>
     <row r="104" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B104" s="292"/>
+      <c r="B104" s="310"/>
       <c r="C104" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="D104" s="301" t="s">
+      <c r="D104" s="282" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="274" t="s">
+      <c r="E104" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F104" s="271">
+      <c r="F104" s="273">
         <f>SUM(M104:Q104)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G104" s="271">
+      <c r="G104" s="273">
         <f>F104</f>
         <v>48</v>
       </c>
-      <c r="H104" s="269"/>
-      <c r="I104" s="269" t="s">
+      <c r="H104" s="271"/>
+      <c r="I104" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="J104" s="269" t="s">
+      <c r="J104" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="K104" s="269"/>
-      <c r="L104" s="269"/>
-      <c r="M104" s="278">
-        <v>0</v>
-      </c>
-      <c r="N104" s="278">
-        <v>0</v>
-      </c>
-      <c r="O104" s="278">
+      <c r="K104" s="271"/>
+      <c r="L104" s="271"/>
+      <c r="M104" s="276">
+        <v>0</v>
+      </c>
+      <c r="N104" s="276">
+        <v>0</v>
+      </c>
+      <c r="O104" s="276">
         <v>6</v>
       </c>
-      <c r="P104" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="278">
-        <v>0</v>
-      </c>
-      <c r="R104" s="271">
+      <c r="P104" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="276">
+        <v>0</v>
+      </c>
+      <c r="R104" s="273">
         <f>F104/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S104" s="324"/>
+      <c r="S104" s="269"/>
       <c r="T104" s="47"/>
     </row>
     <row r="105" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B105" s="292"/>
+      <c r="B105" s="310"/>
       <c r="C105" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="302"/>
-      <c r="E105" s="275"/>
-      <c r="F105" s="276"/>
-      <c r="G105" s="276"/>
-      <c r="H105" s="277"/>
-      <c r="I105" s="277"/>
-      <c r="J105" s="277"/>
-      <c r="K105" s="277"/>
-      <c r="L105" s="283"/>
-      <c r="M105" s="279"/>
-      <c r="N105" s="279"/>
-      <c r="O105" s="279"/>
-      <c r="P105" s="279"/>
-      <c r="Q105" s="279"/>
-      <c r="R105" s="273"/>
-      <c r="S105" s="325"/>
+      <c r="D105" s="322"/>
+      <c r="E105" s="317"/>
+      <c r="F105" s="323"/>
+      <c r="G105" s="323"/>
+      <c r="H105" s="279"/>
+      <c r="I105" s="279"/>
+      <c r="J105" s="279"/>
+      <c r="K105" s="279"/>
+      <c r="L105" s="278"/>
+      <c r="M105" s="277"/>
+      <c r="N105" s="277"/>
+      <c r="O105" s="277"/>
+      <c r="P105" s="277"/>
+      <c r="Q105" s="277"/>
+      <c r="R105" s="303"/>
+      <c r="S105" s="270"/>
       <c r="T105" s="152"/>
     </row>
     <row r="106" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B106" s="292"/>
+      <c r="B106" s="310"/>
       <c r="C106" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D106" s="301" t="s">
+      <c r="D106" s="282" t="s">
         <v>108</v>
       </c>
-      <c r="E106" s="274" t="s">
+      <c r="E106" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="271">
+      <c r="F106" s="273">
         <f>SUM(M106:Q106)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G106" s="271">
+      <c r="G106" s="273">
         <f>F106</f>
         <v>48</v>
       </c>
-      <c r="H106" s="269"/>
-      <c r="I106" s="269" t="s">
+      <c r="H106" s="271"/>
+      <c r="I106" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="J106" s="269" t="s">
+      <c r="J106" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="K106" s="269"/>
-      <c r="L106" s="269"/>
-      <c r="M106" s="278">
-        <v>0</v>
-      </c>
-      <c r="N106" s="278">
-        <v>0</v>
-      </c>
-      <c r="O106" s="278">
-        <v>0</v>
-      </c>
-      <c r="P106" s="278">
+      <c r="K106" s="271"/>
+      <c r="L106" s="271"/>
+      <c r="M106" s="276">
+        <v>0</v>
+      </c>
+      <c r="N106" s="276">
+        <v>0</v>
+      </c>
+      <c r="O106" s="276">
+        <v>0</v>
+      </c>
+      <c r="P106" s="276">
         <v>6</v>
       </c>
-      <c r="Q106" s="278">
-        <v>0</v>
-      </c>
-      <c r="R106" s="271">
+      <c r="Q106" s="276">
+        <v>0</v>
+      </c>
+      <c r="R106" s="273">
         <f>F106/$F$2</f>
         <v>3</v>
       </c>
-      <c r="S106" s="324"/>
+      <c r="S106" s="269"/>
       <c r="T106" s="47"/>
     </row>
     <row r="107" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B107" s="292"/>
+      <c r="B107" s="310"/>
       <c r="C107" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="302"/>
-      <c r="E107" s="275"/>
-      <c r="F107" s="276"/>
-      <c r="G107" s="276"/>
-      <c r="H107" s="277"/>
-      <c r="I107" s="277"/>
-      <c r="J107" s="277"/>
-      <c r="K107" s="277"/>
-      <c r="L107" s="283"/>
-      <c r="M107" s="279"/>
-      <c r="N107" s="279"/>
-      <c r="O107" s="279"/>
-      <c r="P107" s="279"/>
-      <c r="Q107" s="279"/>
-      <c r="R107" s="273"/>
-      <c r="S107" s="325"/>
+      <c r="D107" s="322"/>
+      <c r="E107" s="317"/>
+      <c r="F107" s="323"/>
+      <c r="G107" s="323"/>
+      <c r="H107" s="279"/>
+      <c r="I107" s="279"/>
+      <c r="J107" s="279"/>
+      <c r="K107" s="279"/>
+      <c r="L107" s="278"/>
+      <c r="M107" s="277"/>
+      <c r="N107" s="277"/>
+      <c r="O107" s="277"/>
+      <c r="P107" s="277"/>
+      <c r="Q107" s="277"/>
+      <c r="R107" s="303"/>
+      <c r="S107" s="270"/>
       <c r="T107" s="152"/>
     </row>
     <row r="108" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B108" s="293"/>
+      <c r="B108" s="311"/>
       <c r="C108" s="17" t="s">
         <v>11</v>
       </c>
@@ -17745,7 +17739,7 @@
       <c r="T108" s="47"/>
     </row>
     <row r="109" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B109" s="280" t="s">
+      <c r="B109" s="307" t="s">
         <v>45</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -17797,7 +17791,7 @@
       <c r="T109" s="47"/>
     </row>
     <row r="110" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B110" s="281"/>
+      <c r="B110" s="308"/>
       <c r="C110" s="147" t="s">
         <v>261</v>
       </c>
@@ -17847,7 +17841,7 @@
       <c r="T110" s="47"/>
     </row>
     <row r="111" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B111" s="281"/>
+      <c r="B111" s="308"/>
       <c r="C111" s="19" t="s">
         <v>350</v>
       </c>
@@ -17897,7 +17891,7 @@
       <c r="T111" s="47"/>
     </row>
     <row r="112" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B112" s="281"/>
+      <c r="B112" s="308"/>
       <c r="C112" s="43" t="s">
         <v>351</v>
       </c>
@@ -17947,7 +17941,7 @@
       <c r="T112" s="47"/>
     </row>
     <row r="113" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B113" s="281"/>
+      <c r="B113" s="308"/>
       <c r="C113" s="43" t="s">
         <v>265</v>
       </c>
@@ -17997,7 +17991,7 @@
       <c r="T113" s="47"/>
     </row>
     <row r="114" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B114" s="281"/>
+      <c r="B114" s="308"/>
       <c r="C114" s="43" t="s">
         <v>303</v>
       </c>
@@ -18047,7 +18041,7 @@
       <c r="T114" s="47"/>
     </row>
     <row r="115" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B115" s="281"/>
+      <c r="B115" s="308"/>
       <c r="C115" s="43" t="s">
         <v>276</v>
       </c>
@@ -18097,7 +18091,7 @@
       <c r="T115" s="47"/>
     </row>
     <row r="116" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B116" s="281"/>
+      <c r="B116" s="308"/>
       <c r="C116" s="22" t="s">
         <v>277</v>
       </c>
@@ -18147,7 +18141,7 @@
       <c r="T116" s="47"/>
     </row>
     <row r="117" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B117" s="281"/>
+      <c r="B117" s="308"/>
       <c r="C117" s="22" t="s">
         <v>152</v>
       </c>
@@ -18199,49 +18193,49 @@
       <c r="T117" s="47"/>
     </row>
     <row r="118" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B118" s="281"/>
+      <c r="B118" s="308"/>
       <c r="C118" s="22" t="s">
         <v>377</v>
       </c>
       <c r="D118" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="274" t="s">
+      <c r="E118" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F118" s="271">
+      <c r="F118" s="273">
         <f>SUM(M118:Q118)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G118" s="271">
+      <c r="G118" s="273">
         <f t="shared" ref="G118" si="53">F118</f>
         <v>384</v>
       </c>
-      <c r="H118" s="271"/>
-      <c r="I118" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J118" s="269"/>
-      <c r="K118" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="L118" s="269"/>
-      <c r="M118" s="271">
+      <c r="H118" s="273"/>
+      <c r="I118" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="271"/>
+      <c r="K118" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="271"/>
+      <c r="M118" s="273">
         <v>12</v>
       </c>
-      <c r="N118" s="271">
+      <c r="N118" s="273">
         <v>12</v>
       </c>
-      <c r="O118" s="271">
+      <c r="O118" s="273">
         <v>12</v>
       </c>
-      <c r="P118" s="271">
+      <c r="P118" s="273">
         <v>12</v>
       </c>
-      <c r="Q118" s="271">
-        <v>0</v>
-      </c>
-      <c r="R118" s="284">
+      <c r="Q118" s="273">
+        <v>0</v>
+      </c>
+      <c r="R118" s="304">
         <f>F118/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -18249,32 +18243,32 @@
       <c r="T118" s="47"/>
     </row>
     <row r="119" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B119" s="281"/>
+      <c r="B119" s="308"/>
       <c r="C119" s="147" t="s">
         <v>379</v>
       </c>
       <c r="D119" s="154" t="s">
         <v>378</v>
       </c>
-      <c r="E119" s="275"/>
-      <c r="F119" s="272"/>
-      <c r="G119" s="272"/>
-      <c r="H119" s="272"/>
-      <c r="I119" s="270"/>
-      <c r="J119" s="270"/>
-      <c r="K119" s="270"/>
-      <c r="L119" s="270"/>
-      <c r="M119" s="272"/>
-      <c r="N119" s="272"/>
-      <c r="O119" s="272"/>
-      <c r="P119" s="272"/>
-      <c r="Q119" s="272"/>
-      <c r="R119" s="272"/>
+      <c r="E119" s="317"/>
+      <c r="F119" s="287"/>
+      <c r="G119" s="287"/>
+      <c r="H119" s="287"/>
+      <c r="I119" s="286"/>
+      <c r="J119" s="286"/>
+      <c r="K119" s="286"/>
+      <c r="L119" s="286"/>
+      <c r="M119" s="287"/>
+      <c r="N119" s="287"/>
+      <c r="O119" s="287"/>
+      <c r="P119" s="287"/>
+      <c r="Q119" s="287"/>
+      <c r="R119" s="287"/>
       <c r="S119" s="47"/>
       <c r="T119" s="47"/>
     </row>
     <row r="120" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B120" s="282"/>
+      <c r="B120" s="309"/>
       <c r="C120" s="33" t="s">
         <v>11</v>
       </c>
@@ -18360,14 +18354,14 @@
       <c r="I122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J122" s="311" t="s">
+      <c r="J122" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K122" s="312"/>
-      <c r="L122" s="317" t="s">
+      <c r="K122" s="285"/>
+      <c r="L122" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="M122" s="318"/>
+      <c r="M122" s="306"/>
       <c r="N122" s="118" t="s">
         <v>49</v>
       </c>
@@ -18577,55 +18571,55 @@
       <c r="T129" s="57"/>
     </row>
     <row r="130" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B130" s="298" t="s">
+      <c r="B130" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="303" t="s">
+      <c r="D130" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E130" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" s="305" t="s">
+      <c r="E130" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G130" s="305" t="s">
+      <c r="G130" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H130" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I130" s="307"/>
+      <c r="I130" s="290"/>
       <c r="J130" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K130" s="307"/>
-      <c r="L130" s="308" t="s">
+      <c r="K130" s="290"/>
+      <c r="L130" s="301" t="s">
         <v>26</v>
       </c>
       <c r="M130" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N130" s="290"/>
-      <c r="O130" s="290"/>
-      <c r="P130" s="290"/>
-      <c r="Q130" s="291"/>
-      <c r="R130" s="298" t="s">
+      <c r="N130" s="295"/>
+      <c r="O130" s="295"/>
+      <c r="P130" s="295"/>
+      <c r="Q130" s="296"/>
+      <c r="R130" s="297" t="s">
         <v>35</v>
       </c>
       <c r="S130" s="58"/>
       <c r="T130" s="58"/>
     </row>
     <row r="131" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B131" s="299"/>
-      <c r="C131" s="315"/>
-      <c r="D131" s="304"/>
-      <c r="E131" s="299"/>
-      <c r="F131" s="306"/>
-      <c r="G131" s="306"/>
+      <c r="B131" s="298"/>
+      <c r="C131" s="314"/>
+      <c r="D131" s="321"/>
+      <c r="E131" s="298"/>
+      <c r="F131" s="319"/>
+      <c r="G131" s="319"/>
       <c r="H131" s="86" t="s">
         <v>8</v>
       </c>
@@ -18638,7 +18632,7 @@
       <c r="K131" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L131" s="309"/>
+      <c r="L131" s="302"/>
       <c r="M131" s="10" t="s">
         <v>22</v>
       </c>
@@ -18654,12 +18648,12 @@
       <c r="Q131" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R131" s="299"/>
+      <c r="R131" s="298"/>
       <c r="S131" s="59"/>
       <c r="T131" s="59"/>
     </row>
     <row r="132" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B132" s="292" t="s">
+      <c r="B132" s="310" t="s">
         <v>84</v>
       </c>
       <c r="C132" s="19" t="s">
@@ -18711,7 +18705,7 @@
       <c r="T132" s="47"/>
     </row>
     <row r="133" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B133" s="292"/>
+      <c r="B133" s="310"/>
       <c r="C133" s="43" t="s">
         <v>103</v>
       </c>
@@ -18761,7 +18755,7 @@
       <c r="T133" s="47"/>
     </row>
     <row r="134" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B134" s="292"/>
+      <c r="B134" s="310"/>
       <c r="C134" s="43" t="s">
         <v>16</v>
       </c>
@@ -18811,7 +18805,7 @@
       <c r="T134" s="47"/>
     </row>
     <row r="135" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B135" s="292"/>
+      <c r="B135" s="310"/>
       <c r="C135" s="233" t="s">
         <v>68</v>
       </c>
@@ -18861,7 +18855,7 @@
       <c r="T135" s="47"/>
     </row>
     <row r="136" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B136" s="292"/>
+      <c r="B136" s="310"/>
       <c r="C136" s="43" t="s">
         <v>263</v>
       </c>
@@ -18911,7 +18905,7 @@
       <c r="T136" s="47"/>
     </row>
     <row r="137" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B137" s="292"/>
+      <c r="B137" s="310"/>
       <c r="C137" s="43" t="s">
         <v>264</v>
       </c>
@@ -18961,7 +18955,7 @@
       <c r="T137" s="47"/>
     </row>
     <row r="138" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B138" s="292"/>
+      <c r="B138" s="310"/>
       <c r="C138" s="43" t="s">
         <v>345</v>
       </c>
@@ -19011,7 +19005,7 @@
       <c r="T138" s="47"/>
     </row>
     <row r="139" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B139" s="292"/>
+      <c r="B139" s="310"/>
       <c r="C139" s="22" t="s">
         <v>77</v>
       </c>
@@ -19061,7 +19055,7 @@
       <c r="T139" s="47"/>
     </row>
     <row r="140" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B140" s="292"/>
+      <c r="B140" s="310"/>
       <c r="C140" s="43" t="s">
         <v>78</v>
       </c>
@@ -19111,7 +19105,7 @@
       <c r="T140" s="47"/>
     </row>
     <row r="141" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B141" s="292"/>
+      <c r="B141" s="310"/>
       <c r="C141" s="22" t="s">
         <v>272</v>
       </c>
@@ -19161,7 +19155,7 @@
       <c r="T141" s="47"/>
     </row>
     <row r="142" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B142" s="292"/>
+      <c r="B142" s="310"/>
       <c r="C142" s="22" t="s">
         <v>273</v>
       </c>
@@ -19211,7 +19205,7 @@
       <c r="T142" s="47"/>
     </row>
     <row r="143" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B143" s="292"/>
+      <c r="B143" s="310"/>
       <c r="C143" s="22" t="s">
         <v>119</v>
       </c>
@@ -19261,7 +19255,7 @@
       <c r="T143" s="47"/>
     </row>
     <row r="144" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B144" s="292"/>
+      <c r="B144" s="310"/>
       <c r="C144" s="22" t="s">
         <v>266</v>
       </c>
@@ -19311,7 +19305,7 @@
       <c r="T144" s="47"/>
     </row>
     <row r="145" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B145" s="292"/>
+      <c r="B145" s="310"/>
       <c r="C145" s="22" t="s">
         <v>267</v>
       </c>
@@ -19361,7 +19355,7 @@
       <c r="T145" s="47"/>
     </row>
     <row r="146" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B146" s="292"/>
+      <c r="B146" s="310"/>
       <c r="C146" s="22" t="s">
         <v>120</v>
       </c>
@@ -19411,7 +19405,7 @@
       <c r="T146" s="47"/>
     </row>
     <row r="147" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B147" s="292"/>
+      <c r="B147" s="310"/>
       <c r="C147" s="22" t="s">
         <v>100</v>
       </c>
@@ -19461,7 +19455,7 @@
       <c r="T147" s="47"/>
     </row>
     <row r="148" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B148" s="292"/>
+      <c r="B148" s="310"/>
       <c r="C148" s="22" t="s">
         <v>94</v>
       </c>
@@ -19511,7 +19505,7 @@
       <c r="T148" s="47"/>
     </row>
     <row r="149" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B149" s="292"/>
+      <c r="B149" s="310"/>
       <c r="C149" s="22" t="s">
         <v>88</v>
       </c>
@@ -19561,7 +19555,7 @@
       <c r="T149" s="47"/>
     </row>
     <row r="150" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B150" s="292"/>
+      <c r="B150" s="310"/>
       <c r="C150" s="22" t="s">
         <v>96</v>
       </c>
@@ -19611,7 +19605,7 @@
       <c r="T150" s="47"/>
     </row>
     <row r="151" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B151" s="293"/>
+      <c r="B151" s="311"/>
       <c r="C151" s="17" t="s">
         <v>11</v>
       </c>
@@ -19667,7 +19661,7 @@
       <c r="T151" s="47"/>
     </row>
     <row r="152" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B152" s="294" t="s">
+      <c r="B152" s="312" t="s">
         <v>85</v>
       </c>
       <c r="C152" s="19" t="s">
@@ -19719,7 +19713,7 @@
       <c r="T152" s="47"/>
     </row>
     <row r="153" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B153" s="292"/>
+      <c r="B153" s="310"/>
       <c r="C153" s="43" t="s">
         <v>16</v>
       </c>
@@ -19769,7 +19763,7 @@
       <c r="T153" s="47"/>
     </row>
     <row r="154" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B154" s="292"/>
+      <c r="B154" s="310"/>
       <c r="C154" s="146" t="s">
         <v>70</v>
       </c>
@@ -19819,7 +19813,7 @@
       <c r="T154" s="47"/>
     </row>
     <row r="155" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B155" s="292"/>
+      <c r="B155" s="310"/>
       <c r="C155" s="19" t="s">
         <v>346</v>
       </c>
@@ -19869,7 +19863,7 @@
       <c r="T155" s="47"/>
     </row>
     <row r="156" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B156" s="292"/>
+      <c r="B156" s="310"/>
       <c r="C156" s="22" t="s">
         <v>347</v>
       </c>
@@ -19919,7 +19913,7 @@
       <c r="T156" s="47"/>
     </row>
     <row r="157" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B157" s="292"/>
+      <c r="B157" s="310"/>
       <c r="C157" s="22" t="s">
         <v>348</v>
       </c>
@@ -19969,7 +19963,7 @@
       <c r="T157" s="47"/>
     </row>
     <row r="158" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B158" s="292"/>
+      <c r="B158" s="310"/>
       <c r="C158" s="22" t="s">
         <v>349</v>
       </c>
@@ -20019,7 +20013,7 @@
       <c r="T158" s="47"/>
     </row>
     <row r="159" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B159" s="292"/>
+      <c r="B159" s="310"/>
       <c r="C159" s="43" t="s">
         <v>274</v>
       </c>
@@ -20069,7 +20063,7 @@
       <c r="T159" s="47"/>
     </row>
     <row r="160" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B160" s="292"/>
+      <c r="B160" s="310"/>
       <c r="C160" s="22" t="s">
         <v>275</v>
       </c>
@@ -20119,7 +20113,7 @@
       <c r="T160" s="47"/>
     </row>
     <row r="161" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B161" s="292"/>
+      <c r="B161" s="310"/>
       <c r="C161" s="22" t="s">
         <v>104</v>
       </c>
@@ -20169,7 +20163,7 @@
       <c r="T161" s="47"/>
     </row>
     <row r="162" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B162" s="292"/>
+      <c r="B162" s="310"/>
       <c r="C162" s="22" t="s">
         <v>280</v>
       </c>
@@ -20219,7 +20213,7 @@
       <c r="T162" s="47"/>
     </row>
     <row r="163" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B163" s="292"/>
+      <c r="B163" s="310"/>
       <c r="C163" s="22" t="s">
         <v>105</v>
       </c>
@@ -20269,7 +20263,7 @@
       <c r="T163" s="47"/>
     </row>
     <row r="164" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B164" s="292"/>
+      <c r="B164" s="310"/>
       <c r="C164" s="22" t="s">
         <v>99</v>
       </c>
@@ -20319,49 +20313,49 @@
       <c r="T164" s="47"/>
     </row>
     <row r="165" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B165" s="292"/>
+      <c r="B165" s="310"/>
       <c r="C165" s="22" t="s">
         <v>124</v>
       </c>
       <c r="D165" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E165" s="274" t="s">
+      <c r="E165" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="F165" s="271">
+      <c r="F165" s="273">
         <f t="shared" si="75"/>
         <v>64</v>
       </c>
-      <c r="G165" s="271">
+      <c r="G165" s="273">
         <f t="shared" si="76"/>
         <v>64</v>
       </c>
-      <c r="H165" s="271"/>
-      <c r="I165" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="J165" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="K165" s="269"/>
-      <c r="L165" s="269"/>
-      <c r="M165" s="271">
-        <v>2</v>
-      </c>
-      <c r="N165" s="271">
-        <v>2</v>
-      </c>
-      <c r="O165" s="271">
-        <v>2</v>
-      </c>
-      <c r="P165" s="271">
-        <v>2</v>
-      </c>
-      <c r="Q165" s="271">
-        <v>0</v>
-      </c>
-      <c r="R165" s="271">
+      <c r="H165" s="273"/>
+      <c r="I165" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" s="271"/>
+      <c r="L165" s="271"/>
+      <c r="M165" s="273">
+        <v>2</v>
+      </c>
+      <c r="N165" s="273">
+        <v>2</v>
+      </c>
+      <c r="O165" s="273">
+        <v>2</v>
+      </c>
+      <c r="P165" s="273">
+        <v>2</v>
+      </c>
+      <c r="Q165" s="273">
+        <v>0</v>
+      </c>
+      <c r="R165" s="273">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
@@ -20369,74 +20363,74 @@
       <c r="T165" s="47"/>
     </row>
     <row r="166" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B166" s="292"/>
+      <c r="B166" s="310"/>
       <c r="C166" s="22" t="s">
         <v>89</v>
       </c>
       <c r="D166" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="E166" s="295"/>
-      <c r="F166" s="287"/>
-      <c r="G166" s="287"/>
-      <c r="H166" s="285"/>
-      <c r="I166" s="288"/>
-      <c r="J166" s="288"/>
-      <c r="K166" s="288"/>
-      <c r="L166" s="322"/>
-      <c r="M166" s="286"/>
-      <c r="N166" s="286"/>
-      <c r="O166" s="286"/>
-      <c r="P166" s="286"/>
-      <c r="Q166" s="286"/>
-      <c r="R166" s="285"/>
+      <c r="E166" s="316"/>
+      <c r="F166" s="288"/>
+      <c r="G166" s="288"/>
+      <c r="H166" s="300"/>
+      <c r="I166" s="272"/>
+      <c r="J166" s="272"/>
+      <c r="K166" s="272"/>
+      <c r="L166" s="275"/>
+      <c r="M166" s="274"/>
+      <c r="N166" s="274"/>
+      <c r="O166" s="274"/>
+      <c r="P166" s="274"/>
+      <c r="Q166" s="274"/>
+      <c r="R166" s="300"/>
       <c r="S166" s="47"/>
       <c r="T166" s="47"/>
     </row>
     <row r="167" spans="2:20">
-      <c r="B167" s="292"/>
+      <c r="B167" s="310"/>
       <c r="C167" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="D167" s="310" t="s">
+      <c r="D167" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="E167" s="274" t="s">
+      <c r="E167" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="F167" s="271">
+      <c r="F167" s="273">
         <f>SUM(M167:Q167)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G167" s="271">
+      <c r="G167" s="273">
         <f>F167</f>
         <v>48</v>
       </c>
-      <c r="H167" s="269"/>
-      <c r="I167" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J167" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K167" s="269"/>
-      <c r="L167" s="269"/>
-      <c r="M167" s="278">
+      <c r="H167" s="271"/>
+      <c r="I167" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K167" s="271"/>
+      <c r="L167" s="271"/>
+      <c r="M167" s="276">
         <v>6</v>
       </c>
-      <c r="N167" s="278">
-        <v>0</v>
-      </c>
-      <c r="O167" s="278">
-        <v>0</v>
-      </c>
-      <c r="P167" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q167" s="278">
-        <v>0</v>
-      </c>
-      <c r="R167" s="271">
+      <c r="N167" s="276">
+        <v>0</v>
+      </c>
+      <c r="O167" s="276">
+        <v>0</v>
+      </c>
+      <c r="P167" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="276">
+        <v>0</v>
+      </c>
+      <c r="R167" s="273">
         <f>F167/$F$2</f>
         <v>3</v>
       </c>
@@ -20444,72 +20438,72 @@
       <c r="T167" s="47"/>
     </row>
     <row r="168" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B168" s="292"/>
+      <c r="B168" s="310"/>
       <c r="C168" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D168" s="323"/>
-      <c r="E168" s="275"/>
-      <c r="F168" s="276"/>
-      <c r="G168" s="276"/>
-      <c r="H168" s="277"/>
-      <c r="I168" s="277"/>
-      <c r="J168" s="277"/>
-      <c r="K168" s="277"/>
-      <c r="L168" s="283"/>
-      <c r="M168" s="279"/>
-      <c r="N168" s="279"/>
-      <c r="O168" s="279"/>
-      <c r="P168" s="279"/>
-      <c r="Q168" s="279"/>
-      <c r="R168" s="273"/>
+      <c r="D168" s="281"/>
+      <c r="E168" s="317"/>
+      <c r="F168" s="323"/>
+      <c r="G168" s="323"/>
+      <c r="H168" s="279"/>
+      <c r="I168" s="279"/>
+      <c r="J168" s="279"/>
+      <c r="K168" s="279"/>
+      <c r="L168" s="278"/>
+      <c r="M168" s="277"/>
+      <c r="N168" s="277"/>
+      <c r="O168" s="277"/>
+      <c r="P168" s="277"/>
+      <c r="Q168" s="277"/>
+      <c r="R168" s="303"/>
       <c r="S168" s="47"/>
       <c r="T168" s="47"/>
     </row>
     <row r="169" spans="2:20">
-      <c r="B169" s="292"/>
+      <c r="B169" s="310"/>
       <c r="C169" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D169" s="310" t="s">
+      <c r="D169" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="E169" s="274" t="s">
+      <c r="E169" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F169" s="271">
+      <c r="F169" s="273">
         <f>SUM(M169:Q169)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G169" s="271">
+      <c r="G169" s="273">
         <f>F169</f>
         <v>48</v>
       </c>
-      <c r="H169" s="269"/>
-      <c r="I169" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J169" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K169" s="269"/>
-      <c r="L169" s="269"/>
-      <c r="M169" s="278">
-        <v>0</v>
-      </c>
-      <c r="N169" s="278">
+      <c r="H169" s="271"/>
+      <c r="I169" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K169" s="271"/>
+      <c r="L169" s="271"/>
+      <c r="M169" s="276">
+        <v>0</v>
+      </c>
+      <c r="N169" s="276">
         <v>6</v>
       </c>
-      <c r="O169" s="278">
-        <v>0</v>
-      </c>
-      <c r="P169" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q169" s="278">
-        <v>0</v>
-      </c>
-      <c r="R169" s="271">
+      <c r="O169" s="276">
+        <v>0</v>
+      </c>
+      <c r="P169" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="276">
+        <v>0</v>
+      </c>
+      <c r="R169" s="273">
         <f>F169/$F$2</f>
         <v>3</v>
       </c>
@@ -20517,72 +20511,72 @@
       <c r="T169" s="47"/>
     </row>
     <row r="170" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B170" s="292"/>
+      <c r="B170" s="310"/>
       <c r="C170" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D170" s="323"/>
-      <c r="E170" s="275"/>
-      <c r="F170" s="276"/>
-      <c r="G170" s="276"/>
-      <c r="H170" s="277"/>
-      <c r="I170" s="277"/>
-      <c r="J170" s="277"/>
-      <c r="K170" s="277"/>
-      <c r="L170" s="283"/>
-      <c r="M170" s="279"/>
-      <c r="N170" s="279"/>
-      <c r="O170" s="279"/>
-      <c r="P170" s="279"/>
-      <c r="Q170" s="279"/>
-      <c r="R170" s="273"/>
+      <c r="D170" s="281"/>
+      <c r="E170" s="317"/>
+      <c r="F170" s="323"/>
+      <c r="G170" s="323"/>
+      <c r="H170" s="279"/>
+      <c r="I170" s="279"/>
+      <c r="J170" s="279"/>
+      <c r="K170" s="279"/>
+      <c r="L170" s="278"/>
+      <c r="M170" s="277"/>
+      <c r="N170" s="277"/>
+      <c r="O170" s="277"/>
+      <c r="P170" s="277"/>
+      <c r="Q170" s="277"/>
+      <c r="R170" s="303"/>
       <c r="S170" s="47"/>
       <c r="T170" s="47"/>
     </row>
     <row r="171" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B171" s="292"/>
+      <c r="B171" s="310"/>
       <c r="C171" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D171" s="310" t="s">
+      <c r="D171" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="E171" s="274" t="s">
+      <c r="E171" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F171" s="271">
+      <c r="F171" s="273">
         <f>SUM(M171:Q171)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G171" s="271">
+      <c r="G171" s="273">
         <f>F171</f>
         <v>48</v>
       </c>
-      <c r="H171" s="269"/>
-      <c r="I171" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J171" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K171" s="269"/>
-      <c r="L171" s="269"/>
-      <c r="M171" s="278">
-        <v>0</v>
-      </c>
-      <c r="N171" s="278">
-        <v>0</v>
-      </c>
-      <c r="O171" s="278">
+      <c r="H171" s="271"/>
+      <c r="I171" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K171" s="271"/>
+      <c r="L171" s="271"/>
+      <c r="M171" s="276">
+        <v>0</v>
+      </c>
+      <c r="N171" s="276">
+        <v>0</v>
+      </c>
+      <c r="O171" s="276">
         <v>6</v>
       </c>
-      <c r="P171" s="278">
-        <v>0</v>
-      </c>
-      <c r="Q171" s="278">
-        <v>0</v>
-      </c>
-      <c r="R171" s="271">
+      <c r="P171" s="276">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="276">
+        <v>0</v>
+      </c>
+      <c r="R171" s="273">
         <f>F171/$F$2</f>
         <v>3</v>
       </c>
@@ -20590,72 +20584,72 @@
       <c r="T171" s="47"/>
     </row>
     <row r="172" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B172" s="292"/>
+      <c r="B172" s="310"/>
       <c r="C172" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D172" s="323"/>
-      <c r="E172" s="275"/>
-      <c r="F172" s="276"/>
-      <c r="G172" s="276"/>
-      <c r="H172" s="277"/>
-      <c r="I172" s="277"/>
-      <c r="J172" s="277"/>
-      <c r="K172" s="277"/>
-      <c r="L172" s="283"/>
-      <c r="M172" s="279"/>
-      <c r="N172" s="279"/>
-      <c r="O172" s="279"/>
-      <c r="P172" s="279"/>
-      <c r="Q172" s="279"/>
-      <c r="R172" s="273"/>
+      <c r="D172" s="281"/>
+      <c r="E172" s="317"/>
+      <c r="F172" s="323"/>
+      <c r="G172" s="323"/>
+      <c r="H172" s="279"/>
+      <c r="I172" s="279"/>
+      <c r="J172" s="279"/>
+      <c r="K172" s="279"/>
+      <c r="L172" s="278"/>
+      <c r="M172" s="277"/>
+      <c r="N172" s="277"/>
+      <c r="O172" s="277"/>
+      <c r="P172" s="277"/>
+      <c r="Q172" s="277"/>
+      <c r="R172" s="303"/>
       <c r="S172" s="47"/>
       <c r="T172" s="47"/>
     </row>
     <row r="173" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B173" s="292"/>
+      <c r="B173" s="310"/>
       <c r="C173" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D173" s="301" t="s">
+      <c r="D173" s="282" t="s">
         <v>110</v>
       </c>
-      <c r="E173" s="274" t="s">
+      <c r="E173" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F173" s="271">
+      <c r="F173" s="273">
         <f>SUM(M173:Q173)*$F$1</f>
         <v>48</v>
       </c>
-      <c r="G173" s="271">
+      <c r="G173" s="273">
         <f>F173</f>
         <v>48</v>
       </c>
-      <c r="H173" s="269"/>
-      <c r="I173" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J173" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="K173" s="269"/>
-      <c r="L173" s="269"/>
-      <c r="M173" s="278">
-        <v>0</v>
-      </c>
-      <c r="N173" s="278">
-        <v>0</v>
-      </c>
-      <c r="O173" s="278">
-        <v>0</v>
-      </c>
-      <c r="P173" s="278">
+      <c r="H173" s="271"/>
+      <c r="I173" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K173" s="271"/>
+      <c r="L173" s="271"/>
+      <c r="M173" s="276">
+        <v>0</v>
+      </c>
+      <c r="N173" s="276">
+        <v>0</v>
+      </c>
+      <c r="O173" s="276">
+        <v>0</v>
+      </c>
+      <c r="P173" s="276">
         <v>6</v>
       </c>
-      <c r="Q173" s="278">
-        <v>0</v>
-      </c>
-      <c r="R173" s="271">
+      <c r="Q173" s="276">
+        <v>0</v>
+      </c>
+      <c r="R173" s="273">
         <f>F173/$F$2</f>
         <v>3</v>
       </c>
@@ -20663,30 +20657,30 @@
       <c r="T173" s="47"/>
     </row>
     <row r="174" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B174" s="292"/>
+      <c r="B174" s="310"/>
       <c r="C174" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D174" s="323"/>
-      <c r="E174" s="275"/>
-      <c r="F174" s="276"/>
-      <c r="G174" s="276"/>
-      <c r="H174" s="277"/>
-      <c r="I174" s="277"/>
-      <c r="J174" s="277"/>
-      <c r="K174" s="277"/>
-      <c r="L174" s="283"/>
-      <c r="M174" s="279"/>
-      <c r="N174" s="279"/>
-      <c r="O174" s="279"/>
-      <c r="P174" s="279"/>
-      <c r="Q174" s="279"/>
-      <c r="R174" s="273"/>
+      <c r="D174" s="281"/>
+      <c r="E174" s="317"/>
+      <c r="F174" s="323"/>
+      <c r="G174" s="323"/>
+      <c r="H174" s="279"/>
+      <c r="I174" s="279"/>
+      <c r="J174" s="279"/>
+      <c r="K174" s="279"/>
+      <c r="L174" s="278"/>
+      <c r="M174" s="277"/>
+      <c r="N174" s="277"/>
+      <c r="O174" s="277"/>
+      <c r="P174" s="277"/>
+      <c r="Q174" s="277"/>
+      <c r="R174" s="303"/>
       <c r="S174" s="47"/>
       <c r="T174" s="47"/>
     </row>
     <row r="175" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="293"/>
+      <c r="B175" s="311"/>
       <c r="C175" s="17" t="s">
         <v>11</v>
       </c>
@@ -20742,7 +20736,7 @@
       <c r="T175" s="47"/>
     </row>
     <row r="176" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B176" s="280" t="s">
+      <c r="B176" s="307" t="s">
         <v>86</v>
       </c>
       <c r="C176" s="19" t="s">
@@ -20794,7 +20788,7 @@
       <c r="T176" s="47"/>
     </row>
     <row r="177" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B177" s="281"/>
+      <c r="B177" s="308"/>
       <c r="C177" s="147" t="s">
         <v>260</v>
       </c>
@@ -20844,7 +20838,7 @@
       <c r="T177" s="47"/>
     </row>
     <row r="178" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B178" s="281"/>
+      <c r="B178" s="308"/>
       <c r="C178" s="19" t="s">
         <v>350</v>
       </c>
@@ -20894,7 +20888,7 @@
       <c r="T178" s="47"/>
     </row>
     <row r="179" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B179" s="281"/>
+      <c r="B179" s="308"/>
       <c r="C179" s="43" t="s">
         <v>351</v>
       </c>
@@ -20944,7 +20938,7 @@
       <c r="T179" s="47"/>
     </row>
     <row r="180" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B180" s="281"/>
+      <c r="B180" s="308"/>
       <c r="C180" s="43" t="s">
         <v>265</v>
       </c>
@@ -20994,7 +20988,7 @@
       <c r="T180" s="47"/>
     </row>
     <row r="181" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B181" s="281"/>
+      <c r="B181" s="308"/>
       <c r="C181" s="43" t="s">
         <v>303</v>
       </c>
@@ -21044,7 +21038,7 @@
       <c r="T181" s="47"/>
     </row>
     <row r="182" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B182" s="281"/>
+      <c r="B182" s="308"/>
       <c r="C182" s="43" t="s">
         <v>276</v>
       </c>
@@ -21094,7 +21088,7 @@
       <c r="T182" s="47"/>
     </row>
     <row r="183" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B183" s="281"/>
+      <c r="B183" s="308"/>
       <c r="C183" s="22" t="s">
         <v>277</v>
       </c>
@@ -21144,49 +21138,49 @@
       <c r="T183" s="47"/>
     </row>
     <row r="184" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B184" s="281"/>
+      <c r="B184" s="308"/>
       <c r="C184" s="22" t="s">
         <v>377</v>
       </c>
       <c r="D184" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="E184" s="274" t="s">
+      <c r="E184" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F184" s="271">
+      <c r="F184" s="273">
         <f>SUM(M184:Q184)*$F$1</f>
         <v>384</v>
       </c>
-      <c r="G184" s="271">
+      <c r="G184" s="273">
         <f t="shared" si="82"/>
         <v>384</v>
       </c>
-      <c r="H184" s="271"/>
-      <c r="I184" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="J184" s="269"/>
-      <c r="K184" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="L184" s="269"/>
-      <c r="M184" s="271">
+      <c r="H184" s="273"/>
+      <c r="I184" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="271"/>
+      <c r="K184" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="L184" s="271"/>
+      <c r="M184" s="273">
         <v>12</v>
       </c>
-      <c r="N184" s="271">
+      <c r="N184" s="273">
         <v>12</v>
       </c>
-      <c r="O184" s="271">
+      <c r="O184" s="273">
         <v>12</v>
       </c>
-      <c r="P184" s="271">
+      <c r="P184" s="273">
         <v>12</v>
       </c>
-      <c r="Q184" s="271">
-        <v>0</v>
-      </c>
-      <c r="R184" s="284">
+      <c r="Q184" s="273">
+        <v>0</v>
+      </c>
+      <c r="R184" s="304">
         <f>F184/$F$2/3*2</f>
         <v>16</v>
       </c>
@@ -21194,32 +21188,32 @@
       <c r="T184" s="47"/>
     </row>
     <row r="185" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B185" s="281"/>
+      <c r="B185" s="308"/>
       <c r="C185" s="147" t="s">
         <v>379</v>
       </c>
       <c r="D185" s="154" t="s">
         <v>378</v>
       </c>
-      <c r="E185" s="275"/>
-      <c r="F185" s="272"/>
-      <c r="G185" s="272"/>
-      <c r="H185" s="272"/>
-      <c r="I185" s="270"/>
-      <c r="J185" s="270"/>
-      <c r="K185" s="270"/>
-      <c r="L185" s="270"/>
-      <c r="M185" s="272"/>
-      <c r="N185" s="272"/>
-      <c r="O185" s="272"/>
-      <c r="P185" s="272"/>
-      <c r="Q185" s="272"/>
-      <c r="R185" s="272"/>
+      <c r="E185" s="317"/>
+      <c r="F185" s="287"/>
+      <c r="G185" s="287"/>
+      <c r="H185" s="287"/>
+      <c r="I185" s="286"/>
+      <c r="J185" s="286"/>
+      <c r="K185" s="286"/>
+      <c r="L185" s="286"/>
+      <c r="M185" s="287"/>
+      <c r="N185" s="287"/>
+      <c r="O185" s="287"/>
+      <c r="P185" s="287"/>
+      <c r="Q185" s="287"/>
+      <c r="R185" s="287"/>
       <c r="S185" s="47"/>
       <c r="T185" s="47"/>
     </row>
     <row r="186" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B186" s="282"/>
+      <c r="B186" s="309"/>
       <c r="C186" s="33" t="s">
         <v>11</v>
       </c>
@@ -21275,7 +21269,7 @@
       <c r="T186" s="47"/>
     </row>
     <row r="187" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B187" s="280" t="s">
+      <c r="B187" s="307" t="s">
         <v>87</v>
       </c>
       <c r="C187" s="19" t="s">
@@ -21327,7 +21321,7 @@
       <c r="T187" s="47"/>
     </row>
     <row r="188" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B188" s="281"/>
+      <c r="B188" s="308"/>
       <c r="C188" s="43" t="s">
         <v>261</v>
       </c>
@@ -21377,7 +21371,7 @@
       <c r="T188" s="47"/>
     </row>
     <row r="189" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B189" s="281"/>
+      <c r="B189" s="308"/>
       <c r="C189" s="19" t="s">
         <v>278</v>
       </c>
@@ -21427,7 +21421,7 @@
       <c r="T189" s="47"/>
     </row>
     <row r="190" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B190" s="281"/>
+      <c r="B190" s="308"/>
       <c r="C190" s="22" t="s">
         <v>279</v>
       </c>
@@ -21477,7 +21471,7 @@
       <c r="T190" s="47"/>
     </row>
     <row r="191" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B191" s="281"/>
+      <c r="B191" s="308"/>
       <c r="C191" s="22" t="s">
         <v>102</v>
       </c>
@@ -21527,7 +21521,7 @@
       <c r="T191" s="47"/>
     </row>
     <row r="192" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B192" s="282"/>
+      <c r="B192" s="309"/>
       <c r="C192" s="33" t="s">
         <v>11</v>
       </c>
@@ -21613,14 +21607,14 @@
       <c r="I194" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J194" s="311" t="s">
+      <c r="J194" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K194" s="312"/>
-      <c r="L194" s="320" t="s">
+      <c r="K194" s="285"/>
+      <c r="L194" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M194" s="321"/>
+      <c r="M194" s="294"/>
       <c r="N194" s="84" t="s">
         <v>49</v>
       </c>
@@ -21823,29 +21817,262 @@
     </row>
   </sheetData>
   <mergeCells count="303">
-    <mergeCell ref="S98:S99"/>
-    <mergeCell ref="S100:S101"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="S104:S105"/>
-    <mergeCell ref="S106:S107"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="P100:P101"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="P104:P105"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="M184:M185"/>
+    <mergeCell ref="N184:N185"/>
+    <mergeCell ref="R169:R170"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="R171:R172"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="H169:H170"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="B187:B192"/>
+    <mergeCell ref="N173:N174"/>
+    <mergeCell ref="O173:O174"/>
+    <mergeCell ref="Q173:Q174"/>
+    <mergeCell ref="R173:R174"/>
+    <mergeCell ref="B176:B186"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="O184:O185"/>
+    <mergeCell ref="P184:P185"/>
+    <mergeCell ref="Q184:Q185"/>
+    <mergeCell ref="R184:R185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="R165:R166"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="N167:N168"/>
+    <mergeCell ref="O167:O168"/>
+    <mergeCell ref="Q167:Q168"/>
+    <mergeCell ref="R167:R168"/>
+    <mergeCell ref="P165:P166"/>
+    <mergeCell ref="P167:P168"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="B8:B28"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:F131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B84:B108"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B132:B151"/>
+    <mergeCell ref="B152:B175"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M62:Q62"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="Q104:Q105"/>
+    <mergeCell ref="P118:P119"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="H106:H107"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="I106:I107"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="R130:R131"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="Q106:Q107"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="R104:R105"/>
+    <mergeCell ref="R106:R107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="L130:L131"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="R118:R119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R100:R101"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="L194:M194"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="M130:Q130"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="O165:O166"/>
+    <mergeCell ref="Q165:Q166"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="P171:P172"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="Q171:Q172"/>
+    <mergeCell ref="J184:J185"/>
     <mergeCell ref="D167:D168"/>
     <mergeCell ref="D169:D170"/>
     <mergeCell ref="D171:D172"/>
@@ -21870,262 +22097,29 @@
     <mergeCell ref="L51:L52"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="I118:I119"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="L194:M194"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="M130:Q130"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="O165:O166"/>
-    <mergeCell ref="Q165:Q166"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="P171:P172"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="N171:N172"/>
-    <mergeCell ref="O171:O172"/>
-    <mergeCell ref="Q171:Q172"/>
-    <mergeCell ref="J184:J185"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R100:R101"/>
-    <mergeCell ref="R130:R131"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="Q106:Q107"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="R104:R105"/>
-    <mergeCell ref="R106:R107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="L130:L131"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="R118:R119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M62:Q62"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="Q104:Q105"/>
-    <mergeCell ref="P118:P119"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="B109:B120"/>
-    <mergeCell ref="B64:B83"/>
-    <mergeCell ref="B84:B108"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B132:B151"/>
-    <mergeCell ref="B152:B175"/>
-    <mergeCell ref="E165:E166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:F131"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="B8:B28"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="R165:R166"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="G167:G168"/>
-    <mergeCell ref="H167:H168"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="N167:N168"/>
-    <mergeCell ref="O167:O168"/>
-    <mergeCell ref="Q167:Q168"/>
-    <mergeCell ref="R167:R168"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="P167:P168"/>
-    <mergeCell ref="G165:G166"/>
-    <mergeCell ref="H165:H166"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="B187:B192"/>
-    <mergeCell ref="N173:N174"/>
-    <mergeCell ref="O173:O174"/>
-    <mergeCell ref="Q173:Q174"/>
-    <mergeCell ref="R173:R174"/>
-    <mergeCell ref="B176:B186"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="O184:O185"/>
-    <mergeCell ref="P184:P185"/>
-    <mergeCell ref="Q184:Q185"/>
-    <mergeCell ref="R184:R185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="I184:I185"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="M184:M185"/>
-    <mergeCell ref="N184:N185"/>
-    <mergeCell ref="R169:R170"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="R171:R172"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="H169:H170"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="S98:S99"/>
+    <mergeCell ref="S100:S101"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="S104:S105"/>
+    <mergeCell ref="S106:S107"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="P100:P101"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="P104:P105"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -22149,8 +22143,8 @@
   </sheetPr>
   <dimension ref="A1:X156"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A101" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O132" sqref="O132"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A50" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -22204,55 +22198,55 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="298" t="s">
+      <c r="B5" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="303" t="s">
+      <c r="D5" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="305" t="s">
+      <c r="E5" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="305" t="s">
+      <c r="G5" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="307"/>
+      <c r="I5" s="290"/>
       <c r="J5" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="307"/>
-      <c r="L5" s="328" t="s">
+      <c r="K5" s="290"/>
+      <c r="L5" s="327" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="290"/>
-      <c r="O5" s="290"/>
-      <c r="P5" s="290"/>
-      <c r="Q5" s="307"/>
-      <c r="R5" s="298" t="s">
+      <c r="N5" s="295"/>
+      <c r="O5" s="295"/>
+      <c r="P5" s="295"/>
+      <c r="Q5" s="290"/>
+      <c r="R5" s="297" t="s">
         <v>35</v>
       </c>
       <c r="S5" s="58"/>
       <c r="T5" s="241"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="299"/>
-      <c r="C6" s="314"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306"/>
+      <c r="B6" s="298"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="321"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="319"/>
       <c r="H6" s="90" t="s">
         <v>8</v>
       </c>
@@ -22265,7 +22259,7 @@
       <c r="K6" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="329"/>
+      <c r="L6" s="328"/>
       <c r="M6" s="10" t="s">
         <v>22</v>
       </c>
@@ -22281,12 +22275,12 @@
       <c r="Q6" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="299"/>
+      <c r="R6" s="298"/>
       <c r="S6" s="59"/>
       <c r="T6" s="242"/>
     </row>
     <row r="7" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="310" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -22338,7 +22332,7 @@
       <c r="T7" s="172"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B8" s="292"/>
+      <c r="B8" s="310"/>
       <c r="C8" s="43" t="s">
         <v>103</v>
       </c>
@@ -22388,7 +22382,7 @@
       <c r="T8" s="172"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B9" s="292"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>261</v>
       </c>
@@ -22438,7 +22432,7 @@
       <c r="T9" s="172"/>
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B10" s="292"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
@@ -22488,7 +22482,7 @@
       <c r="T10" s="172"/>
     </row>
     <row r="11" spans="1:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B11" s="292"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="173" t="s">
         <v>130</v>
       </c>
@@ -22538,7 +22532,7 @@
       <c r="T11" s="172"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B12" s="292"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="43" t="s">
         <v>305</v>
       </c>
@@ -22588,7 +22582,7 @@
       <c r="T12" s="172"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B13" s="292"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>306</v>
       </c>
@@ -22638,7 +22632,7 @@
       <c r="T13" s="172"/>
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B14" s="292"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>238</v>
       </c>
@@ -22688,7 +22682,7 @@
       <c r="T14" s="172"/>
     </row>
     <row r="15" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="292"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="147" t="s">
         <v>239</v>
       </c>
@@ -22738,7 +22732,7 @@
       <c r="T15" s="172"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B16" s="292"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="19" t="s">
         <v>68</v>
       </c>
@@ -22788,7 +22782,7 @@
       <c r="T16" s="172"/>
     </row>
     <row r="17" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B17" s="292"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>74</v>
       </c>
@@ -22838,7 +22832,7 @@
       <c r="T17" s="172"/>
     </row>
     <row r="18" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B18" s="292"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="43" t="s">
         <v>77</v>
       </c>
@@ -22888,7 +22882,7 @@
       <c r="T18" s="172"/>
     </row>
     <row r="19" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B19" s="292"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="43" t="s">
         <v>78</v>
       </c>
@@ -22938,7 +22932,7 @@
       <c r="T19" s="172"/>
     </row>
     <row r="20" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B20" s="292"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="43" t="s">
         <v>79</v>
       </c>
@@ -22988,7 +22982,7 @@
       <c r="T20" s="172"/>
     </row>
     <row r="21" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B21" s="292"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="43" t="s">
         <v>80</v>
       </c>
@@ -23038,7 +23032,7 @@
       <c r="T21" s="172"/>
     </row>
     <row r="22" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B22" s="292"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="43" t="s">
         <v>268</v>
       </c>
@@ -23088,7 +23082,7 @@
       <c r="T22" s="172"/>
     </row>
     <row r="23" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="292"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="43" t="s">
         <v>269</v>
       </c>
@@ -23138,7 +23132,7 @@
       <c r="T23" s="172"/>
     </row>
     <row r="24" spans="1:23" ht="16.5" hidden="1" customHeight="1">
-      <c r="B24" s="292"/>
+      <c r="B24" s="310"/>
       <c r="C24" s="175" t="s">
         <v>280</v>
       </c>
@@ -23188,7 +23182,7 @@
       <c r="T24" s="172"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="B25" s="292"/>
+      <c r="B25" s="310"/>
       <c r="C25" s="177" t="s">
         <v>281</v>
       </c>
@@ -23240,7 +23234,7 @@
       <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B26" s="293"/>
+      <c r="B26" s="311"/>
       <c r="C26" s="17" t="s">
         <v>11</v>
       </c>
@@ -23329,14 +23323,14 @@
       <c r="I28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="311" t="s">
+      <c r="J28" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="312"/>
-      <c r="L28" s="320" t="s">
+      <c r="K28" s="285"/>
+      <c r="L28" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="321"/>
+      <c r="M28" s="294"/>
       <c r="N28" s="84" t="s">
         <v>49</v>
       </c>
@@ -23493,55 +23487,55 @@
       <c r="T33" s="244"/>
     </row>
     <row r="34" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B34" s="298" t="s">
+      <c r="B34" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="303" t="s">
+      <c r="D34" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="305" t="s">
+      <c r="E34" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="305" t="s">
+      <c r="G34" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="307"/>
+      <c r="I34" s="290"/>
       <c r="J34" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="307"/>
-      <c r="L34" s="328" t="s">
+      <c r="K34" s="290"/>
+      <c r="L34" s="327" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N34" s="290"/>
-      <c r="O34" s="290"/>
-      <c r="P34" s="290"/>
-      <c r="Q34" s="307"/>
-      <c r="R34" s="298" t="s">
+      <c r="N34" s="295"/>
+      <c r="O34" s="295"/>
+      <c r="P34" s="295"/>
+      <c r="Q34" s="290"/>
+      <c r="R34" s="297" t="s">
         <v>35</v>
       </c>
       <c r="S34" s="58"/>
       <c r="T34" s="241"/>
     </row>
     <row r="35" spans="2:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="299"/>
-      <c r="C35" s="314"/>
-      <c r="D35" s="304"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="306"/>
-      <c r="G35" s="306"/>
+      <c r="B35" s="298"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="321"/>
+      <c r="E35" s="298"/>
+      <c r="F35" s="319"/>
+      <c r="G35" s="319"/>
       <c r="H35" s="90" t="s">
         <v>8</v>
       </c>
@@ -23554,7 +23548,7 @@
       <c r="K35" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L35" s="329"/>
+      <c r="L35" s="328"/>
       <c r="M35" s="10" t="s">
         <v>22</v>
       </c>
@@ -23570,12 +23564,12 @@
       <c r="Q35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R35" s="299"/>
+      <c r="R35" s="298"/>
       <c r="S35" s="59"/>
       <c r="T35" s="242"/>
     </row>
     <row r="36" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B36" s="292" t="s">
+      <c r="B36" s="310" t="s">
         <v>137</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -23627,7 +23621,7 @@
       <c r="T36" s="172"/>
     </row>
     <row r="37" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B37" s="292"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="43" t="s">
         <v>103</v>
       </c>
@@ -23677,7 +23671,7 @@
       <c r="T37" s="172"/>
     </row>
     <row r="38" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B38" s="292"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="43" t="s">
         <v>260</v>
       </c>
@@ -23727,7 +23721,7 @@
       <c r="T38" s="172"/>
     </row>
     <row r="39" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B39" s="292"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="43" t="s">
         <v>66</v>
       </c>
@@ -23777,7 +23771,7 @@
       <c r="T39" s="172"/>
     </row>
     <row r="40" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B40" s="292"/>
+      <c r="B40" s="310"/>
       <c r="C40" s="173" t="s">
         <v>130</v>
       </c>
@@ -23827,7 +23821,7 @@
       <c r="T40" s="172"/>
     </row>
     <row r="41" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B41" s="292"/>
+      <c r="B41" s="310"/>
       <c r="C41" s="173" t="s">
         <v>75</v>
       </c>
@@ -23877,7 +23871,7 @@
       <c r="T41" s="172"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" hidden="1" customHeight="1">
-      <c r="B42" s="292"/>
+      <c r="B42" s="310"/>
       <c r="C42" s="173" t="s">
         <v>76</v>
       </c>
@@ -23927,7 +23921,7 @@
       <c r="T42" s="172"/>
     </row>
     <row r="43" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B43" s="292"/>
+      <c r="B43" s="310"/>
       <c r="C43" s="43" t="s">
         <v>238</v>
       </c>
@@ -23977,7 +23971,7 @@
       <c r="T43" s="172"/>
     </row>
     <row r="44" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B44" s="292"/>
+      <c r="B44" s="310"/>
       <c r="C44" s="147" t="s">
         <v>239</v>
       </c>
@@ -24027,7 +24021,7 @@
       <c r="T44" s="172"/>
     </row>
     <row r="45" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B45" s="292"/>
+      <c r="B45" s="310"/>
       <c r="C45" s="19" t="s">
         <v>68</v>
       </c>
@@ -24077,7 +24071,7 @@
       <c r="T45" s="172"/>
     </row>
     <row r="46" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B46" s="292"/>
+      <c r="B46" s="310"/>
       <c r="C46" s="43" t="s">
         <v>266</v>
       </c>
@@ -24127,7 +24121,7 @@
       <c r="T46" s="172"/>
     </row>
     <row r="47" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B47" s="292"/>
+      <c r="B47" s="310"/>
       <c r="C47" s="22" t="s">
         <v>308</v>
       </c>
@@ -24177,7 +24171,7 @@
       <c r="T47" s="172"/>
     </row>
     <row r="48" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B48" s="292"/>
+      <c r="B48" s="310"/>
       <c r="C48" s="43" t="s">
         <v>128</v>
       </c>
@@ -24227,7 +24221,7 @@
       <c r="T48" s="172"/>
     </row>
     <row r="49" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B49" s="292"/>
+      <c r="B49" s="310"/>
       <c r="C49" s="43" t="s">
         <v>74</v>
       </c>
@@ -24277,7 +24271,7 @@
       <c r="T49" s="172"/>
     </row>
     <row r="50" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B50" s="292"/>
+      <c r="B50" s="310"/>
       <c r="C50" s="43" t="s">
         <v>77</v>
       </c>
@@ -24327,7 +24321,7 @@
       <c r="T50" s="172"/>
     </row>
     <row r="51" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B51" s="292"/>
+      <c r="B51" s="310"/>
       <c r="C51" s="43" t="s">
         <v>78</v>
       </c>
@@ -24377,7 +24371,7 @@
       <c r="T51" s="172"/>
     </row>
     <row r="52" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B52" s="292"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="43" t="s">
         <v>79</v>
       </c>
@@ -24427,7 +24421,7 @@
       <c r="T52" s="172"/>
     </row>
     <row r="53" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B53" s="292"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="43" t="s">
         <v>80</v>
       </c>
@@ -24477,7 +24471,7 @@
       <c r="T53" s="172"/>
     </row>
     <row r="54" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B54" s="292"/>
+      <c r="B54" s="310"/>
       <c r="C54" s="43" t="s">
         <v>133</v>
       </c>
@@ -24527,7 +24521,7 @@
       <c r="T54" s="172"/>
     </row>
     <row r="55" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B55" s="292"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="43" t="s">
         <v>268</v>
       </c>
@@ -24577,7 +24571,7 @@
       <c r="T55" s="172"/>
     </row>
     <row r="56" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B56" s="292"/>
+      <c r="B56" s="310"/>
       <c r="C56" s="43" t="s">
         <v>269</v>
       </c>
@@ -24627,7 +24621,7 @@
       <c r="T56" s="172"/>
     </row>
     <row r="57" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B57" s="292"/>
+      <c r="B57" s="310"/>
       <c r="C57" s="43" t="s">
         <v>280</v>
       </c>
@@ -24677,7 +24671,7 @@
       <c r="T57" s="172"/>
     </row>
     <row r="58" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B58" s="292"/>
+      <c r="B58" s="310"/>
       <c r="C58" s="43" t="s">
         <v>372</v>
       </c>
@@ -24727,7 +24721,7 @@
       <c r="T58" s="172"/>
     </row>
     <row r="59" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B59" s="292"/>
+      <c r="B59" s="310"/>
       <c r="C59" s="43" t="s">
         <v>373</v>
       </c>
@@ -24777,7 +24771,7 @@
       <c r="T59" s="172"/>
     </row>
     <row r="60" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B60" s="292"/>
+      <c r="B60" s="310"/>
       <c r="C60" s="169" t="s">
         <v>374</v>
       </c>
@@ -24829,7 +24823,7 @@
       <c r="V60" s="6"/>
     </row>
     <row r="61" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B61" s="293"/>
+      <c r="B61" s="311"/>
       <c r="C61" s="17" t="s">
         <v>11</v>
       </c>
@@ -24888,7 +24882,7 @@
       <c r="W61" s="6"/>
     </row>
     <row r="62" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B62" s="294" t="s">
+      <c r="B62" s="312" t="s">
         <v>138</v>
       </c>
       <c r="C62" s="19" t="s">
@@ -24940,7 +24934,7 @@
       <c r="T62" s="172"/>
     </row>
     <row r="63" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B63" s="292"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="43" t="s">
         <v>309</v>
       </c>
@@ -24990,7 +24984,7 @@
       <c r="T63" s="172"/>
     </row>
     <row r="64" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B64" s="292"/>
+      <c r="B64" s="310"/>
       <c r="C64" s="146" t="s">
         <v>70</v>
       </c>
@@ -25040,7 +25034,7 @@
       <c r="T64" s="172"/>
     </row>
     <row r="65" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B65" s="292"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="19" t="s">
         <v>117</v>
       </c>
@@ -25090,7 +25084,7 @@
       <c r="T65" s="172"/>
     </row>
     <row r="66" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B66" s="292"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="43" t="s">
         <v>118</v>
       </c>
@@ -25140,7 +25134,7 @@
       <c r="T66" s="172"/>
     </row>
     <row r="67" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B67" s="292"/>
+      <c r="B67" s="310"/>
       <c r="C67" s="43" t="s">
         <v>131</v>
       </c>
@@ -25190,7 +25184,7 @@
       <c r="T67" s="172"/>
     </row>
     <row r="68" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B68" s="292"/>
+      <c r="B68" s="310"/>
       <c r="C68" s="43" t="s">
         <v>129</v>
       </c>
@@ -25240,7 +25234,7 @@
       <c r="T68" s="172"/>
     </row>
     <row r="69" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B69" s="292"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>382</v>
       </c>
@@ -25290,7 +25284,7 @@
       <c r="T69" s="172"/>
     </row>
     <row r="70" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B70" s="292"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="22" t="s">
         <v>380</v>
       </c>
@@ -25340,7 +25334,7 @@
       <c r="T70" s="172"/>
     </row>
     <row r="71" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B71" s="292"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="22" t="s">
         <v>381</v>
       </c>
@@ -25390,7 +25384,7 @@
       <c r="T71" s="172"/>
     </row>
     <row r="72" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B72" s="292"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="22" t="s">
         <v>155</v>
       </c>
@@ -25442,7 +25436,7 @@
       <c r="T72" s="172"/>
     </row>
     <row r="73" spans="2:23" ht="16.5" customHeight="1">
-      <c r="B73" s="292"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="22" t="s">
         <v>71</v>
       </c>
@@ -25492,7 +25486,7 @@
       <c r="T73" s="172"/>
     </row>
     <row r="74" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="292"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="22" t="s">
         <v>226</v>
       </c>
@@ -25542,7 +25536,7 @@
       <c r="T74" s="172"/>
     </row>
     <row r="75" spans="2:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B75" s="293"/>
+      <c r="B75" s="311"/>
       <c r="C75" s="17" t="s">
         <v>11</v>
       </c>
@@ -25631,14 +25625,14 @@
       <c r="I77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J77" s="311" t="s">
+      <c r="J77" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K77" s="312"/>
-      <c r="L77" s="320" t="s">
+      <c r="K77" s="285"/>
+      <c r="L77" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M77" s="321"/>
+      <c r="M77" s="294"/>
       <c r="N77" s="84" t="s">
         <v>49</v>
       </c>
@@ -25834,55 +25828,55 @@
       <c r="T83" s="244"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B84" s="298" t="s">
+      <c r="B84" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D84" s="303" t="s">
+      <c r="D84" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="305" t="s">
+      <c r="E84" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G84" s="305" t="s">
+      <c r="G84" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H84" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="307"/>
+      <c r="I84" s="290"/>
       <c r="J84" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K84" s="307"/>
-      <c r="L84" s="328" t="s">
+      <c r="K84" s="290"/>
+      <c r="L84" s="327" t="s">
         <v>26</v>
       </c>
       <c r="M84" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N84" s="290"/>
-      <c r="O84" s="290"/>
-      <c r="P84" s="290"/>
-      <c r="Q84" s="307"/>
-      <c r="R84" s="298" t="s">
+      <c r="N84" s="295"/>
+      <c r="O84" s="295"/>
+      <c r="P84" s="295"/>
+      <c r="Q84" s="290"/>
+      <c r="R84" s="297" t="s">
         <v>35</v>
       </c>
       <c r="S84" s="58"/>
       <c r="T84" s="241"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="B85" s="299"/>
-      <c r="C85" s="314"/>
-      <c r="D85" s="304"/>
-      <c r="E85" s="299"/>
-      <c r="F85" s="306"/>
-      <c r="G85" s="306"/>
+      <c r="B85" s="298"/>
+      <c r="C85" s="324"/>
+      <c r="D85" s="321"/>
+      <c r="E85" s="298"/>
+      <c r="F85" s="319"/>
+      <c r="G85" s="319"/>
       <c r="H85" s="90" t="s">
         <v>8</v>
       </c>
@@ -25895,7 +25889,7 @@
       <c r="K85" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L85" s="329"/>
+      <c r="L85" s="328"/>
       <c r="M85" s="10" t="s">
         <v>22</v>
       </c>
@@ -25911,12 +25905,12 @@
       <c r="Q85" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R85" s="299"/>
+      <c r="R85" s="298"/>
       <c r="S85" s="59"/>
       <c r="T85" s="242"/>
     </row>
     <row r="86" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B86" s="292" t="s">
+      <c r="B86" s="310" t="s">
         <v>140</v>
       </c>
       <c r="C86" s="19" t="s">
@@ -25968,7 +25962,7 @@
       <c r="T86" s="172"/>
     </row>
     <row r="87" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B87" s="292"/>
+      <c r="B87" s="310"/>
       <c r="C87" s="43" t="s">
         <v>103</v>
       </c>
@@ -26018,7 +26012,7 @@
       <c r="T87" s="172"/>
     </row>
     <row r="88" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B88" s="292"/>
+      <c r="B88" s="310"/>
       <c r="C88" s="43" t="s">
         <v>238</v>
       </c>
@@ -26068,7 +26062,7 @@
       <c r="T88" s="172"/>
     </row>
     <row r="89" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B89" s="292"/>
+      <c r="B89" s="310"/>
       <c r="C89" s="43" t="s">
         <v>239</v>
       </c>
@@ -26118,7 +26112,7 @@
       <c r="T89" s="172"/>
     </row>
     <row r="90" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B90" s="292"/>
+      <c r="B90" s="310"/>
       <c r="C90" s="43" t="s">
         <v>64</v>
       </c>
@@ -26170,7 +26164,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B91" s="292"/>
+      <c r="B91" s="310"/>
       <c r="C91" s="43" t="s">
         <v>65</v>
       </c>
@@ -26222,14 +26216,14 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B92" s="292"/>
+      <c r="B92" s="310"/>
       <c r="C92" s="43" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="326" t="s">
+      <c r="E92" s="329" t="s">
         <v>115</v>
       </c>
       <c r="F92" s="24">
@@ -26272,14 +26266,14 @@
       <c r="T92" s="172"/>
     </row>
     <row r="93" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="292"/>
+      <c r="B93" s="310"/>
       <c r="C93" s="147" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="327"/>
+      <c r="E93" s="330"/>
       <c r="F93" s="156">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -26310,7 +26304,7 @@
       <c r="T93" s="172"/>
     </row>
     <row r="94" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B94" s="292"/>
+      <c r="B94" s="310"/>
       <c r="C94" s="19" t="s">
         <v>68</v>
       </c>
@@ -26360,7 +26354,7 @@
       <c r="T94" s="172"/>
     </row>
     <row r="95" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B95" s="292"/>
+      <c r="B95" s="310"/>
       <c r="C95" s="43" t="s">
         <v>357</v>
       </c>
@@ -26412,7 +26406,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="16.5" customHeight="1">
-      <c r="B96" s="292"/>
+      <c r="B96" s="310"/>
       <c r="C96" s="43" t="s">
         <v>263</v>
       </c>
@@ -26464,7 +26458,7 @@
       </c>
     </row>
     <row r="97" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B97" s="292"/>
+      <c r="B97" s="310"/>
       <c r="C97" s="43" t="s">
         <v>264</v>
       </c>
@@ -26516,7 +26510,7 @@
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B98" s="292"/>
+      <c r="B98" s="310"/>
       <c r="C98" s="43" t="s">
         <v>345</v>
       </c>
@@ -26568,7 +26562,7 @@
       </c>
     </row>
     <row r="99" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B99" s="292"/>
+      <c r="B99" s="310"/>
       <c r="C99" s="43" t="s">
         <v>133</v>
       </c>
@@ -26620,7 +26614,7 @@
       </c>
     </row>
     <row r="100" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B100" s="292"/>
+      <c r="B100" s="310"/>
       <c r="C100" s="43" t="s">
         <v>134</v>
       </c>
@@ -26672,7 +26666,7 @@
       </c>
     </row>
     <row r="101" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B101" s="292"/>
+      <c r="B101" s="310"/>
       <c r="C101" s="43" t="s">
         <v>313</v>
       </c>
@@ -26722,7 +26716,7 @@
       <c r="T101" s="172"/>
     </row>
     <row r="102" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B102" s="292"/>
+      <c r="B102" s="310"/>
       <c r="C102" s="22" t="s">
         <v>267</v>
       </c>
@@ -26772,7 +26766,7 @@
       <c r="T102" s="172"/>
     </row>
     <row r="103" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B103" s="292"/>
+      <c r="B103" s="310"/>
       <c r="C103" s="43" t="s">
         <v>128</v>
       </c>
@@ -26822,7 +26816,7 @@
       <c r="T103" s="172"/>
     </row>
     <row r="104" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B104" s="292"/>
+      <c r="B104" s="310"/>
       <c r="C104" s="43" t="s">
         <v>74</v>
       </c>
@@ -26872,7 +26866,7 @@
       <c r="T104" s="172"/>
     </row>
     <row r="105" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B105" s="292"/>
+      <c r="B105" s="310"/>
       <c r="C105" s="43" t="s">
         <v>77</v>
       </c>
@@ -26922,7 +26916,7 @@
       <c r="T105" s="172"/>
     </row>
     <row r="106" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B106" s="292"/>
+      <c r="B106" s="310"/>
       <c r="C106" s="43" t="s">
         <v>78</v>
       </c>
@@ -26972,7 +26966,7 @@
       <c r="T106" s="172"/>
     </row>
     <row r="107" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B107" s="292"/>
+      <c r="B107" s="310"/>
       <c r="C107" s="43" t="s">
         <v>79</v>
       </c>
@@ -27022,7 +27016,7 @@
       <c r="T107" s="172"/>
     </row>
     <row r="108" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B108" s="292"/>
+      <c r="B108" s="310"/>
       <c r="C108" s="43" t="s">
         <v>80</v>
       </c>
@@ -27072,7 +27066,7 @@
       <c r="T108" s="172"/>
     </row>
     <row r="109" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B109" s="292"/>
+      <c r="B109" s="310"/>
       <c r="C109" s="43" t="s">
         <v>268</v>
       </c>
@@ -27122,7 +27116,7 @@
       <c r="T109" s="172"/>
     </row>
     <row r="110" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B110" s="292"/>
+      <c r="B110" s="310"/>
       <c r="C110" s="43" t="s">
         <v>269</v>
       </c>
@@ -27172,7 +27166,7 @@
       <c r="T110" s="172"/>
     </row>
     <row r="111" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B111" s="293"/>
+      <c r="B111" s="311"/>
       <c r="C111" s="17" t="s">
         <v>11</v>
       </c>
@@ -27229,7 +27223,7 @@
       <c r="X111" s="109"/>
     </row>
     <row r="112" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B112" s="294" t="s">
+      <c r="B112" s="312" t="s">
         <v>142</v>
       </c>
       <c r="C112" s="19" t="s">
@@ -27281,7 +27275,7 @@
       <c r="T112" s="172"/>
     </row>
     <row r="113" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B113" s="292"/>
+      <c r="B113" s="310"/>
       <c r="C113" s="43" t="s">
         <v>260</v>
       </c>
@@ -27331,7 +27325,7 @@
       <c r="T113" s="172"/>
     </row>
     <row r="114" spans="2:20" ht="16.350000000000001" customHeight="1">
-      <c r="B114" s="292"/>
+      <c r="B114" s="310"/>
       <c r="C114" s="43" t="s">
         <v>70</v>
       </c>
@@ -27381,7 +27375,7 @@
       <c r="T114" s="172"/>
     </row>
     <row r="115" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B115" s="292"/>
+      <c r="B115" s="310"/>
       <c r="C115" s="43" t="s">
         <v>72</v>
       </c>
@@ -27433,7 +27427,7 @@
       </c>
     </row>
     <row r="116" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B116" s="292"/>
+      <c r="B116" s="310"/>
       <c r="C116" s="43" t="s">
         <v>314</v>
       </c>
@@ -27483,7 +27477,7 @@
       <c r="T116" s="172"/>
     </row>
     <row r="117" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B117" s="292"/>
+      <c r="B117" s="310"/>
       <c r="C117" s="147" t="s">
         <v>315</v>
       </c>
@@ -27523,7 +27517,7 @@
       <c r="T117" s="172"/>
     </row>
     <row r="118" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B118" s="292"/>
+      <c r="B118" s="310"/>
       <c r="C118" s="200" t="s">
         <v>73</v>
       </c>
@@ -27575,7 +27569,7 @@
       </c>
     </row>
     <row r="119" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B119" s="292"/>
+      <c r="B119" s="310"/>
       <c r="C119" s="259" t="s">
         <v>346</v>
       </c>
@@ -27627,7 +27621,7 @@
       </c>
     </row>
     <row r="120" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B120" s="292"/>
+      <c r="B120" s="310"/>
       <c r="C120" s="259" t="s">
         <v>347</v>
       </c>
@@ -27679,7 +27673,7 @@
       </c>
     </row>
     <row r="121" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B121" s="292"/>
+      <c r="B121" s="310"/>
       <c r="C121" s="259" t="s">
         <v>348</v>
       </c>
@@ -27731,7 +27725,7 @@
       </c>
     </row>
     <row r="122" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B122" s="292"/>
+      <c r="B122" s="310"/>
       <c r="C122" s="259" t="s">
         <v>349</v>
       </c>
@@ -27783,7 +27777,7 @@
       </c>
     </row>
     <row r="123" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B123" s="292"/>
+      <c r="B123" s="310"/>
       <c r="C123" s="259" t="s">
         <v>104</v>
       </c>
@@ -27835,7 +27829,7 @@
       </c>
     </row>
     <row r="124" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B124" s="292"/>
+      <c r="B124" s="310"/>
       <c r="C124" s="259" t="s">
         <v>101</v>
       </c>
@@ -27887,7 +27881,7 @@
       </c>
     </row>
     <row r="125" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B125" s="292"/>
+      <c r="B125" s="310"/>
       <c r="C125" s="22" t="s">
         <v>316</v>
       </c>
@@ -27937,7 +27931,7 @@
       <c r="T125" s="172"/>
     </row>
     <row r="126" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B126" s="292"/>
+      <c r="B126" s="310"/>
       <c r="C126" s="22" t="s">
         <v>317</v>
       </c>
@@ -27987,7 +27981,7 @@
       <c r="T126" s="172"/>
     </row>
     <row r="127" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B127" s="292"/>
+      <c r="B127" s="310"/>
       <c r="C127" s="43" t="s">
         <v>131</v>
       </c>
@@ -28037,7 +28031,7 @@
       <c r="T127" s="172"/>
     </row>
     <row r="128" spans="2:20" ht="16.5" customHeight="1">
-      <c r="B128" s="292"/>
+      <c r="B128" s="310"/>
       <c r="C128" s="22" t="s">
         <v>122</v>
       </c>
@@ -28087,7 +28081,7 @@
       <c r="T128" s="172"/>
     </row>
     <row r="129" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B129" s="292"/>
+      <c r="B129" s="310"/>
       <c r="C129" s="43" t="s">
         <v>119</v>
       </c>
@@ -28137,7 +28131,7 @@
       <c r="T129" s="172"/>
     </row>
     <row r="130" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B130" s="292"/>
+      <c r="B130" s="310"/>
       <c r="C130" s="43" t="s">
         <v>135</v>
       </c>
@@ -28187,7 +28181,7 @@
       <c r="T130" s="172"/>
     </row>
     <row r="131" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B131" s="292"/>
+      <c r="B131" s="310"/>
       <c r="C131" s="43" t="s">
         <v>148</v>
       </c>
@@ -28237,7 +28231,7 @@
       <c r="T131" s="172"/>
     </row>
     <row r="132" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B132" s="292"/>
+      <c r="B132" s="310"/>
       <c r="C132" s="43" t="s">
         <v>149</v>
       </c>
@@ -28287,7 +28281,7 @@
       <c r="T132" s="172"/>
     </row>
     <row r="133" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B133" s="293"/>
+      <c r="B133" s="311"/>
       <c r="C133" s="17" t="s">
         <v>11</v>
       </c>
@@ -28347,7 +28341,7 @@
       <c r="X133" s="109"/>
     </row>
     <row r="134" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B134" s="280" t="s">
+      <c r="B134" s="307" t="s">
         <v>141</v>
       </c>
       <c r="C134" s="19" t="s">
@@ -28399,7 +28393,7 @@
       <c r="T134" s="172"/>
     </row>
     <row r="135" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B135" s="281"/>
+      <c r="B135" s="308"/>
       <c r="C135" s="43" t="s">
         <v>318</v>
       </c>
@@ -28449,7 +28443,7 @@
       <c r="T135" s="172"/>
     </row>
     <row r="136" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B136" s="281"/>
+      <c r="B136" s="308"/>
       <c r="C136" s="43" t="s">
         <v>319</v>
       </c>
@@ -28499,7 +28493,7 @@
       <c r="T136" s="172"/>
     </row>
     <row r="137" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B137" s="281"/>
+      <c r="B137" s="308"/>
       <c r="C137" s="169" t="s">
         <v>320</v>
       </c>
@@ -28539,7 +28533,7 @@
       <c r="T137" s="172"/>
     </row>
     <row r="138" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B138" s="281"/>
+      <c r="B138" s="308"/>
       <c r="C138" s="43" t="s">
         <v>272</v>
       </c>
@@ -28589,7 +28583,7 @@
       <c r="T138" s="172"/>
     </row>
     <row r="139" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B139" s="281"/>
+      <c r="B139" s="308"/>
       <c r="C139" s="22" t="s">
         <v>273</v>
       </c>
@@ -28639,7 +28633,7 @@
       <c r="T139" s="172"/>
     </row>
     <row r="140" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B140" s="281"/>
+      <c r="B140" s="308"/>
       <c r="C140" s="22" t="s">
         <v>321</v>
       </c>
@@ -28689,7 +28683,7 @@
       <c r="T140" s="172"/>
     </row>
     <row r="141" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B141" s="281"/>
+      <c r="B141" s="308"/>
       <c r="C141" s="22" t="s">
         <v>322</v>
       </c>
@@ -28741,7 +28735,7 @@
       </c>
     </row>
     <row r="142" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B142" s="281"/>
+      <c r="B142" s="308"/>
       <c r="C142" s="22" t="s">
         <v>350</v>
       </c>
@@ -28793,7 +28787,7 @@
       </c>
     </row>
     <row r="143" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B143" s="281"/>
+      <c r="B143" s="308"/>
       <c r="C143" s="22" t="s">
         <v>351</v>
       </c>
@@ -28845,7 +28839,7 @@
       </c>
     </row>
     <row r="144" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B144" s="281"/>
+      <c r="B144" s="308"/>
       <c r="C144" s="22" t="s">
         <v>155</v>
       </c>
@@ -28897,49 +28891,49 @@
       <c r="T144" s="172"/>
     </row>
     <row r="145" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B145" s="281"/>
+      <c r="B145" s="308"/>
       <c r="C145" s="22" t="s">
         <v>365</v>
       </c>
       <c r="D145" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E145" s="274" t="s">
+      <c r="E145" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F145" s="271">
+      <c r="F145" s="273">
         <f t="shared" si="94"/>
         <v>128</v>
       </c>
-      <c r="G145" s="271">
+      <c r="G145" s="273">
         <f t="shared" si="97"/>
         <v>128</v>
       </c>
-      <c r="H145" s="269"/>
-      <c r="I145" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="J145" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="K145" s="269"/>
-      <c r="L145" s="269"/>
-      <c r="M145" s="271">
+      <c r="H145" s="271"/>
+      <c r="I145" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="J145" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="K145" s="271"/>
+      <c r="L145" s="271"/>
+      <c r="M145" s="273">
         <v>8</v>
       </c>
-      <c r="N145" s="271">
+      <c r="N145" s="273">
         <v>8</v>
       </c>
-      <c r="O145" s="271">
-        <v>0</v>
-      </c>
-      <c r="P145" s="271">
-        <v>0</v>
-      </c>
-      <c r="Q145" s="271">
-        <v>0</v>
-      </c>
-      <c r="R145" s="271">
+      <c r="O145" s="273">
+        <v>0</v>
+      </c>
+      <c r="P145" s="273">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="273">
+        <v>0</v>
+      </c>
+      <c r="R145" s="273">
         <f>F145/$F$2</f>
         <v>8</v>
       </c>
@@ -28949,76 +28943,76 @@
       </c>
     </row>
     <row r="146" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B146" s="281"/>
+      <c r="B146" s="308"/>
       <c r="C146" s="22" t="s">
         <v>326</v>
       </c>
       <c r="D146" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E146" s="295"/>
-      <c r="F146" s="285"/>
-      <c r="G146" s="285"/>
-      <c r="H146" s="288"/>
-      <c r="I146" s="288"/>
-      <c r="J146" s="288"/>
-      <c r="K146" s="288"/>
-      <c r="L146" s="288"/>
-      <c r="M146" s="285"/>
-      <c r="N146" s="285"/>
-      <c r="O146" s="285"/>
-      <c r="P146" s="285"/>
-      <c r="Q146" s="285"/>
-      <c r="R146" s="287"/>
+      <c r="E146" s="316"/>
+      <c r="F146" s="300"/>
+      <c r="G146" s="300"/>
+      <c r="H146" s="272"/>
+      <c r="I146" s="272"/>
+      <c r="J146" s="272"/>
+      <c r="K146" s="272"/>
+      <c r="L146" s="272"/>
+      <c r="M146" s="300"/>
+      <c r="N146" s="300"/>
+      <c r="O146" s="300"/>
+      <c r="P146" s="300"/>
+      <c r="Q146" s="300"/>
+      <c r="R146" s="288"/>
       <c r="S146" s="47"/>
       <c r="T146" s="172" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="147" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B147" s="281"/>
+      <c r="B147" s="308"/>
       <c r="C147" s="22" t="s">
         <v>366</v>
       </c>
       <c r="D147" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E147" s="274" t="s">
+      <c r="E147" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F147" s="271">
+      <c r="F147" s="273">
         <f t="shared" ref="F147" si="104">SUM(M147:Q147)*$F$1</f>
         <v>192</v>
       </c>
-      <c r="G147" s="271">
+      <c r="G147" s="273">
         <f t="shared" ref="G147" si="105">F147</f>
         <v>192</v>
       </c>
-      <c r="H147" s="269"/>
-      <c r="I147" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="J147" s="269"/>
-      <c r="K147" s="269" t="s">
-        <v>1</v>
-      </c>
-      <c r="L147" s="269"/>
-      <c r="M147" s="271">
-        <v>0</v>
-      </c>
-      <c r="N147" s="271">
-        <v>0</v>
-      </c>
-      <c r="O147" s="271">
+      <c r="H147" s="271"/>
+      <c r="I147" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147" s="271"/>
+      <c r="K147" s="271" t="s">
+        <v>1</v>
+      </c>
+      <c r="L147" s="271"/>
+      <c r="M147" s="273">
+        <v>0</v>
+      </c>
+      <c r="N147" s="273">
+        <v>0</v>
+      </c>
+      <c r="O147" s="273">
         <v>12</v>
       </c>
-      <c r="P147" s="271">
+      <c r="P147" s="273">
         <v>12</v>
       </c>
-      <c r="Q147" s="271">
-        <v>0</v>
-      </c>
-      <c r="R147" s="284">
+      <c r="Q147" s="273">
+        <v>0</v>
+      </c>
+      <c r="R147" s="304">
         <f>F147/$F$2/3*2</f>
         <v>8</v>
       </c>
@@ -29028,34 +29022,34 @@
       </c>
     </row>
     <row r="148" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B148" s="281"/>
+      <c r="B148" s="308"/>
       <c r="C148" s="22" t="s">
         <v>327</v>
       </c>
       <c r="D148" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E148" s="295"/>
-      <c r="F148" s="285"/>
-      <c r="G148" s="285"/>
-      <c r="H148" s="288"/>
-      <c r="I148" s="288"/>
-      <c r="J148" s="288"/>
-      <c r="K148" s="296"/>
-      <c r="L148" s="288"/>
-      <c r="M148" s="285"/>
-      <c r="N148" s="285"/>
-      <c r="O148" s="285"/>
-      <c r="P148" s="285"/>
-      <c r="Q148" s="285"/>
-      <c r="R148" s="330"/>
+      <c r="E148" s="316"/>
+      <c r="F148" s="300"/>
+      <c r="G148" s="300"/>
+      <c r="H148" s="272"/>
+      <c r="I148" s="272"/>
+      <c r="J148" s="272"/>
+      <c r="K148" s="325"/>
+      <c r="L148" s="272"/>
+      <c r="M148" s="300"/>
+      <c r="N148" s="300"/>
+      <c r="O148" s="300"/>
+      <c r="P148" s="300"/>
+      <c r="Q148" s="300"/>
+      <c r="R148" s="326"/>
       <c r="S148" s="47"/>
       <c r="T148" s="172" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="149" spans="2:24" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B149" s="282"/>
+      <c r="B149" s="309"/>
       <c r="C149" s="33" t="s">
         <v>11</v>
       </c>
@@ -29145,14 +29139,14 @@
       <c r="I151" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J151" s="311" t="s">
+      <c r="J151" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K151" s="312"/>
-      <c r="L151" s="320" t="s">
+      <c r="K151" s="285"/>
+      <c r="L151" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M151" s="321"/>
+      <c r="M151" s="294"/>
       <c r="N151" s="84" t="s">
         <v>49</v>
       </c>
@@ -29318,6 +29312,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="M34:Q34"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="B7:B26"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="B36:B61"/>
+    <mergeCell ref="B62:B75"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="B86:B111"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B134:B149"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:Q84"/>
+    <mergeCell ref="B112:B133"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="H147:H148"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="M145:M146"/>
     <mergeCell ref="J151:K151"/>
     <mergeCell ref="L151:M151"/>
     <mergeCell ref="R147:R148"/>
@@ -29334,64 +29386,6 @@
     <mergeCell ref="O147:O148"/>
     <mergeCell ref="Q147:Q148"/>
     <mergeCell ref="P147:P148"/>
-    <mergeCell ref="B134:B149"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:Q84"/>
-    <mergeCell ref="B112:B133"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="L147:L148"/>
-    <mergeCell ref="H147:H148"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="O145:O146"/>
-    <mergeCell ref="Q145:Q146"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="L145:L146"/>
-    <mergeCell ref="M145:M146"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="B36:B61"/>
-    <mergeCell ref="B62:B75"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="B86:B111"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="B7:B26"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="J147:J148"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="M34:Q34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -29412,8 +29406,8 @@
   </sheetPr>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -29485,53 +29479,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="298" t="s">
+      <c r="B6" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="303" t="s">
+      <c r="D6" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="305" t="s">
+      <c r="E6" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="305" t="s">
+      <c r="G6" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="307"/>
+      <c r="I6" s="290"/>
       <c r="J6" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="307"/>
-      <c r="L6" s="328" t="s">
+      <c r="K6" s="290"/>
+      <c r="L6" s="327" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="290"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="290"/>
-      <c r="Q6" s="307"/>
-      <c r="R6" s="298" t="s">
+      <c r="N6" s="295"/>
+      <c r="O6" s="295"/>
+      <c r="P6" s="295"/>
+      <c r="Q6" s="290"/>
+      <c r="R6" s="297" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="299"/>
+      <c r="B7" s="298"/>
       <c r="C7" s="332"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
       <c r="H7" s="90" t="s">
         <v>8</v>
       </c>
@@ -29544,7 +29538,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="329"/>
+      <c r="L7" s="328"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -29560,10 +29554,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="299"/>
+      <c r="R7" s="298"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="292" t="s">
+      <c r="B8" s="310" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -29613,7 +29607,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="292"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>328</v>
       </c>
@@ -29661,7 +29655,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="292"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -29709,7 +29703,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="292"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -29757,7 +29751,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="292"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="43" t="s">
         <v>329</v>
       </c>
@@ -29805,7 +29799,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="292"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>330</v>
       </c>
@@ -29853,7 +29847,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="292"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -29901,7 +29895,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="292"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -29949,7 +29943,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="292"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="19" t="s">
         <v>296</v>
       </c>
@@ -29997,7 +29991,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="292"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>297</v>
       </c>
@@ -30045,7 +30039,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="292"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -30093,7 +30087,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="292"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -30141,7 +30135,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="292"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -30189,7 +30183,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="292"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -30237,7 +30231,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="292"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -30285,7 +30279,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="292"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -30333,7 +30327,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="293"/>
+      <c r="B24" s="311"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -30388,7 +30382,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="294" t="s">
+      <c r="B25" s="312" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -30438,7 +30432,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="292"/>
+      <c r="B26" s="310"/>
       <c r="C26" s="43" t="s">
         <v>331</v>
       </c>
@@ -30486,7 +30480,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="292"/>
+      <c r="B27" s="310"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -30534,7 +30528,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="292"/>
+      <c r="B28" s="310"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -30582,7 +30576,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="292"/>
+      <c r="B29" s="310"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -30630,7 +30624,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="292"/>
+      <c r="B30" s="310"/>
       <c r="C30" s="43" t="s">
         <v>332</v>
       </c>
@@ -30678,7 +30672,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="292"/>
+      <c r="B31" s="310"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -30726,7 +30720,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="292"/>
+      <c r="B32" s="310"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -30774,7 +30768,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="292"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -30822,7 +30816,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="292"/>
+      <c r="B34" s="310"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -30870,7 +30864,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="292"/>
+      <c r="B35" s="310"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -30918,7 +30912,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="292"/>
+      <c r="B36" s="310"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -30966,7 +30960,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="292"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -31014,7 +31008,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="292"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -31062,7 +31056,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="292"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -31110,7 +31104,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="293"/>
+      <c r="B40" s="311"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -31193,14 +31187,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="311" t="s">
+      <c r="J42" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="312"/>
-      <c r="L42" s="320" t="s">
+      <c r="K42" s="285"/>
+      <c r="L42" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="321"/>
+      <c r="M42" s="294"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -31345,53 +31339,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="298" t="s">
+      <c r="B49" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="303" t="s">
+      <c r="D49" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="305" t="s">
+      <c r="E49" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="305" t="s">
+      <c r="G49" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="307"/>
+      <c r="I49" s="290"/>
       <c r="J49" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="307"/>
-      <c r="L49" s="328" t="s">
+      <c r="K49" s="290"/>
+      <c r="L49" s="327" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="290"/>
-      <c r="O49" s="290"/>
-      <c r="P49" s="290"/>
-      <c r="Q49" s="307"/>
-      <c r="R49" s="298" t="s">
+      <c r="N49" s="295"/>
+      <c r="O49" s="295"/>
+      <c r="P49" s="295"/>
+      <c r="Q49" s="290"/>
+      <c r="R49" s="297" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="299"/>
+      <c r="B50" s="298"/>
       <c r="C50" s="332"/>
-      <c r="D50" s="304"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="306"/>
-      <c r="G50" s="306"/>
+      <c r="D50" s="321"/>
+      <c r="E50" s="298"/>
+      <c r="F50" s="319"/>
+      <c r="G50" s="319"/>
       <c r="H50" s="90" t="s">
         <v>8</v>
       </c>
@@ -31404,7 +31398,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="329"/>
+      <c r="L50" s="328"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -31420,10 +31414,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="299"/>
+      <c r="R50" s="298"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="292" t="s">
+      <c r="B51" s="310" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -31473,7 +31467,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="292"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="43" t="s">
         <v>328</v>
       </c>
@@ -31521,7 +31515,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="292"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -31569,7 +31563,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="292"/>
+      <c r="B54" s="310"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -31617,7 +31611,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="292"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="43" t="s">
         <v>375</v>
       </c>
@@ -31665,7 +31659,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="292"/>
+      <c r="B56" s="310"/>
       <c r="C56" s="43" t="s">
         <v>330</v>
       </c>
@@ -31713,7 +31707,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="292"/>
+      <c r="B57" s="310"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -31761,7 +31755,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="292"/>
+      <c r="B58" s="310"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -31809,7 +31803,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="292"/>
+      <c r="B59" s="310"/>
       <c r="C59" s="19" t="s">
         <v>296</v>
       </c>
@@ -31857,7 +31851,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="292"/>
+      <c r="B60" s="310"/>
       <c r="C60" s="43" t="s">
         <v>297</v>
       </c>
@@ -31905,7 +31899,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="292"/>
+      <c r="B61" s="310"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -31953,7 +31947,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="292"/>
+      <c r="B62" s="310"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -32001,7 +31995,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="292"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -32049,7 +32043,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="292"/>
+      <c r="B64" s="310"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -32097,7 +32091,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="292"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -32145,7 +32139,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="292"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -32193,7 +32187,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="293"/>
+      <c r="B67" s="311"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -32248,7 +32242,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="294" t="s">
+      <c r="B68" s="312" t="s">
         <v>40</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -32298,7 +32292,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="292"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>331</v>
       </c>
@@ -32346,7 +32340,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="292"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -32394,7 +32388,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="292"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -32442,7 +32436,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="292"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -32490,7 +32484,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="292"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="43" t="s">
         <v>332</v>
       </c>
@@ -32538,7 +32532,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="292"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -32586,7 +32580,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="292"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -32634,7 +32628,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="292"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -32682,7 +32676,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="292"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -32730,7 +32724,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="292"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -32778,7 +32772,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="292"/>
+      <c r="B79" s="310"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -32826,7 +32820,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="292"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -32874,7 +32868,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="292"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -32922,7 +32916,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="292"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -32971,7 +32965,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="293"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -33026,7 +33020,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="280" t="s">
+      <c r="B84" s="307" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -33076,7 +33070,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="281"/>
+      <c r="B85" s="308"/>
       <c r="C85" s="43" t="s">
         <v>333</v>
       </c>
@@ -33124,7 +33118,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="281"/>
+      <c r="B86" s="308"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -33172,7 +33166,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="281"/>
+      <c r="B87" s="308"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -33220,7 +33214,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="281"/>
+      <c r="B88" s="308"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -33268,7 +33262,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="281"/>
+      <c r="B89" s="308"/>
       <c r="C89" s="19" t="s">
         <v>334</v>
       </c>
@@ -33316,7 +33310,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="281"/>
+      <c r="B90" s="308"/>
       <c r="C90" s="43" t="s">
         <v>335</v>
       </c>
@@ -33364,7 +33358,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="281"/>
+      <c r="B91" s="308"/>
       <c r="C91" s="22" t="s">
         <v>124</v>
       </c>
@@ -33412,7 +33406,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="281"/>
+      <c r="B92" s="308"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -33460,7 +33454,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="281"/>
+      <c r="B93" s="308"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -33509,7 +33503,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="282"/>
+      <c r="B94" s="309"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -33592,14 +33586,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="311" t="s">
+      <c r="J96" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="312"/>
-      <c r="L96" s="320" t="s">
+      <c r="K96" s="285"/>
+      <c r="L96" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="321"/>
+      <c r="M96" s="294"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -33752,26 +33746,6 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B8:B24"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B25:B40"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B84:B94"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:Q49"/>
     <mergeCell ref="R49:R50"/>
     <mergeCell ref="B51:B67"/>
     <mergeCell ref="B68:B83"/>
@@ -33783,6 +33757,26 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D49:D50"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:Q49"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B25:B40"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -33802,8 +33796,8 @@
   </sheetPr>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A49" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -33875,53 +33869,53 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="298" t="s">
+      <c r="B6" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="303" t="s">
+      <c r="D6" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="305" t="s">
+      <c r="E6" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="305" t="s">
+      <c r="G6" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="307"/>
+      <c r="I6" s="290"/>
       <c r="J6" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="307"/>
-      <c r="L6" s="328" t="s">
+      <c r="K6" s="290"/>
+      <c r="L6" s="327" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="290"/>
-      <c r="O6" s="290"/>
-      <c r="P6" s="290"/>
-      <c r="Q6" s="307"/>
-      <c r="R6" s="298" t="s">
+      <c r="N6" s="295"/>
+      <c r="O6" s="295"/>
+      <c r="P6" s="295"/>
+      <c r="Q6" s="290"/>
+      <c r="R6" s="297" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="299"/>
-      <c r="C7" s="314"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
       <c r="H7" s="171" t="s">
         <v>8</v>
       </c>
@@ -33934,7 +33928,7 @@
       <c r="K7" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="329"/>
+      <c r="L7" s="328"/>
       <c r="M7" s="10" t="s">
         <v>22</v>
       </c>
@@ -33950,10 +33944,10 @@
       <c r="Q7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="299"/>
+      <c r="R7" s="298"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B8" s="292" t="s">
+      <c r="B8" s="310" t="s">
         <v>145</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -34003,7 +33997,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B9" s="292"/>
+      <c r="B9" s="310"/>
       <c r="C9" s="43" t="s">
         <v>328</v>
       </c>
@@ -34051,7 +34045,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B10" s="292"/>
+      <c r="B10" s="310"/>
       <c r="C10" s="43" t="s">
         <v>244</v>
       </c>
@@ -34099,7 +34093,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B11" s="292"/>
+      <c r="B11" s="310"/>
       <c r="C11" s="43" t="s">
         <v>245</v>
       </c>
@@ -34147,7 +34141,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B12" s="292"/>
+      <c r="B12" s="310"/>
       <c r="C12" s="43" t="s">
         <v>329</v>
       </c>
@@ -34195,7 +34189,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B13" s="292"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="43" t="s">
         <v>330</v>
       </c>
@@ -34243,7 +34237,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B14" s="292"/>
+      <c r="B14" s="310"/>
       <c r="C14" s="43" t="s">
         <v>248</v>
       </c>
@@ -34291,7 +34285,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B15" s="292"/>
+      <c r="B15" s="310"/>
       <c r="C15" s="147" t="s">
         <v>249</v>
       </c>
@@ -34339,7 +34333,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B16" s="292"/>
+      <c r="B16" s="310"/>
       <c r="C16" s="19" t="s">
         <v>296</v>
       </c>
@@ -34387,7 +34381,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B17" s="292"/>
+      <c r="B17" s="310"/>
       <c r="C17" s="43" t="s">
         <v>297</v>
       </c>
@@ -34435,7 +34429,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B18" s="292"/>
+      <c r="B18" s="310"/>
       <c r="C18" s="22" t="s">
         <v>266</v>
       </c>
@@ -34483,7 +34477,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B19" s="292"/>
+      <c r="B19" s="310"/>
       <c r="C19" s="22" t="s">
         <v>268</v>
       </c>
@@ -34531,7 +34525,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B20" s="292"/>
+      <c r="B20" s="310"/>
       <c r="C20" s="22" t="s">
         <v>269</v>
       </c>
@@ -34579,7 +34573,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B21" s="292"/>
+      <c r="B21" s="310"/>
       <c r="C21" s="43" t="s">
         <v>77</v>
       </c>
@@ -34627,7 +34621,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B22" s="292"/>
+      <c r="B22" s="310"/>
       <c r="C22" s="43" t="s">
         <v>78</v>
       </c>
@@ -34675,7 +34669,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B23" s="292"/>
+      <c r="B23" s="310"/>
       <c r="C23" s="43" t="s">
         <v>121</v>
       </c>
@@ -34723,7 +34717,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="293"/>
+      <c r="B24" s="311"/>
       <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
@@ -34778,7 +34772,7 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B25" s="294" t="s">
+      <c r="B25" s="312" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -34828,7 +34822,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B26" s="292"/>
+      <c r="B26" s="310"/>
       <c r="C26" s="43" t="s">
         <v>331</v>
       </c>
@@ -34876,7 +34870,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B27" s="292"/>
+      <c r="B27" s="310"/>
       <c r="C27" s="43" t="s">
         <v>252</v>
       </c>
@@ -34924,7 +34918,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B28" s="292"/>
+      <c r="B28" s="310"/>
       <c r="C28" s="43" t="s">
         <v>253</v>
       </c>
@@ -34972,7 +34966,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B29" s="292"/>
+      <c r="B29" s="310"/>
       <c r="C29" s="43" t="s">
         <v>284</v>
       </c>
@@ -35020,7 +35014,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B30" s="292"/>
+      <c r="B30" s="310"/>
       <c r="C30" s="43" t="s">
         <v>332</v>
       </c>
@@ -35068,7 +35062,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="292"/>
+      <c r="B31" s="310"/>
       <c r="C31" s="147" t="s">
         <v>261</v>
       </c>
@@ -35116,7 +35110,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B32" s="292"/>
+      <c r="B32" s="310"/>
       <c r="C32" s="19" t="s">
         <v>270</v>
       </c>
@@ -35164,7 +35158,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B33" s="292"/>
+      <c r="B33" s="310"/>
       <c r="C33" s="43" t="s">
         <v>271</v>
       </c>
@@ -35212,7 +35206,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B34" s="292"/>
+      <c r="B34" s="310"/>
       <c r="C34" s="22" t="s">
         <v>122</v>
       </c>
@@ -35260,7 +35254,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B35" s="292"/>
+      <c r="B35" s="310"/>
       <c r="C35" s="22" t="s">
         <v>119</v>
       </c>
@@ -35308,7 +35302,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B36" s="292"/>
+      <c r="B36" s="310"/>
       <c r="C36" s="22" t="s">
         <v>267</v>
       </c>
@@ -35356,7 +35350,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B37" s="292"/>
+      <c r="B37" s="310"/>
       <c r="C37" s="22" t="s">
         <v>104</v>
       </c>
@@ -35404,7 +35398,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B38" s="292"/>
+      <c r="B38" s="310"/>
       <c r="C38" s="22" t="s">
         <v>101</v>
       </c>
@@ -35452,7 +35446,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B39" s="292"/>
+      <c r="B39" s="310"/>
       <c r="C39" s="27" t="s">
         <v>105</v>
       </c>
@@ -35500,7 +35494,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B40" s="293"/>
+      <c r="B40" s="311"/>
       <c r="C40" s="17" t="s">
         <v>11</v>
       </c>
@@ -35583,14 +35577,14 @@
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="311" t="s">
+      <c r="J42" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="312"/>
-      <c r="L42" s="320" t="s">
+      <c r="K42" s="285"/>
+      <c r="L42" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="321"/>
+      <c r="M42" s="294"/>
       <c r="N42" s="84" t="s">
         <v>49</v>
       </c>
@@ -35732,53 +35726,53 @@
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B49" s="298" t="s">
+      <c r="B49" s="297" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="303" t="s">
+      <c r="D49" s="320" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="298" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="305" t="s">
+      <c r="E49" s="297" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="305" t="s">
+      <c r="G49" s="318" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="307"/>
+      <c r="I49" s="290"/>
       <c r="J49" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="K49" s="307"/>
-      <c r="L49" s="328" t="s">
+      <c r="K49" s="290"/>
+      <c r="L49" s="327" t="s">
         <v>26</v>
       </c>
       <c r="M49" s="289" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="290"/>
-      <c r="O49" s="290"/>
-      <c r="P49" s="290"/>
-      <c r="Q49" s="307"/>
-      <c r="R49" s="298" t="s">
+      <c r="N49" s="295"/>
+      <c r="O49" s="295"/>
+      <c r="P49" s="295"/>
+      <c r="Q49" s="290"/>
+      <c r="R49" s="297" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="18" customHeight="1" thickBot="1">
-      <c r="B50" s="299"/>
+      <c r="B50" s="298"/>
       <c r="C50" s="332"/>
-      <c r="D50" s="304"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="306"/>
-      <c r="G50" s="306"/>
+      <c r="D50" s="321"/>
+      <c r="E50" s="298"/>
+      <c r="F50" s="319"/>
+      <c r="G50" s="319"/>
       <c r="H50" s="171" t="s">
         <v>8</v>
       </c>
@@ -35791,7 +35785,7 @@
       <c r="K50" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="329"/>
+      <c r="L50" s="328"/>
       <c r="M50" s="10" t="s">
         <v>22</v>
       </c>
@@ -35807,10 +35801,10 @@
       <c r="Q50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="R50" s="299"/>
+      <c r="R50" s="298"/>
     </row>
     <row r="51" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B51" s="292" t="s">
+      <c r="B51" s="310" t="s">
         <v>140</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -35860,7 +35854,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B52" s="292"/>
+      <c r="B52" s="310"/>
       <c r="C52" s="43" t="s">
         <v>328</v>
       </c>
@@ -35908,7 +35902,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B53" s="292"/>
+      <c r="B53" s="310"/>
       <c r="C53" s="43" t="s">
         <v>244</v>
       </c>
@@ -35956,7 +35950,7 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B54" s="292"/>
+      <c r="B54" s="310"/>
       <c r="C54" s="43" t="s">
         <v>245</v>
       </c>
@@ -36004,7 +35998,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B55" s="292"/>
+      <c r="B55" s="310"/>
       <c r="C55" s="43" t="s">
         <v>329</v>
       </c>
@@ -36052,7 +36046,7 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B56" s="292"/>
+      <c r="B56" s="310"/>
       <c r="C56" s="43" t="s">
         <v>330</v>
       </c>
@@ -36100,7 +36094,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B57" s="292"/>
+      <c r="B57" s="310"/>
       <c r="C57" s="43" t="s">
         <v>248</v>
       </c>
@@ -36148,7 +36142,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B58" s="292"/>
+      <c r="B58" s="310"/>
       <c r="C58" s="147" t="s">
         <v>249</v>
       </c>
@@ -36196,7 +36190,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B59" s="292"/>
+      <c r="B59" s="310"/>
       <c r="C59" s="19" t="s">
         <v>296</v>
       </c>
@@ -36244,7 +36238,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B60" s="292"/>
+      <c r="B60" s="310"/>
       <c r="C60" s="43" t="s">
         <v>297</v>
       </c>
@@ -36292,7 +36286,7 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B61" s="292"/>
+      <c r="B61" s="310"/>
       <c r="C61" s="22" t="s">
         <v>266</v>
       </c>
@@ -36340,7 +36334,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B62" s="292"/>
+      <c r="B62" s="310"/>
       <c r="C62" s="22" t="s">
         <v>268</v>
       </c>
@@ -36388,7 +36382,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B63" s="292"/>
+      <c r="B63" s="310"/>
       <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
@@ -36436,7 +36430,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B64" s="292"/>
+      <c r="B64" s="310"/>
       <c r="C64" s="43" t="s">
         <v>77</v>
       </c>
@@ -36484,7 +36478,7 @@
       </c>
     </row>
     <row r="65" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B65" s="292"/>
+      <c r="B65" s="310"/>
       <c r="C65" s="43" t="s">
         <v>78</v>
       </c>
@@ -36532,7 +36526,7 @@
       </c>
     </row>
     <row r="66" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B66" s="292"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="43" t="s">
         <v>121</v>
       </c>
@@ -36580,7 +36574,7 @@
       </c>
     </row>
     <row r="67" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B67" s="293"/>
+      <c r="B67" s="311"/>
       <c r="C67" s="17" t="s">
         <v>11</v>
       </c>
@@ -36635,7 +36629,7 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B68" s="294" t="s">
+      <c r="B68" s="312" t="s">
         <v>142</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -36685,7 +36679,7 @@
       </c>
     </row>
     <row r="69" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B69" s="292"/>
+      <c r="B69" s="310"/>
       <c r="C69" s="43" t="s">
         <v>331</v>
       </c>
@@ -36733,7 +36727,7 @@
       </c>
     </row>
     <row r="70" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B70" s="292"/>
+      <c r="B70" s="310"/>
       <c r="C70" s="43" t="s">
         <v>252</v>
       </c>
@@ -36781,7 +36775,7 @@
       </c>
     </row>
     <row r="71" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B71" s="292"/>
+      <c r="B71" s="310"/>
       <c r="C71" s="43" t="s">
         <v>253</v>
       </c>
@@ -36829,7 +36823,7 @@
       </c>
     </row>
     <row r="72" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B72" s="292"/>
+      <c r="B72" s="310"/>
       <c r="C72" s="43" t="s">
         <v>284</v>
       </c>
@@ -36877,7 +36871,7 @@
       </c>
     </row>
     <row r="73" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B73" s="292"/>
+      <c r="B73" s="310"/>
       <c r="C73" s="43" t="s">
         <v>332</v>
       </c>
@@ -36925,7 +36919,7 @@
       </c>
     </row>
     <row r="74" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B74" s="292"/>
+      <c r="B74" s="310"/>
       <c r="C74" s="147" t="s">
         <v>261</v>
       </c>
@@ -36973,7 +36967,7 @@
       </c>
     </row>
     <row r="75" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B75" s="292"/>
+      <c r="B75" s="310"/>
       <c r="C75" s="19" t="s">
         <v>270</v>
       </c>
@@ -37021,7 +37015,7 @@
       </c>
     </row>
     <row r="76" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B76" s="292"/>
+      <c r="B76" s="310"/>
       <c r="C76" s="43" t="s">
         <v>271</v>
       </c>
@@ -37069,7 +37063,7 @@
       </c>
     </row>
     <row r="77" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B77" s="292"/>
+      <c r="B77" s="310"/>
       <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
@@ -37120,7 +37114,7 @@
       </c>
     </row>
     <row r="78" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B78" s="292"/>
+      <c r="B78" s="310"/>
       <c r="C78" s="22" t="s">
         <v>119</v>
       </c>
@@ -37168,7 +37162,7 @@
       </c>
     </row>
     <row r="79" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B79" s="292"/>
+      <c r="B79" s="310"/>
       <c r="C79" s="22" t="s">
         <v>267</v>
       </c>
@@ -37216,7 +37210,7 @@
       </c>
     </row>
     <row r="80" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B80" s="292"/>
+      <c r="B80" s="310"/>
       <c r="C80" s="22" t="s">
         <v>104</v>
       </c>
@@ -37264,7 +37258,7 @@
       </c>
     </row>
     <row r="81" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B81" s="292"/>
+      <c r="B81" s="310"/>
       <c r="C81" s="22" t="s">
         <v>101</v>
       </c>
@@ -37312,7 +37306,7 @@
       </c>
     </row>
     <row r="82" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B82" s="292"/>
+      <c r="B82" s="310"/>
       <c r="C82" s="27" t="s">
         <v>105</v>
       </c>
@@ -37361,7 +37355,7 @@
       <c r="S82" s="6"/>
     </row>
     <row r="83" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B83" s="293"/>
+      <c r="B83" s="311"/>
       <c r="C83" s="17" t="s">
         <v>11</v>
       </c>
@@ -37416,7 +37410,7 @@
       <c r="S83" s="6"/>
     </row>
     <row r="84" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B84" s="280" t="s">
+      <c r="B84" s="307" t="s">
         <v>141</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -37466,7 +37460,7 @@
       </c>
     </row>
     <row r="85" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B85" s="281"/>
+      <c r="B85" s="308"/>
       <c r="C85" s="43" t="s">
         <v>333</v>
       </c>
@@ -37514,7 +37508,7 @@
       </c>
     </row>
     <row r="86" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B86" s="281"/>
+      <c r="B86" s="308"/>
       <c r="C86" s="43" t="s">
         <v>147</v>
       </c>
@@ -37562,7 +37556,7 @@
       </c>
     </row>
     <row r="87" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B87" s="281"/>
+      <c r="B87" s="308"/>
       <c r="C87" s="43" t="s">
         <v>262</v>
       </c>
@@ -37610,7 +37604,7 @@
       </c>
     </row>
     <row r="88" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B88" s="281"/>
+      <c r="B88" s="308"/>
       <c r="C88" s="147" t="s">
         <v>62</v>
       </c>
@@ -37658,7 +37652,7 @@
       </c>
     </row>
     <row r="89" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B89" s="281"/>
+      <c r="B89" s="308"/>
       <c r="C89" s="19" t="s">
         <v>334</v>
       </c>
@@ -37706,7 +37700,7 @@
       </c>
     </row>
     <row r="90" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B90" s="281"/>
+      <c r="B90" s="308"/>
       <c r="C90" s="43" t="s">
         <v>336</v>
       </c>
@@ -37754,7 +37748,7 @@
       </c>
     </row>
     <row r="91" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B91" s="281"/>
+      <c r="B91" s="308"/>
       <c r="C91" s="22" t="s">
         <v>132</v>
       </c>
@@ -37802,7 +37796,7 @@
       </c>
     </row>
     <row r="92" spans="2:19" ht="16.5" customHeight="1">
-      <c r="B92" s="281"/>
+      <c r="B92" s="308"/>
       <c r="C92" s="22" t="s">
         <v>127</v>
       </c>
@@ -37850,7 +37844,7 @@
       </c>
     </row>
     <row r="93" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B93" s="281"/>
+      <c r="B93" s="308"/>
       <c r="C93" s="27" t="s">
         <v>126</v>
       </c>
@@ -37899,7 +37893,7 @@
       <c r="S93" s="6"/>
     </row>
     <row r="94" spans="2:19" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B94" s="282"/>
+      <c r="B94" s="309"/>
       <c r="C94" s="33" t="s">
         <v>11</v>
       </c>
@@ -37982,14 +37976,14 @@
       <c r="I96" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="311" t="s">
+      <c r="J96" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="312"/>
-      <c r="L96" s="320" t="s">
+      <c r="K96" s="285"/>
+      <c r="L96" s="293" t="s">
         <v>48</v>
       </c>
-      <c r="M96" s="321"/>
+      <c r="M96" s="294"/>
       <c r="N96" s="84" t="s">
         <v>49</v>
       </c>
@@ -38142,12 +38136,17 @@
     <row r="101" spans="2:18" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="B51:B67"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:Q6"/>
     <mergeCell ref="B8:B24"/>
     <mergeCell ref="B25:B40"/>
     <mergeCell ref="J42:K42"/>
@@ -38162,21 +38161,16 @@
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M49:Q49"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="B51:B67"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="8" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="46" max="16383" man="1"/>
